--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990D2B2-483F-404C-AD4F-4C8D93786D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,9 @@
     <sheet name="Deal" sheetId="4" r:id="rId6"/>
     <sheet name="Partnerships" sheetId="8" r:id="rId7"/>
     <sheet name="Commitments" sheetId="9" r:id="rId8"/>
+    <sheet name="Task" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -326,12 +326,162 @@
   </si>
   <si>
     <t>Alexa Co-Invest Fund1</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Under Evaluation</t>
+  </si>
+  <si>
+    <t>Watchlist</t>
+  </si>
+  <si>
+    <t>TWINS1</t>
+  </si>
+  <si>
+    <t>UE Company 1</t>
+  </si>
+  <si>
+    <t>TWINS2</t>
+  </si>
+  <si>
+    <t>WL Company 2</t>
+  </si>
+  <si>
+    <t>TWINS3</t>
+  </si>
+  <si>
+    <t>UE Company 3</t>
+  </si>
+  <si>
+    <t>TWINS4</t>
+  </si>
+  <si>
+    <t>WL Company 4</t>
+  </si>
+  <si>
+    <t>TWCON1</t>
+  </si>
+  <si>
+    <t>UE</t>
+  </si>
+  <si>
+    <t>Contact1</t>
+  </si>
+  <si>
+    <t>navatariptesting+77284@gmail.com</t>
+  </si>
+  <si>
+    <t>TWCON2</t>
+  </si>
+  <si>
+    <t>Contact2</t>
+  </si>
+  <si>
+    <t>navatariptesting+32672@gmail.com</t>
+  </si>
+  <si>
+    <t>TWCON3</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>Contact3</t>
+  </si>
+  <si>
+    <t>navatariptesting+68295@gmail.com</t>
+  </si>
+  <si>
+    <t>TWCON4</t>
+  </si>
+  <si>
+    <t>Contact4</t>
+  </si>
+  <si>
+    <t>navatariptesting+28836@gmail.com</t>
+  </si>
+  <si>
+    <t>TWCON5</t>
+  </si>
+  <si>
+    <t>navatariptesting+8707@gmail.com</t>
+  </si>
+  <si>
+    <t>Update Label Task 1</t>
+  </si>
+  <si>
+    <t>TWTask9</t>
+  </si>
+  <si>
+    <t>CR Task 1</t>
+  </si>
+  <si>
+    <t>TWTask8</t>
+  </si>
+  <si>
+    <t>WL Task 8</t>
+  </si>
+  <si>
+    <t>TWTask7</t>
+  </si>
+  <si>
+    <t>WL Task 6</t>
+  </si>
+  <si>
+    <t>TWTask6</t>
+  </si>
+  <si>
+    <t>WL Task 5</t>
+  </si>
+  <si>
+    <t>TWTask5</t>
+  </si>
+  <si>
+    <t>WL Task 4</t>
+  </si>
+  <si>
+    <t>TWTask4</t>
+  </si>
+  <si>
+    <t>WL Task 3</t>
+  </si>
+  <si>
+    <t>TWTask3</t>
+  </si>
+  <si>
+    <t>WL Task 2</t>
+  </si>
+  <si>
+    <t>TWTask2</t>
+  </si>
+  <si>
+    <t>WL Task 1</t>
+  </si>
+  <si>
+    <t>TWTask1</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>CDINS1</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>CDINS2</t>
+  </si>
+  <si>
+    <t>HCL India</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -374,7 +524,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +543,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -407,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -444,10 +600,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2EA63286-6559-42FE-842A-51CA59FA0537}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -822,7 +985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8B9A0-4A66-4C6E-B716-5700689FB494}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -885,11 +1048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039D01EB-1016-4148-939A-D18F1C4E638F}">
-  <dimension ref="A1:ALO4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALO12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +1060,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1003" x14ac:dyDescent="0.25">
@@ -909,7 +1073,9 @@
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1943,17 +2109,101 @@
         <v>67</v>
       </c>
     </row>
+    <row r="6" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E897D9-152C-4D67-A3B8-1E6680A82519}">
-  <dimension ref="A1:ALR2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3008,13 +3258,98 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F868C62-D017-4D9D-AEB8-FC1D99CDD3D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,7 +3428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C36F35-936B-433C-9C73-2ED89ECCFD09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4178,7 +4513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DF354-F35E-429D-8382-AA3C8F3A1C0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4235,10 +4570,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A50685-AE68-4025-8301-9379FBCD7B31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4362,4 +4697,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D3F4A-1C39-42FA-8869-0DAF043A4B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="220">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -633,12 +634,75 @@
   </si>
   <si>
     <t>Name&lt;column&gt;Title&lt;column&gt;Email&lt;break&gt;Staff Name&lt;column&gt;Title&lt;column&gt;Mobile Phone</t>
+  </si>
+  <si>
+    <t>FC2</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Test Demo 1</t>
+  </si>
+  <si>
+    <t>FC3</t>
+  </si>
+  <si>
+    <t>Test Demo 2</t>
+  </si>
+  <si>
+    <t>FC4</t>
+  </si>
+  <si>
+    <t>Test Demo 3</t>
+  </si>
+  <si>
+    <t>FC5</t>
+  </si>
+  <si>
+    <t>Test Demo 4</t>
+  </si>
+  <si>
+    <t>FC6</t>
+  </si>
+  <si>
+    <t>Test Demo 5</t>
+  </si>
+  <si>
+    <t>FC7</t>
+  </si>
+  <si>
+    <t>Test Demo 6</t>
+  </si>
+  <si>
+    <t>FC8</t>
+  </si>
+  <si>
+    <t>Test Demo 7</t>
+  </si>
+  <si>
+    <t>FC9</t>
+  </si>
+  <si>
+    <t>Test Demo 8</t>
+  </si>
+  <si>
+    <t>FC10</t>
+  </si>
+  <si>
+    <t>Test Demo 9</t>
+  </si>
+  <si>
+    <t>FC11</t>
+  </si>
+  <si>
+    <t>Test Demo 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -787,7 +851,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1162,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1223,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1280,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1410,10 +1474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1513,11 +1579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,13 +1636,183 @@
         <v>43</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ALO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,7 +2974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3888,7 +4124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3995,7 +4231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AML7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5092,7 +5328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5162,7 +5398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5211,10 +5447,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09D3F4A-1C39-42FA-8869-0DAF043A4B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9257EFF-0526-48D0-89ED-4E7509AB63C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="265">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -697,6 +697,141 @@
   </si>
   <si>
     <t>Test Demo 10</t>
+  </si>
+  <si>
+    <t>Deal Demo 1</t>
+  </si>
+  <si>
+    <t>Deal Demo 2</t>
+  </si>
+  <si>
+    <t>Deal Demo 3</t>
+  </si>
+  <si>
+    <t>Deal Demo 4</t>
+  </si>
+  <si>
+    <t>Deal Demo 5</t>
+  </si>
+  <si>
+    <t>Deal Demo 6</t>
+  </si>
+  <si>
+    <t>Deal Demo 7</t>
+  </si>
+  <si>
+    <t>Deal Demo 8</t>
+  </si>
+  <si>
+    <t>Deal Demo 9</t>
+  </si>
+  <si>
+    <t>Deal Demo 10</t>
+  </si>
+  <si>
+    <t>FC12</t>
+  </si>
+  <si>
+    <t>FC13</t>
+  </si>
+  <si>
+    <t>FC14</t>
+  </si>
+  <si>
+    <t>FC15</t>
+  </si>
+  <si>
+    <t>FC16</t>
+  </si>
+  <si>
+    <t>FC17</t>
+  </si>
+  <si>
+    <t>FC18</t>
+  </si>
+  <si>
+    <t>FC19</t>
+  </si>
+  <si>
+    <t>FC20</t>
+  </si>
+  <si>
+    <t>FC21</t>
+  </si>
+  <si>
+    <t>Event Demo 1</t>
+  </si>
+  <si>
+    <t>Event Demo 2</t>
+  </si>
+  <si>
+    <t>Event Demo 3</t>
+  </si>
+  <si>
+    <t>Event Demo 4</t>
+  </si>
+  <si>
+    <t>Event Demo 5</t>
+  </si>
+  <si>
+    <t>Event Demo 6</t>
+  </si>
+  <si>
+    <t>Event Demo 7</t>
+  </si>
+  <si>
+    <t>Event Demo 8</t>
+  </si>
+  <si>
+    <t>Event Demo 9</t>
+  </si>
+  <si>
+    <t>Event Demo 10</t>
+  </si>
+  <si>
+    <t>Marketing Event</t>
+  </si>
+  <si>
+    <t>FC22</t>
+  </si>
+  <si>
+    <t>FC23</t>
+  </si>
+  <si>
+    <t>FC24</t>
+  </si>
+  <si>
+    <t>FC25</t>
+  </si>
+  <si>
+    <t>FC26</t>
+  </si>
+  <si>
+    <t>FC27</t>
+  </si>
+  <si>
+    <t>FC28</t>
+  </si>
+  <si>
+    <t>FC29</t>
+  </si>
+  <si>
+    <t>FC30</t>
+  </si>
+  <si>
+    <t>FC31</t>
+  </si>
+  <si>
+    <t>TestAlexa Sep Deal 2020</t>
+  </si>
+  <si>
+    <t>TestOct Alexa Deal 2021</t>
+  </si>
+  <si>
+    <t>Deal2</t>
+  </si>
+  <si>
+    <t>Deal3</t>
   </si>
 </sst>
 </file>
@@ -706,7 +841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +884,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1477,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1580,16 +1721,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1" collapsed="1"/>
@@ -1806,7 +1947,348 @@
         <v>43</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>253</v>
+      </c>
+      <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4234,14 +4716,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AML7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -5310,6 +5792,34 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>153</v>
@@ -5323,6 +5833,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5450,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9257EFF-0526-48D0-89ED-4E7509AB63C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="267">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -832,12 +831,18 @@
   </si>
   <si>
     <t>Deal3</t>
+  </si>
+  <si>
+    <t>CDINS3</t>
+  </si>
+  <si>
+    <t>Apex Corp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -992,7 +997,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1269,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1367,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1428,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1485,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1615,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1720,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,11 +2299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,7 +3441,18 @@
         <v>81</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1003" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4606,7 +4622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4713,10 +4729,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5839,7 +5855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5909,7 +5925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5958,7 +5974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABA63A-A614-45A2-8E0B-636D51B8D921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="269">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -837,16 +838,22 @@
   </si>
   <si>
     <t>Apex Corp</t>
+  </si>
+  <si>
+    <t>TestAlexa Event 1</t>
+  </si>
+  <si>
+    <t>ME1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,12 +890,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -942,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -993,11 +994,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1372,11 +1372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" activeCellId="1" sqref="E3 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
     <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -1424,7 +1424,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
+      <c r="A3" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1433,7 +1447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1490,7 +1504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1620,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1725,7 +1739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2293,16 +2307,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ALO17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3472,7 +3486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALR8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4622,7 +4636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4729,7 +4743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AML7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5849,13 +5863,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5925,7 +5939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5974,7 +5988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABA63A-A614-45A2-8E0B-636D51B8D921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="307">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -844,12 +843,126 @@
   </si>
   <si>
     <t>ME1</t>
+  </si>
+  <si>
+    <t>HSRPIP1</t>
+  </si>
+  <si>
+    <t>TCS-Pipeline</t>
+  </si>
+  <si>
+    <t>Patel Sons</t>
+  </si>
+  <si>
+    <t>Samantha Rao</t>
+  </si>
+  <si>
+    <t>Ajio Trand</t>
+  </si>
+  <si>
+    <t>HSRPIP2</t>
+  </si>
+  <si>
+    <t>Reliance Trade</t>
+  </si>
+  <si>
+    <t>HSRPIP3</t>
+  </si>
+  <si>
+    <t>IriesIndia- pipeline</t>
+  </si>
+  <si>
+    <t>LOI</t>
+  </si>
+  <si>
+    <t>Iries India</t>
+  </si>
+  <si>
+    <t>HSRPIP4</t>
+  </si>
+  <si>
+    <t>NIIT-Pipeline</t>
+  </si>
+  <si>
+    <t>NDA Signed</t>
+  </si>
+  <si>
+    <t>Jinu Alex</t>
+  </si>
+  <si>
+    <t>HSRPIP5</t>
+  </si>
+  <si>
+    <t>Patel Property Deal</t>
+  </si>
+  <si>
+    <t>Anuradha Jaiswal</t>
+  </si>
+  <si>
+    <t>Sharda Firms</t>
+  </si>
+  <si>
+    <t>HSRCON1</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>navatariptesting+33853@gmail.com</t>
+  </si>
+  <si>
+    <t>HSRCON2</t>
+  </si>
+  <si>
+    <t>Jinu</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>navatariptesting+13818@gmail.com</t>
+  </si>
+  <si>
+    <t>HSRCON3</t>
+  </si>
+  <si>
+    <t>Anuradha</t>
+  </si>
+  <si>
+    <t>Jaiswal</t>
+  </si>
+  <si>
+    <t>Kanya Groups</t>
+  </si>
+  <si>
+    <t>navatariptesting+78464@gmail.com</t>
+  </si>
+  <si>
+    <t>HSRINS1</t>
+  </si>
+  <si>
+    <t>Intermediary</t>
+  </si>
+  <si>
+    <t>HSRINS2</t>
+  </si>
+  <si>
+    <t>HSRINS3</t>
+  </si>
+  <si>
+    <t>HSRINS4</t>
+  </si>
+  <si>
+    <t>HSRINS5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -997,7 +1110,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,10 +1387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1372,10 +1485,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" activeCellId="1" sqref="E3 E18"/>
     </sheetView>
   </sheetViews>
@@ -1447,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1504,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1634,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1739,7 +1852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,11 +2426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:ALO17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALO23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,17 +3593,72 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:ALR8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,13 +4798,64 @@
         <v>124</v>
       </c>
     </row>
+    <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4743,11 +4962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AML7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,6 +6081,106 @@
         <v>32</v>
       </c>
     </row>
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5869,7 +6188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5939,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5988,7 +6307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="307">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1390,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2429,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -3658,7 +3658,7 @@
   <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,13 +4868,14 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -4887,20 +4888,23 @@
       <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -4914,7 +4918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>150</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>152</v>
       </c>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292F9F8C-9537-4469-9629-728B5D73D5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
@@ -25,6 +26,7 @@
     <sheet name="Partnerships" sheetId="8" r:id="rId11"/>
     <sheet name="Commitments" sheetId="9" r:id="rId12"/>
     <sheet name="Task" sheetId="12" r:id="rId13"/>
+    <sheet name="UploadImageData" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="320">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -957,16 +959,55 @@
   </si>
   <si>
     <t>HSRINS5</t>
+  </si>
+  <si>
+    <t>Image_Field_Name</t>
+  </si>
+  <si>
+    <t>PageLayOut_API_Name</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>UD1</t>
+  </si>
+  <si>
+    <t>Profile_Image__c</t>
+  </si>
+  <si>
+    <t>Profile_Image</t>
+  </si>
+  <si>
+    <t>UD2</t>
+  </si>
+  <si>
+    <t>Pipeline Layout</t>
+  </si>
+  <si>
+    <t>Profile Image</t>
+  </si>
+  <si>
+    <t>UD3</t>
+  </si>
+  <si>
+    <t>Marketing_Events</t>
+  </si>
+  <si>
+    <t>Marketing_Event</t>
+  </si>
+  <si>
+    <t>Firm Events</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1050,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1056,7 +1103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1107,10 +1154,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1387,7 +1435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1485,11 +1533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="1" sqref="E3 E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1617,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1747,11 +1795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,8 +1899,124 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88F4DD-55C1-4316-83ED-C6F3FA56EBCE}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2426,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ALO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3654,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4855,10 +5019,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4966,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AML14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6192,7 +6356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6262,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6311,7 +6475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292F9F8C-9537-4469-9629-728B5D73D5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="FieldSet" sheetId="1" r:id="rId1"/>
-    <sheet name="FieldComponent" sheetId="6" r:id="rId2"/>
-    <sheet name="Entities" sheetId="3" r:id="rId3"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId4"/>
-    <sheet name="Fund" sheetId="7" r:id="rId5"/>
-    <sheet name="Deal" sheetId="4" r:id="rId6"/>
-    <sheet name="DealRequestTracker" sheetId="14" r:id="rId7"/>
-    <sheet name="CustomSDG" sheetId="13" r:id="rId8"/>
-    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId9"/>
-    <sheet name="MarketingEvent" sheetId="15" r:id="rId10"/>
-    <sheet name="Partnerships" sheetId="8" r:id="rId11"/>
-    <sheet name="Commitments" sheetId="9" r:id="rId12"/>
-    <sheet name="Task" sheetId="12" r:id="rId13"/>
-    <sheet name="UploadImageData" sheetId="17" r:id="rId14"/>
+    <sheet name="FilePath" sheetId="18" r:id="rId1"/>
+    <sheet name="FieldSet" sheetId="1" r:id="rId2"/>
+    <sheet name="FieldComponent" sheetId="6" r:id="rId3"/>
+    <sheet name="Entities" sheetId="3" r:id="rId4"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId5"/>
+    <sheet name="Fund" sheetId="7" r:id="rId6"/>
+    <sheet name="Deal" sheetId="4" r:id="rId7"/>
+    <sheet name="DealRequestTracker" sheetId="14" r:id="rId8"/>
+    <sheet name="CustomSDG" sheetId="13" r:id="rId9"/>
+    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId10"/>
+    <sheet name="MarketingEvent" sheetId="15" r:id="rId11"/>
+    <sheet name="Partnerships" sheetId="8" r:id="rId12"/>
+    <sheet name="Commitments" sheetId="9" r:id="rId13"/>
+    <sheet name="Task" sheetId="12" r:id="rId14"/>
+    <sheet name="UploadImageData" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="334">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -998,12 +998,54 @@
   </si>
   <si>
     <t>Firm Events</t>
+  </si>
+  <si>
+    <t>TestCases_Name</t>
+  </si>
+  <si>
+    <t>Navigation_Label_Name</t>
+  </si>
+  <si>
+    <t>Redirection_Label_Name</t>
+  </si>
+  <si>
+    <t>Update_Navigation_Label_Name</t>
+  </si>
+  <si>
+    <t>Updated_Order</t>
+  </si>
+  <si>
+    <t>Module3Tc009_1_UpdateReportsAndDashboardURLWithAnActualReporAndDashboardLink_Action</t>
+  </si>
+  <si>
+    <t>Reports&lt;break&gt;Dashboards</t>
+  </si>
+  <si>
+    <t>Account Referrals&lt;break&gt;Dead Deals</t>
+  </si>
+  <si>
+    <t>Module3Tc011_RenameNavigationLabelAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Fund&lt;break&gt;Contact</t>
+  </si>
+  <si>
+    <t>New Fund&lt;break&gt;New Contact</t>
+  </si>
+  <si>
+    <t>Module3Tc012_ChangeTheOrderOfTheLabelAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>New Contact&lt;break&gt;Reports&lt;break&gt;Fund Manager&lt;break&gt;Institution&lt;break&gt;Partnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40&lt;break&gt;-10&lt;break&gt;5&lt;break&gt;-10&lt;break&gt; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1158,7 +1200,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1435,95 +1477,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>332</v>
+      </c>
+      <c r="E4" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1549,114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1607,8 +1727,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1664,8 +1784,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1794,8 +1914,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1899,8 +2019,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88F4DD-55C1-4316-83ED-C6F3FA56EBCE}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2016,7 +2136,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,8 +2807,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3817,8 +4035,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5018,8 +5236,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5129,8 +5347,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6355,8 +6573,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6425,8 +6643,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6472,108 +6690,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="127.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A02241-B04E-4070-B05C-27881F06B424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="339">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -991,9 +992,6 @@
     <t>UD3</t>
   </si>
   <si>
-    <t>Marketing_Events</t>
-  </si>
-  <si>
     <t>Marketing_Event</t>
   </si>
   <si>
@@ -1040,12 +1038,30 @@
   </si>
   <si>
     <t xml:space="preserve">40&lt;break&gt;-10&lt;break&gt;5&lt;break&gt;-10&lt;break&gt; </t>
+  </si>
+  <si>
+    <t>FieldSetLabel</t>
+  </si>
+  <si>
+    <t>Fund Preferences&lt;break&gt;Existing LP&lt;break&gt;Fund Commitments (mn)&lt;break&gt;Total Co-investment Commitments (mn)&lt;break&gt;Industry&lt;break&gt;Region</t>
+  </si>
+  <si>
+    <t>Log In Date&lt;break&gt;Revenue&lt;break&gt;EBITDA&lt;break&gt;Industry&lt;break&gt;Region&lt;break&gt;Stage</t>
+  </si>
+  <si>
+    <t>Display_field_set</t>
+  </si>
+  <si>
+    <t>Date&lt;break&gt;Type&lt;break&gt;Status&lt;break&gt;Location&lt;break&gt;Main Contact&lt;break&gt;Region</t>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1200,7 +1216,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1477,10 +1493,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1494,52 +1510,52 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
         <v>328</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>329</v>
-      </c>
-      <c r="D3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
         <v>331</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>332</v>
-      </c>
-      <c r="E4" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1653,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1728,7 +1744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1785,7 +1801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1915,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2020,11 +2036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,9 +2052,11 @@
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2060,8 +2078,14 @@
       <c r="G1" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -2083,8 +2107,14 @@
       <c r="G2" s="28" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>313</v>
       </c>
@@ -2106,13 +2136,19 @@
       <c r="G3" s="28" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>195</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>267</v>
@@ -2121,13 +2157,19 @@
         <v>311</v>
       </c>
       <c r="E4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" t="s">
-        <v>319</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>315</v>
+      </c>
+      <c r="H4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2808,7 +2850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4036,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5237,7 +5279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5348,7 +5390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AML14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6574,7 +6616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6644,7 +6686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A02241-B04E-4070-B05C-27881F06B424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="347">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1056,12 +1055,36 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Module3Tc015_1_AddNewNavigationItemsAndVerifyItOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Module3Tc018_CreateSubMenuAndVerify</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Module3Tc019_CreateSubMenuForIIndlevelAndVerifyItOnTheNavigationMenu</t>
+  </si>
+  <si>
+    <t>Test Label 2,10,Reports,,,,,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1216,7 +1239,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1493,11 +1516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1531,7 @@
     <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>319</v>
       </c>
@@ -1524,8 +1547,11 @@
       <c r="E1" s="13" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>324</v>
       </c>
@@ -1536,7 +1562,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>327</v>
       </c>
@@ -1547,7 +1573,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>330</v>
       </c>
@@ -1556,6 +1582,33 @@
       </c>
       <c r="E4" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1669,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1744,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1801,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1931,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,10 +2089,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2178,7 +2231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2276,7 +2329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2850,7 +2903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4078,7 +4131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5279,7 +5332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5390,7 +5443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6616,7 +6669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6686,7 +6739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -886,9 +886,6 @@
     <t>NIIT-Pipeline</t>
   </si>
   <si>
-    <t>NDA Signed</t>
-  </si>
-  <si>
     <t>Jinu Alex</t>
   </si>
   <si>
@@ -1079,6 +1076,9 @@
   </si>
   <si>
     <t>Test Label 2,10,Reports,,,,,</t>
+  </si>
+  <si>
+    <t>Non-Disclosure Agreement</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,82 +1533,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>323</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
         <v>324</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
         <v>327</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>328</v>
-      </c>
-      <c r="D3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
         <v>330</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>331</v>
-      </c>
-      <c r="E4" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" t="s">
         <v>340</v>
-      </c>
-      <c r="B5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" t="s">
         <v>342</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>343</v>
-      </c>
-      <c r="F6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
         <v>345</v>
-      </c>
-      <c r="B7" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2120,27 +2120,27 @@
         <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
         <v>185</v>
@@ -2149,7 +2149,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
         <v>200</v>
@@ -2158,10 +2158,10 @@
         <v>35</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>190</v>
@@ -2178,27 +2178,27 @@
         <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>315</v>
-      </c>
       <c r="H3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I3" t="s">
         <v>335</v>
-      </c>
-      <c r="I3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>195</v>
@@ -2207,22 +2207,22 @@
         <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" t="s">
         <v>317</v>
       </c>
-      <c r="F4" t="s">
-        <v>318</v>
-      </c>
       <c r="G4" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" t="s">
         <v>337</v>
-      </c>
-      <c r="I4" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -4072,29 +4072,29 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>273</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>279</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>271</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -4116,13 +4116,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4135,7 @@
   <dimension ref="A1:ALR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,53 +5277,53 @@
     </row>
     <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
         <v>288</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>289</v>
-      </c>
-      <c r="C10" t="s">
-        <v>290</v>
       </c>
       <c r="D10" t="s">
         <v>273</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
         <v>292</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>293</v>
-      </c>
-      <c r="C11" t="s">
-        <v>294</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" t="s">
         <v>296</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>297</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>298</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>299</v>
-      </c>
-      <c r="E12" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5446,8 +5446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6633,10 +6633,10 @@
         <v>271</v>
       </c>
       <c r="D13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" t="s">
         <v>282</v>
-      </c>
-      <c r="E13" t="s">
-        <v>283</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>279</v>
@@ -6644,10 +6644,10 @@
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" t="s">
         <v>284</v>
-      </c>
-      <c r="B14" t="s">
-        <v>285</v>
       </c>
       <c r="C14" t="s">
         <v>271</v>
@@ -6656,10 +6656,10 @@
         <v>278</v>
       </c>
       <c r="E14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Commitments" sheetId="9" r:id="rId13"/>
     <sheet name="Task" sheetId="12" r:id="rId14"/>
     <sheet name="UploadImageData" sheetId="17" r:id="rId15"/>
+    <sheet name="Fields" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="387">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1079,6 +1080,126 @@
   </si>
   <si>
     <t>Non-Disclosure Agreement</t>
+  </si>
+  <si>
+    <t>Parent_Field_Name</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>M4SDG1</t>
+  </si>
+  <si>
+    <t>M4SDG2</t>
+  </si>
+  <si>
+    <t>Deal Team</t>
+  </si>
+  <si>
+    <t>Deal_Team__c</t>
+  </si>
+  <si>
+    <t>Pipeline__c</t>
+  </si>
+  <si>
+    <t>APIName</t>
+  </si>
+  <si>
+    <t>Override_Label</t>
+  </si>
+  <si>
+    <t>FieldOrder</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>navpeII__Contact_Referral_Source__c</t>
+  </si>
+  <si>
+    <t>Contact Referral Source</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Attendee_Staff__r.Name</t>
+  </si>
+  <si>
+    <t>Attendee_Staff__r.Title</t>
+  </si>
+  <si>
+    <t>Status__c</t>
+  </si>
+  <si>
+    <t>Notes__c</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CField1</t>
+  </si>
+  <si>
+    <t>CField2</t>
+  </si>
+  <si>
+    <t>CField3</t>
+  </si>
+  <si>
+    <t>CField4</t>
+  </si>
+  <si>
+    <t>CField5</t>
+  </si>
+  <si>
+    <t>DTField1</t>
+  </si>
+  <si>
+    <t>DTField2</t>
+  </si>
+  <si>
+    <t>AFIeld1</t>
+  </si>
+  <si>
+    <t>AField2</t>
+  </si>
+  <si>
+    <t>AField3</t>
+  </si>
+  <si>
+    <t>AField4</t>
+  </si>
+  <si>
+    <t>DTField3</t>
+  </si>
+  <si>
+    <t>DTField4</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>M4SDG3</t>
+  </si>
+  <si>
+    <t>Attendee</t>
+  </si>
+  <si>
+    <t>Attendee__c</t>
+  </si>
+  <si>
+    <t>Marketing_Event__c</t>
   </si>
 </sst>
 </file>
@@ -1987,9 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2223,6 +2342,230 @@
       </c>
       <c r="I4" t="s">
         <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5446,7 +5789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -6740,10 +7083,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6754,7 +7097,7 @@
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -6767,8 +7110,11 @@
       <c r="D1" s="25" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>158</v>
       </c>
@@ -6780,6 +7126,57 @@
       </c>
       <c r="D2" s="5" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="409">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1200,6 +1200,72 @@
   </si>
   <si>
     <t>Marketing_Event__c</t>
+  </si>
+  <si>
+    <t>Navigation_Label_With_Parent</t>
+  </si>
+  <si>
+    <t>List_View_Object</t>
+  </si>
+  <si>
+    <t>List_View_Name</t>
+  </si>
+  <si>
+    <t>Module3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
+  </si>
+  <si>
+    <t>Accounts/Reports&lt;break&gt;Dashboards</t>
+  </si>
+  <si>
+    <t>Module3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
+  </si>
+  <si>
+    <t>Marketing Prospects</t>
+  </si>
+  <si>
+    <t>navpeII__Marketing_Prospect__c</t>
+  </si>
+  <si>
+    <t>Automation_All</t>
+  </si>
+  <si>
+    <t>Module3Tc023_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
+  </si>
+  <si>
+    <t>Custom Label 2</t>
+  </si>
+  <si>
+    <t>Accounts/Custom Label 2</t>
+  </si>
+  <si>
+    <t>Module3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>OtherAccount</t>
+  </si>
+  <si>
+    <t>Institution&lt;break&gt;Company&lt;break&gt;Fund Manager&lt;break&gt;Fund Manager’s Fund&lt;break&gt;Individual Investor&lt;break&gt;Intermediary&lt;break&gt;Limited Partner</t>
+  </si>
+  <si>
+    <t>Module3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Intermediary&lt;break&gt;Individual Investor&lt;break&gt;Limited Partner</t>
+  </si>
+  <si>
+    <t>Module3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
+  </si>
+  <si>
+    <t>Module3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
   </si>
 </sst>
 </file>
@@ -1638,21 +1704,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>318</v>
       </c>
@@ -1671,8 +1741,20 @@
       <c r="F1" s="13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>323</v>
       </c>
@@ -1683,7 +1765,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>326</v>
       </c>
@@ -1694,7 +1776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>329</v>
       </c>
@@ -1705,7 +1787,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>339</v>
       </c>
@@ -1713,7 +1795,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>341</v>
       </c>
@@ -1724,12 +1806,113 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B11" t="s">
+        <v>400</v>
+      </c>
+      <c r="J11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B17" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="Task" sheetId="12" r:id="rId14"/>
     <sheet name="UploadImageData" sheetId="17" r:id="rId15"/>
     <sheet name="Fields" sheetId="19" r:id="rId16"/>
+    <sheet name="Attendees" sheetId="20" r:id="rId17"/>
+    <sheet name="Deal Team" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="469">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1127,9 +1129,6 @@
     <t>navpeII__Contact_Referral_Source__c</t>
   </si>
   <si>
-    <t>Contact Referral Source</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -1266,6 +1265,189 @@
   </si>
   <si>
     <t>Module3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M4CON1</t>
+  </si>
+  <si>
+    <t>Test Navatar</t>
+  </si>
+  <si>
+    <t>Test Entity1</t>
+  </si>
+  <si>
+    <t>navatariptesting+77479@gmail.com</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>M4CON2</t>
+  </si>
+  <si>
+    <t>navatariptesting+14649@gmail.com</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>M4CON3</t>
+  </si>
+  <si>
+    <t>navatariptesting+57115@gmail.com</t>
+  </si>
+  <si>
+    <t>M4CON4</t>
+  </si>
+  <si>
+    <t>navatariptesting+18612@gmail.com</t>
+  </si>
+  <si>
+    <t>M4CON5</t>
+  </si>
+  <si>
+    <t>Contact5</t>
+  </si>
+  <si>
+    <t>M4CON6</t>
+  </si>
+  <si>
+    <t>Contact6</t>
+  </si>
+  <si>
+    <t>M4CON7</t>
+  </si>
+  <si>
+    <t>Contact7</t>
+  </si>
+  <si>
+    <t>M4Deal1</t>
+  </si>
+  <si>
+    <t>Deal 1</t>
+  </si>
+  <si>
+    <t>LastModifiedBy.Name</t>
+  </si>
+  <si>
+    <t>LastModifiedBy.Email</t>
+  </si>
+  <si>
+    <t>LastModifiedBy.UserRoleId</t>
+  </si>
+  <si>
+    <t>LastModifiedBy.UserRole.Nam</t>
+  </si>
+  <si>
+    <t>Attendee_Staff</t>
+  </si>
+  <si>
+    <t>M4Att1</t>
+  </si>
+  <si>
+    <t>PE Admin</t>
+  </si>
+  <si>
+    <t>Invited</t>
+  </si>
+  <si>
+    <t>Event 1</t>
+  </si>
+  <si>
+    <t>Salesforce.com, inc. is an American cloud-based software company headquartered in San Francisco, California. It provides (CRM) customer relationship management service and also sells a complementary suite of enterprise applications focused on customer service, marketing automation, analytics, and application development.</t>
+  </si>
+  <si>
+    <t>M4Att2</t>
+  </si>
+  <si>
+    <t>M4Att3</t>
+  </si>
+  <si>
+    <t>M4Att4</t>
+  </si>
+  <si>
+    <t>M4Att5</t>
+  </si>
+  <si>
+    <t>M4Att6</t>
+  </si>
+  <si>
+    <t>DTID</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>M4DT1</t>
+  </si>
+  <si>
+    <t>DT-0017</t>
+  </si>
+  <si>
+    <t>Our Advisor</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>M4DT2</t>
+  </si>
+  <si>
+    <t>DT-0018</t>
+  </si>
+  <si>
+    <t>Company Team</t>
+  </si>
+  <si>
+    <t>M4DT3</t>
+  </si>
+  <si>
+    <t>Company Advisor</t>
+  </si>
+  <si>
+    <t>M4DT4</t>
+  </si>
+  <si>
+    <t>M4DT5</t>
+  </si>
+  <si>
+    <t>M4DT6</t>
+  </si>
+  <si>
+    <t>M4DT7</t>
+  </si>
+  <si>
+    <t>M4DT8</t>
+  </si>
+  <si>
+    <t>M4DT9</t>
+  </si>
+  <si>
+    <t>M4DT10</t>
+  </si>
+  <si>
+    <t>M4DT11</t>
+  </si>
+  <si>
+    <t>M4ME1</t>
+  </si>
+  <si>
+    <t>M4INS1</t>
+  </si>
+  <si>
+    <t>M4INS2</t>
+  </si>
+  <si>
+    <t>Test Entity4</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1457,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,6 +1507,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080707"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1371,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1423,6 +1611,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,13 +1931,13 @@
         <v>338</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>389</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
@@ -1816,103 +2005,103 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
         <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" t="s">
         <v>392</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>393</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>394</v>
-      </c>
-      <c r="I9" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" t="s">
         <v>396</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s">
         <v>397</v>
-      </c>
-      <c r="G10" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" t="s">
         <v>399</v>
       </c>
-      <c r="B11" t="s">
+      <c r="J11" t="s">
         <v>400</v>
-      </c>
-      <c r="J11" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="J12" t="s">
         <v>402</v>
-      </c>
-      <c r="B12" t="s">
-        <v>400</v>
-      </c>
-      <c r="J12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2027,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,6 +2281,20 @@
       </c>
       <c r="E3" s="5" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2740,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,184 +2774,475 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>359</v>
       </c>
-      <c r="C3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>360</v>
       </c>
-      <c r="C4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>361</v>
       </c>
-      <c r="C6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
+        <v>380</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3430,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALO23"/>
+  <dimension ref="A1:ALO26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,6 +5145,28 @@
         <v>301</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" t="s">
+        <v>468</v>
+      </c>
+      <c r="C26" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4658,10 +5174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALR12"/>
+  <dimension ref="A1:ALR20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,6 +6368,200 @@
         <v>299</v>
       </c>
     </row>
+    <row r="14" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14">
+        <v>8435985993</v>
+      </c>
+      <c r="H14" t="s">
+        <v>412</v>
+      </c>
+      <c r="I14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F15">
+        <v>8435985993</v>
+      </c>
+      <c r="H15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I15" t="s">
+        <v>413</v>
+      </c>
+      <c r="J15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1006" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F16">
+        <v>8435985993</v>
+      </c>
+      <c r="H16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17">
+        <v>8435985993</v>
+      </c>
+      <c r="H17" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" t="s">
+        <v>413</v>
+      </c>
+      <c r="J17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18">
+        <v>8435985993</v>
+      </c>
+      <c r="H18" t="s">
+        <v>412</v>
+      </c>
+      <c r="I18" t="s">
+        <v>413</v>
+      </c>
+      <c r="J18" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19">
+        <v>8435985993</v>
+      </c>
+      <c r="H19" t="s">
+        <v>417</v>
+      </c>
+      <c r="I19" t="s">
+        <v>413</v>
+      </c>
+      <c r="J19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20">
+        <v>8435985993</v>
+      </c>
+      <c r="H20" t="s">
+        <v>412</v>
+      </c>
+      <c r="I20" t="s">
+        <v>413</v>
+      </c>
+      <c r="J20" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5970,10 +6680,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML14"/>
+  <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7188,6 +7898,20 @@
         <v>286</v>
       </c>
     </row>
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7347,19 +8071,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="480">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1448,6 +1448,39 @@
   </si>
   <si>
     <t>Test Entity4</t>
+  </si>
+  <si>
+    <t>Action_Object</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Module3Tc032_RemoveListViewObjectAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc033_RemoveListViewNameAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc034_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
+  </si>
+  <si>
+    <t>New Fund</t>
+  </si>
+  <si>
+    <t>navpeII__Fund__c</t>
+  </si>
+  <si>
+    <t>Fund&lt;break&gt;Fund of Funds</t>
+  </si>
+  <si>
+    <t>Module3Tc035_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>Module3Tc036_1_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Module3Tc036_2_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,9 +1942,10 @@
     <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="66" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>318</v>
       </c>
@@ -1942,8 +1976,11 @@
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>323</v>
       </c>
@@ -1954,7 +1991,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>326</v>
       </c>
@@ -1965,7 +2002,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>329</v>
       </c>
@@ -1976,7 +2013,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>339</v>
       </c>
@@ -1984,7 +2021,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>341</v>
       </c>
@@ -1995,7 +2032,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>344</v>
       </c>
@@ -2003,7 +2040,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>389</v>
       </c>
@@ -2014,7 +2051,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>391</v>
       </c>
@@ -2028,7 +2065,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>395</v>
       </c>
@@ -2039,7 +2076,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>398</v>
       </c>
@@ -2050,7 +2087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>401</v>
       </c>
@@ -2061,7 +2098,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>403</v>
       </c>
@@ -2069,7 +2106,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>404</v>
       </c>
@@ -2077,18 +2114,21 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>399</v>
       </c>
+      <c r="H15" t="s">
+        <v>470</v>
+      </c>
       <c r="I15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>406</v>
       </c>
@@ -2096,12 +2136,78 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>407</v>
       </c>
       <c r="B17" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="H19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" t="s">
+        <v>474</v>
+      </c>
+      <c r="H20" t="s">
+        <v>475</v>
+      </c>
+      <c r="I20" t="s">
+        <v>394</v>
+      </c>
+      <c r="J20" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" t="s">
+        <v>474</v>
+      </c>
+      <c r="K21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -5176,7 +5282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView activeTab="15" firstSheet="11" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="FilePath" sheetId="18" r:id="rId1"/>
-    <sheet name="FieldSet" sheetId="1" r:id="rId2"/>
-    <sheet name="FieldComponent" sheetId="6" r:id="rId3"/>
-    <sheet name="Entities" sheetId="3" r:id="rId4"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId5"/>
-    <sheet name="Fund" sheetId="7" r:id="rId6"/>
-    <sheet name="Deal" sheetId="4" r:id="rId7"/>
-    <sheet name="DealRequestTracker" sheetId="14" r:id="rId8"/>
-    <sheet name="CustomSDG" sheetId="13" r:id="rId9"/>
-    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId10"/>
-    <sheet name="MarketingEvent" sheetId="15" r:id="rId11"/>
-    <sheet name="Partnerships" sheetId="8" r:id="rId12"/>
-    <sheet name="Commitments" sheetId="9" r:id="rId13"/>
-    <sheet name="Task" sheetId="12" r:id="rId14"/>
-    <sheet name="UploadImageData" sheetId="17" r:id="rId15"/>
-    <sheet name="Fields" sheetId="19" r:id="rId16"/>
-    <sheet name="Attendees" sheetId="20" r:id="rId17"/>
-    <sheet name="Deal Team" sheetId="21" r:id="rId18"/>
+    <sheet name="FilePath" r:id="rId1" sheetId="18"/>
+    <sheet name="FieldSet" r:id="rId2" sheetId="1"/>
+    <sheet name="FieldComponent" r:id="rId3" sheetId="6"/>
+    <sheet name="Entities" r:id="rId4" sheetId="3"/>
+    <sheet name="Contacts" r:id="rId5" sheetId="2"/>
+    <sheet name="Fund" r:id="rId6" sheetId="7"/>
+    <sheet name="Deal" r:id="rId7" sheetId="4"/>
+    <sheet name="DealRequestTracker" r:id="rId8" sheetId="14"/>
+    <sheet name="CustomSDG" r:id="rId9" sheetId="13"/>
+    <sheet name="ToggleButtonCheck" r:id="rId10" sheetId="16"/>
+    <sheet name="MarketingEvent" r:id="rId11" sheetId="15"/>
+    <sheet name="Partnerships" r:id="rId12" sheetId="8"/>
+    <sheet name="Commitments" r:id="rId13" sheetId="9"/>
+    <sheet name="Task" r:id="rId14" sheetId="12"/>
+    <sheet name="UploadImageData" r:id="rId15" sheetId="17"/>
+    <sheet name="Fields" r:id="rId16" sheetId="19"/>
+    <sheet name="Attendees" r:id="rId17" sheetId="20"/>
+    <sheet name="Deal Team" r:id="rId18" sheetId="21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="500">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1270,9 +1270,6 @@
     <t>M4CON1</t>
   </si>
   <si>
-    <t>Test Navatar</t>
-  </si>
-  <si>
     <t>Test Entity1</t>
   </si>
   <si>
@@ -1333,9 +1330,6 @@
     <t>Deal 1</t>
   </si>
   <si>
-    <t>LastModifiedBy.Name</t>
-  </si>
-  <si>
     <t>LastModifiedBy.Email</t>
   </si>
   <si>
@@ -1481,6 +1475,72 @@
   </si>
   <si>
     <t>Module3Tc036_2_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M4Field1</t>
+  </si>
+  <si>
+    <t>Test@%^$%^%^&amp;%^^%^&amp;^%^&amp;%^dhgf</t>
+  </si>
+  <si>
+    <t>Test_dhgf__c</t>
+  </si>
+  <si>
+    <t>Test N1</t>
+  </si>
+  <si>
+    <t>Test Na2</t>
+  </si>
+  <si>
+    <t>Test Nav3</t>
+  </si>
+  <si>
+    <t>Test Nava4</t>
+  </si>
+  <si>
+    <t>Test Navat5</t>
+  </si>
+  <si>
+    <t>Test Navata6</t>
+  </si>
+  <si>
+    <t>Test Navatar7</t>
+  </si>
+  <si>
+    <t>LastModifiedBy.UserRole.Name</t>
+  </si>
+  <si>
+    <t>DT-0019</t>
+  </si>
+  <si>
+    <t>DT-0020</t>
+  </si>
+  <si>
+    <t>DT-0021</t>
+  </si>
+  <si>
+    <t>DT-0022</t>
+  </si>
+  <si>
+    <t>DT-0023</t>
+  </si>
+  <si>
+    <t>DT-0024</t>
+  </si>
+  <si>
+    <t>DT-0025</t>
+  </si>
+  <si>
+    <t>DT-0026</t>
+  </si>
+  <si>
+    <t>DT-0027</t>
+  </si>
+  <si>
+    <t>DT-0028</t>
+  </si>
+  <si>
+    <t>DT-0029</t>
   </si>
 </sst>
 </file>
@@ -1589,69 +1649,69 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" quotePrefix="1" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1668,10 +1728,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1706,7 +1766,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1741,7 +1801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1835,21 +1895,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1866,7 +1926,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1918,31 +1978,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="89.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="81.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="66.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1977,7 +2037,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2122,7 +2182,7 @@
         <v>399</v>
       </c>
       <c r="H15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I15" t="s">
         <v>394</v>
@@ -2146,7 +2206,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B18" t="s">
         <v>399</v>
@@ -2154,71 +2214,71 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s">
         <v>399</v>
       </c>
       <c r="H19" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" t="s">
+        <v>472</v>
+      </c>
+      <c r="H20" t="s">
         <v>473</v>
-      </c>
-      <c r="B20" t="s">
-        <v>474</v>
-      </c>
-      <c r="H20" t="s">
-        <v>475</v>
       </c>
       <c r="I20" t="s">
         <v>394</v>
       </c>
       <c r="J20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -2226,13 +2286,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="127.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="32.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="127.5703125" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2316,13 +2376,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -2330,12 +2390,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="11.0" collapsed="true"/>
+    <col min="6" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,27 +2451,27 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2419,13 +2479,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -2462,13 +2522,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -2476,26 +2536,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -2592,20 +2652,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,13 +2755,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -2709,18 +2769,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2837,25 +2897,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,7 +2991,7 @@
         <v>374</v>
       </c>
       <c r="B8" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,7 +2999,7 @@
         <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,10 +3007,10 @@
         <v>380</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2986,20 +3046,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>98</v>
@@ -3021,121 +3081,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" t="s">
         <v>435</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>436</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>437</v>
-      </c>
-      <c r="D2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D3" t="s">
         <v>436</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>437</v>
-      </c>
-      <c r="D3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" t="s">
         <v>436</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>437</v>
-      </c>
-      <c r="D4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E4" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" t="s">
         <v>436</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>437</v>
-      </c>
-      <c r="D5" t="s">
-        <v>438</v>
-      </c>
-      <c r="E5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
         <v>436</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>437</v>
-      </c>
-      <c r="D6" t="s">
-        <v>438</v>
-      </c>
-      <c r="E6" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" t="s">
         <v>436</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>437</v>
       </c>
-      <c r="D7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E7" t="s">
-        <v>439</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,16 +3203,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>381</v>
@@ -3160,205 +3220,232 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" t="s">
         <v>448</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>449</v>
-      </c>
-      <c r="C2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" t="s">
         <v>452</v>
       </c>
-      <c r="B3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E3" t="s">
-        <v>454</v>
-      </c>
       <c r="F3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>453</v>
+      </c>
+      <c r="B4" t="s">
+        <v>491</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>492</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>493</v>
       </c>
       <c r="C6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>494</v>
       </c>
       <c r="C7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>495</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>459</v>
+      </c>
+      <c r="B9" t="s">
+        <v>496</v>
       </c>
       <c r="C9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>460</v>
+      </c>
+      <c r="B10" t="s">
+        <v>497</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>461</v>
+      </c>
+      <c r="B11" t="s">
+        <v>498</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>462</v>
+      </c>
+      <c r="B12" t="s">
+        <v>499</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3366,15 +3453,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3394,7 +3481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3449,30 +3536,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3491,8 +3578,11 @@
       <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3512,7 +3602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -3529,7 +3619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -3546,7 +3636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -3563,7 +3653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -3580,7 +3670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -3597,7 +3687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -3614,7 +3704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -3631,7 +3721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -3648,7 +3738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -3665,7 +3755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -3682,7 +3772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -3699,7 +3789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>231</v>
       </c>
@@ -3716,7 +3806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>232</v>
       </c>
@@ -3733,7 +3823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -4022,15 +4112,35 @@
         <v>43</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALO26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALP26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -4038,10 +4148,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1003" x14ac:dyDescent="0.25">
@@ -5253,10 +5363,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -5264,36 +5374,36 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B26" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C26" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALR20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALS20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1006" x14ac:dyDescent="0.25">
@@ -6479,203 +6589,203 @@
         <v>408</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
       </c>
       <c r="D14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" t="s">
         <v>410</v>
-      </c>
-      <c r="E14" t="s">
-        <v>411</v>
       </c>
       <c r="F14">
         <v>8435985993</v>
       </c>
       <c r="H14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I14" t="s">
         <v>412</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>413</v>
-      </c>
-      <c r="J14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="C15" t="s">
         <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F15">
         <v>8435985993</v>
       </c>
       <c r="H15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I15" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" t="s">
         <v>413</v>
-      </c>
-      <c r="J15" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F16">
         <v>8435985993</v>
       </c>
       <c r="H16" t="s">
+        <v>411</v>
+      </c>
+      <c r="I16" t="s">
         <v>412</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>413</v>
-      </c>
-      <c r="J16" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="C17" t="s">
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F17">
         <v>8435985993</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I17" t="s">
+        <v>412</v>
+      </c>
+      <c r="J17" t="s">
         <v>413</v>
-      </c>
-      <c r="J17" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18" t="s">
         <v>422</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>409</v>
-      </c>
-      <c r="C18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" t="s">
-        <v>410</v>
       </c>
       <c r="F18">
         <v>8435985993</v>
       </c>
       <c r="H18" t="s">
+        <v>411</v>
+      </c>
+      <c r="I18" t="s">
         <v>412</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>413</v>
-      </c>
-      <c r="J18" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" t="s">
         <v>424</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>409</v>
-      </c>
-      <c r="C19" t="s">
-        <v>425</v>
-      </c>
-      <c r="D19" t="s">
-        <v>410</v>
       </c>
       <c r="F19">
         <v>8435985993</v>
       </c>
       <c r="H19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I19" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" t="s">
         <v>413</v>
-      </c>
-      <c r="J19" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" t="s">
         <v>426</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>409</v>
-      </c>
-      <c r="C20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" t="s">
-        <v>410</v>
       </c>
       <c r="F20">
         <v>8435985993</v>
       </c>
       <c r="H20" t="s">
+        <v>411</v>
+      </c>
+      <c r="I20" t="s">
         <v>412</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>413</v>
       </c>
-      <c r="J20" t="s">
-        <v>414</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -6683,18 +6793,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -6780,13 +6890,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -6794,15 +6904,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -8006,13 +8116,13 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B16" t="s">
         <v>428</v>
       </c>
-      <c r="B16" t="s">
-        <v>429</v>
-      </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -8020,13 +8130,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
@@ -8034,10 +8144,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="18.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
+    <col min="5" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8089,25 +8199,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="5" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="20.140625" collapsed="true"/>
+    <col min="5" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8193,6 +8303,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="15" firstSheet="11" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="FilePath" r:id="rId1" sheetId="18"/>
-    <sheet name="FieldSet" r:id="rId2" sheetId="1"/>
-    <sheet name="FieldComponent" r:id="rId3" sheetId="6"/>
-    <sheet name="Entities" r:id="rId4" sheetId="3"/>
-    <sheet name="Contacts" r:id="rId5" sheetId="2"/>
-    <sheet name="Fund" r:id="rId6" sheetId="7"/>
-    <sheet name="Deal" r:id="rId7" sheetId="4"/>
-    <sheet name="DealRequestTracker" r:id="rId8" sheetId="14"/>
-    <sheet name="CustomSDG" r:id="rId9" sheetId="13"/>
-    <sheet name="ToggleButtonCheck" r:id="rId10" sheetId="16"/>
-    <sheet name="MarketingEvent" r:id="rId11" sheetId="15"/>
-    <sheet name="Partnerships" r:id="rId12" sheetId="8"/>
-    <sheet name="Commitments" r:id="rId13" sheetId="9"/>
-    <sheet name="Task" r:id="rId14" sheetId="12"/>
-    <sheet name="UploadImageData" r:id="rId15" sheetId="17"/>
-    <sheet name="Fields" r:id="rId16" sheetId="19"/>
-    <sheet name="Attendees" r:id="rId17" sheetId="20"/>
-    <sheet name="Deal Team" r:id="rId18" sheetId="21"/>
+    <sheet name="FilePath" sheetId="18" r:id="rId1"/>
+    <sheet name="FieldSet" sheetId="1" r:id="rId2"/>
+    <sheet name="FieldComponent" sheetId="6" r:id="rId3"/>
+    <sheet name="Entities" sheetId="3" r:id="rId4"/>
+    <sheet name="Contacts" sheetId="2" r:id="rId5"/>
+    <sheet name="Fund" sheetId="7" r:id="rId6"/>
+    <sheet name="Deal" sheetId="4" r:id="rId7"/>
+    <sheet name="DealRequestTracker" sheetId="14" r:id="rId8"/>
+    <sheet name="CustomSDG" sheetId="13" r:id="rId9"/>
+    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId10"/>
+    <sheet name="MarketingEvent" sheetId="15" r:id="rId11"/>
+    <sheet name="Partnerships" sheetId="8" r:id="rId12"/>
+    <sheet name="Commitments" sheetId="9" r:id="rId13"/>
+    <sheet name="Task" sheetId="12" r:id="rId14"/>
+    <sheet name="UploadImageData" sheetId="17" r:id="rId15"/>
+    <sheet name="Fields" sheetId="19" r:id="rId16"/>
+    <sheet name="Attendees" sheetId="20" r:id="rId17"/>
+    <sheet name="Deal Team" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="510">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1384,9 +1384,6 @@
     <t>M4DT1</t>
   </si>
   <si>
-    <t>DT-0017</t>
-  </si>
-  <si>
     <t>Our Advisor</t>
   </si>
   <si>
@@ -1396,9 +1393,6 @@
     <t>M4DT2</t>
   </si>
   <si>
-    <t>DT-0018</t>
-  </si>
-  <si>
     <t>Company Team</t>
   </si>
   <si>
@@ -1541,6 +1535,42 @@
   </si>
   <si>
     <t>DT-0029</t>
+  </si>
+  <si>
+    <t>Module3Tc050_CreateNewItemTaskOnNavigationTab</t>
+  </si>
+  <si>
+    <t>Module3Tc051_CreateNewItemsOnNavigationPage</t>
+  </si>
+  <si>
+    <t>Create New,70,,,,,,&lt;break&gt;Account,5,Create New,Account,,,,&lt;break&gt;Fund,10,Create New,navpeII__Fund__c,,,,&lt;break&gt;Task,15,Create New,Task,,,</t>
+  </si>
+  <si>
+    <t>Module3Tc055_MakeParentItemAsChildOfOtherItem</t>
+  </si>
+  <si>
+    <t>Create New</t>
+  </si>
+  <si>
+    <t>Module3Tc054_CreateRecordsAfterNavigationThroughNavigationMenu</t>
+  </si>
+  <si>
+    <t>Create New/Account&lt;break&gt;Create New/Fund&lt;break&gt;Create New/Task</t>
+  </si>
+  <si>
+    <t>Module3Tc057_DeleteCreateNewItemFromNavigationPage</t>
+  </si>
+  <si>
+    <t>Create New&lt;break&gt;Account&lt;break&gt;Fund&lt;break&gt;Task</t>
+  </si>
+  <si>
+    <t>Module3Tc058_Create20ItemsUnderAParentItemAndVerfiyNavigationMenu</t>
+  </si>
+  <si>
+    <t>Child1&lt;break&gt;Child2&lt;break&gt;Child3&lt;break&gt;Child4&lt;break&gt;Child5&lt;break&gt;Child6&lt;break&gt;Child7&lt;break&gt;Child8&lt;break&gt;Child9&lt;break&gt;Child10&lt;break&gt;Child11&lt;break&gt;Child12&lt;break&gt;Child13&lt;break&gt;Child14&lt;break&gt;Child15&lt;break&gt;Child16&lt;break&gt;Child17&lt;break&gt;Child18&lt;break&gt;Child19&lt;break&gt;Child20</t>
+  </si>
+  <si>
+    <t>AllParent</t>
   </si>
 </sst>
 </file>
@@ -1649,69 +1679,69 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" quotePrefix="1" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1728,10 +1758,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1766,7 +1796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1801,7 +1831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1895,21 +1925,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1926,7 +1956,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1978,31 +2008,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="89.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="81.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="66.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2037,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2182,7 +2212,7 @@
         <v>399</v>
       </c>
       <c r="H15" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I15" t="s">
         <v>394</v>
@@ -2206,7 +2236,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B18" t="s">
         <v>399</v>
@@ -2214,71 +2244,131 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
         <v>399</v>
       </c>
       <c r="H19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+      <c r="H20" t="s">
         <v>471</v>
-      </c>
-      <c r="B20" t="s">
-        <v>472</v>
-      </c>
-      <c r="H20" t="s">
-        <v>473</v>
       </c>
       <c r="I20" t="s">
         <v>394</v>
       </c>
       <c r="J20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K20" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="K24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+      <c r="F26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="B28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B29" t="s">
+        <v>508</v>
+      </c>
+      <c r="F29" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -2286,13 +2376,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="18.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="32.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="127.5703125" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="127.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2376,13 +2466,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -2390,12 +2480,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="21.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="11.0" collapsed="true"/>
-    <col min="6" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,7 +2541,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>436</v>
@@ -2464,14 +2554,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -2479,13 +2569,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -2522,13 +2612,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -2536,26 +2626,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -2652,20 +2742,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,13 +2845,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -2769,18 +2859,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2897,25 +2987,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,7 +3081,7 @@
         <v>374</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,20 +3136,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3182,20 +3272,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,7 +3313,7 @@
         <v>446</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>428</v>
@@ -3232,18 +3322,18 @@
         <v>434</v>
       </c>
       <c r="E2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F2" t="s">
         <v>448</v>
-      </c>
-      <c r="F2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
         <v>428</v>
@@ -3252,18 +3342,18 @@
         <v>434</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
         <v>428</v>
@@ -3272,18 +3362,18 @@
         <v>434</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C5" t="s">
         <v>428</v>
@@ -3292,18 +3382,18 @@
         <v>434</v>
       </c>
       <c r="E5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" t="s">
         <v>448</v>
-      </c>
-      <c r="F5" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C6" t="s">
         <v>428</v>
@@ -3312,18 +3402,18 @@
         <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C7" t="s">
         <v>428</v>
@@ -3332,18 +3422,18 @@
         <v>434</v>
       </c>
       <c r="E7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C8" t="s">
         <v>428</v>
@@ -3352,18 +3442,18 @@
         <v>434</v>
       </c>
       <c r="E8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F8" t="s">
         <v>448</v>
-      </c>
-      <c r="F8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C9" t="s">
         <v>428</v>
@@ -3372,18 +3462,18 @@
         <v>434</v>
       </c>
       <c r="E9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
         <v>428</v>
@@ -3392,18 +3482,18 @@
         <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C11" t="s">
         <v>428</v>
@@ -3412,18 +3502,18 @@
         <v>434</v>
       </c>
       <c r="E11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" t="s">
         <v>448</v>
-      </c>
-      <c r="F11" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C12" t="s">
         <v>428</v>
@@ -3432,20 +3522,20 @@
         <v>434</v>
       </c>
       <c r="E12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3453,15 +3543,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -3481,7 +3571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3536,14 +3626,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -3551,15 +3641,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4114,7 +4204,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -4123,24 +4213,24 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALO26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -4148,10 +4238,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1003" x14ac:dyDescent="0.25">
@@ -5363,7 +5453,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B25" t="s">
         <v>409</v>
@@ -5374,23 +5464,23 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALS20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALR20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -5398,12 +5488,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1006" x14ac:dyDescent="0.25">
@@ -6589,7 +6679,7 @@
         <v>408</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -6618,7 +6708,7 @@
         <v>414</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C15" t="s">
         <v>114</v>
@@ -6647,7 +6737,7 @@
         <v>417</v>
       </c>
       <c r="B16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -6676,7 +6766,7 @@
         <v>419</v>
       </c>
       <c r="B17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
         <v>121</v>
@@ -6705,7 +6795,7 @@
         <v>421</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C18" t="s">
         <v>422</v>
@@ -6731,7 +6821,7 @@
         <v>423</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C19" t="s">
         <v>424</v>
@@ -6757,7 +6847,7 @@
         <v>425</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C20" t="s">
         <v>426</v>
@@ -6779,13 +6869,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -6793,18 +6883,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -6890,13 +6980,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -6904,15 +6994,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:1026" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1026" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -8130,13 +8220,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E2"/>
@@ -8144,10 +8234,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="18.85546875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
-    <col min="5" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8199,14 +8289,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -8214,10 +8304,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" style="5" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="20.140625" collapsed="true"/>
-    <col min="5" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,6 +8393,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="515">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1571,6 +1571,21 @@
   </si>
   <si>
     <t>AllParent</t>
+  </si>
+  <si>
+    <t>M4Att7</t>
+  </si>
+  <si>
+    <t>M4Att8</t>
+  </si>
+  <si>
+    <t>M4Att9</t>
+  </si>
+  <si>
+    <t>M4tc016_UpdateImageOnUserProfile</t>
+  </si>
+  <si>
+    <t>https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M</t>
   </si>
 </sst>
 </file>
@@ -2016,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2241,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>407</v>
       </c>
@@ -2234,7 +2249,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>467</v>
       </c>
@@ -2242,7 +2257,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>468</v>
       </c>
@@ -2253,7 +2268,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>469</v>
       </c>
@@ -2273,7 +2288,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>473</v>
       </c>
@@ -2284,7 +2299,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>474</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>475</v>
       </c>
@@ -2300,7 +2315,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>498</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>499</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>501</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>503</v>
       </c>
@@ -2341,7 +2356,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>505</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>507</v>
       </c>
@@ -2360,9 +2375,20 @@
         <v>509</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="L30" t="s">
+        <v>514</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L30" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3142,9 +3168,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3268,6 +3296,57 @@
         <v>436</v>
       </c>
       <c r="E7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" t="s">
         <v>437</v>
       </c>
     </row>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,6 +30,7 @@
     <sheet name="Fields" sheetId="19" r:id="rId16"/>
     <sheet name="Attendees" sheetId="20" r:id="rId17"/>
     <sheet name="Deal Team" sheetId="21" r:id="rId18"/>
+    <sheet name="Coverages" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="531">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1582,10 +1583,58 @@
     <t>M4Att9</t>
   </si>
   <si>
+    <t>Module3Tc063_2_RemoveTheRecordCreationRightForStandardUser</t>
+  </si>
+  <si>
+    <t>Module3Tc065_CreateMyIndustryMenuItem</t>
+  </si>
+  <si>
+    <t>My Industry</t>
+  </si>
+  <si>
+    <t>/lightning/cmp/c__RedirectCmp?c__coverage=industry</t>
+  </si>
+  <si>
+    <t>Coverage_Name</t>
+  </si>
+  <si>
+    <t>Coverage1</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Coverage2</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Coverage3</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Coverage4</t>
+  </si>
+  <si>
+    <t>Business Services</t>
+  </si>
+  <si>
+    <t>Coverage5</t>
+  </si>
+  <si>
+    <t>Coverage6</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
     <t>M4tc016_UpdateImageOnUserProfile</t>
-  </si>
-  <si>
-    <t>https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M</t>
   </si>
 </sst>
 </file>
@@ -2031,11 +2080,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2050,7 +2097,7 @@
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>318</v>
       </c>
@@ -2084,8 +2131,11 @@
       <c r="K1" s="13" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>323</v>
       </c>
@@ -2096,7 +2146,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>326</v>
       </c>
@@ -2107,7 +2157,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>329</v>
       </c>
@@ -2118,7 +2168,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>339</v>
       </c>
@@ -2126,7 +2176,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>341</v>
       </c>
@@ -2137,7 +2187,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>344</v>
       </c>
@@ -2145,7 +2195,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>389</v>
       </c>
@@ -2156,7 +2206,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>391</v>
       </c>
@@ -2170,7 +2220,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>395</v>
       </c>
@@ -2181,7 +2231,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>398</v>
       </c>
@@ -2192,7 +2242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>401</v>
       </c>
@@ -2203,7 +2253,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>403</v>
       </c>
@@ -2211,7 +2261,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>404</v>
       </c>
@@ -2219,7 +2269,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>405</v>
       </c>
@@ -2233,7 +2283,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>406</v>
       </c>
@@ -2379,13 +2429,32 @@
       <c r="A30" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="L30" t="s">
+      <c r="B30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>514</v>
+      </c>
+      <c r="B31" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31">
+        <v>-20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L30" r:id="rId1"/>
+    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3605,6 +3674,103 @@
       </c>
       <c r="F12" t="s">
         <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azhar Alam\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCB675-372F-45ED-92DB-02525DA4C03E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="542">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -491,24 +492,15 @@
     <t>TOGGLEINS1</t>
   </si>
   <si>
-    <t>Alexa Info</t>
-  </si>
-  <si>
     <t>TOGGLEFUND1</t>
   </si>
   <si>
-    <t>Alexa Fund</t>
-  </si>
-  <si>
     <t>TOGGLEFUND2</t>
   </si>
   <si>
     <t>TOGGLEDEAL1</t>
   </si>
   <si>
-    <t>Alexa Sep Deal 2020</t>
-  </si>
-  <si>
     <t>SDG_Name</t>
   </si>
   <si>
@@ -521,9 +513,6 @@
     <t>TOGGLESDG1</t>
   </si>
   <si>
-    <t>Custom SDG</t>
-  </si>
-  <si>
     <t>navpeII__Pipeline__c</t>
   </si>
   <si>
@@ -542,9 +531,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>12/22/2020</t>
-  </si>
-  <si>
     <t>IT Related</t>
   </si>
   <si>
@@ -554,9 +540,6 @@
     <t>CLOSEDQA1</t>
   </si>
   <si>
-    <t>12/7/2020</t>
-  </si>
-  <si>
     <t>Finance Related</t>
   </si>
   <si>
@@ -572,9 +555,6 @@
     <t>TOGGLEME1</t>
   </si>
   <si>
-    <t>Alexa Event 1</t>
-  </si>
-  <si>
     <t>Third Party Event</t>
   </si>
   <si>
@@ -1635,12 +1615,66 @@
   </si>
   <si>
     <t>M4tc016_UpdateImageOnUserProfile</t>
+  </si>
+  <si>
+    <t>M5Alexa Info</t>
+  </si>
+  <si>
+    <t>TOGGLELP1</t>
+  </si>
+  <si>
+    <t>M5Alexa Limited partner</t>
+  </si>
+  <si>
+    <t>TOGGLEPS1</t>
+  </si>
+  <si>
+    <t>M5Alexa Fund Partnership</t>
+  </si>
+  <si>
+    <t>TOGGLEPS2</t>
+  </si>
+  <si>
+    <t>M5Alexa Co-Invest Partnership</t>
+  </si>
+  <si>
+    <t>TOGGLECMT1</t>
+  </si>
+  <si>
+    <t>TOGGLECMT2</t>
+  </si>
+  <si>
+    <t>M5Alexa Fund</t>
+  </si>
+  <si>
+    <t>M5Alexa Co-Invest Fund</t>
+  </si>
+  <si>
+    <t>M5Alexa Sep Deal 2020</t>
+  </si>
+  <si>
+    <t>3/7/2021</t>
+  </si>
+  <si>
+    <t>3/4/2021</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>M5Custom SDG</t>
+  </si>
+  <si>
+    <t>M5Alexa Event 1</t>
+  </si>
+  <si>
+    <t>3/9/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1802,7 +1836,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2079,10 +2113,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2099,362 +2133,362 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J12" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H15" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I15" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H19" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H20" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I20" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J20" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="K20" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K21" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B22" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E24">
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B27" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F29" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B31" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E31">
         <v>-20</v>
       </c>
       <c r="L31" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
+    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2462,11 +2496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,79 +2519,79 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>149</v>
+        <v>524</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>535</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>540</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2566,11 +2600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,47 +2622,47 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>176</v>
+        <v>540</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>541</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>52</v>
@@ -2636,16 +2670,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2712,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2970,54 +3004,54 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
         <v>35</v>
@@ -3025,60 +3059,60 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
         <v>310</v>
       </c>
-      <c r="E4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" t="s">
-        <v>317</v>
-      </c>
       <c r="G4" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3087,7 +3121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,48 +3142,48 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3157,77 +3191,77 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3236,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3254,169 +3288,169 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E10" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3425,7 +3459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3441,239 +3475,239 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E6" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F9" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D12" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3701,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -3709,68 +3743,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3877,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3914,7 +3948,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,16 +3973,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>43</v>
@@ -3956,16 +3990,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>43</v>
@@ -3973,16 +4007,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>43</v>
@@ -3990,16 +4024,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>43</v>
@@ -4007,16 +4041,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>43</v>
@@ -4024,16 +4058,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>43</v>
@@ -4041,16 +4075,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>43</v>
@@ -4058,16 +4092,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>43</v>
@@ -4075,16 +4109,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>43</v>
@@ -4092,16 +4126,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>43</v>
@@ -4109,7 +4143,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -4118,7 +4152,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>43</v>
@@ -4126,7 +4160,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -4135,7 +4169,7 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>43</v>
@@ -4143,7 +4177,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -4152,7 +4186,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>43</v>
@@ -4160,7 +4194,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -4169,7 +4203,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>43</v>
@@ -4177,7 +4211,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -4186,7 +4220,7 @@
         <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>43</v>
@@ -4194,7 +4228,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -4203,7 +4237,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>43</v>
@@ -4211,7 +4245,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -4220,7 +4254,7 @@
         <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>43</v>
@@ -4228,7 +4262,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -4237,7 +4271,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>43</v>
@@ -4245,7 +4279,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -4254,7 +4288,7 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>43</v>
@@ -4262,7 +4296,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -4271,7 +4305,7 @@
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>43</v>
@@ -4279,16 +4313,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>43</v>
@@ -4296,16 +4330,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>43</v>
@@ -4313,16 +4347,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>43</v>
@@ -4330,16 +4364,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>43</v>
@@ -4347,16 +4381,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>43</v>
@@ -4364,16 +4398,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>43</v>
@@ -4381,16 +4415,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>43</v>
@@ -4398,16 +4432,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>43</v>
@@ -4415,16 +4449,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>43</v>
@@ -4432,16 +4466,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>43</v>
@@ -4449,7 +4483,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -4458,13 +4492,13 @@
         <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -4474,11 +4508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALO26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:ALO31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5621,10 +5655,10 @@
     </row>
     <row r="13" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>81</v>
@@ -5635,87 +5669,128 @@
         <v>148</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>149</v>
+        <v>524</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" s="25"/>
+    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>301</v>
-      </c>
+      <c r="A19" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>301</v>
-      </c>
+      <c r="A20" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
+      <c r="A21" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>301</v>
+      <c r="A22" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>462</v>
-      </c>
-      <c r="B25" t="s">
-        <v>409</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
+        <v>295</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>463</v>
-      </c>
-      <c r="B26" t="s">
-        <v>464</v>
+        <v>296</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>301</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>455</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>456</v>
+      </c>
+      <c r="B31" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:ALR20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6870,247 +6945,247 @@
     </row>
     <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E14" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F14">
         <v>8435985993</v>
       </c>
       <c r="H14" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I14" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J14" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C15" t="s">
         <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F15">
         <v>8435985993</v>
       </c>
       <c r="H15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I15" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J15" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E16" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F16">
         <v>8435985993</v>
       </c>
       <c r="H16" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I16" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C17" t="s">
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E17" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F17">
         <v>8435985993</v>
       </c>
       <c r="H17" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I17" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J17" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C18" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F18">
         <v>8435985993</v>
       </c>
       <c r="H18" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J18" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D19" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F19">
         <v>8435985993</v>
       </c>
       <c r="H19" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="I19" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J19" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F20">
         <v>8435985993</v>
       </c>
       <c r="H20" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I20" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J20" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7119,11 +7194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A7" sqref="A7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7198,10 +7273,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>151</v>
+        <v>533</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>62</v>
@@ -7212,10 +7287,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>64</v>
+        <v>534</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>62</v>
@@ -7230,11 +7305,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8311,10 +8386,10 @@
     </row>
     <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -8325,10 +8400,10 @@
     </row>
     <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -8339,10 +8414,10 @@
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>154</v>
+        <v>535</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
@@ -8351,113 +8426,113 @@
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
         <v>271</v>
       </c>
-      <c r="D12" t="s">
-        <v>278</v>
-      </c>
       <c r="E12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" t="s">
         <v>271</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>278</v>
       </c>
-      <c r="E14" t="s">
-        <v>285</v>
-      </c>
       <c r="F14" s="22" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -8470,11 +8545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,13 +8565,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>98</v>
@@ -8504,33 +8579,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>536</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>171</v>
+      <c r="E3" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -8540,11 +8618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8560,35 +8638,35 @@
         <v>9</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>159</v>
+        <v>539</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>159</v>
+        <v>539</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -8600,41 +8678,41 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azhar Alam\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCB675-372F-45ED-92DB-02525DA4C03E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="549">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1669,12 +1668,33 @@
   </si>
   <si>
     <t>3/9/2021</t>
+  </si>
+  <si>
+    <t>M4tc028_VerifyBrokenImageInContactProfile</t>
+  </si>
+  <si>
+    <t>JPEGImage</t>
+  </si>
+  <si>
+    <t>https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>M4CON8</t>
+  </si>
+  <si>
+    <t>Test Navatar8</t>
+  </si>
+  <si>
+    <t>Contact8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1836,7 +1856,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2113,10 +2133,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2131,7 +2153,7 @@
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>311</v>
       </c>
@@ -2168,8 +2190,11 @@
       <c r="L1" s="13" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>316</v>
       </c>
@@ -2180,7 +2205,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>319</v>
       </c>
@@ -2191,7 +2216,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>322</v>
       </c>
@@ -2202,7 +2227,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>332</v>
       </c>
@@ -2210,7 +2235,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>334</v>
       </c>
@@ -2221,7 +2246,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>337</v>
       </c>
@@ -2229,7 +2254,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>382</v>
       </c>
@@ -2240,7 +2265,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>384</v>
       </c>
@@ -2254,7 +2279,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>388</v>
       </c>
@@ -2265,7 +2290,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>391</v>
       </c>
@@ -2276,7 +2301,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>394</v>
       </c>
@@ -2287,7 +2312,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>396</v>
       </c>
@@ -2295,7 +2320,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>397</v>
       </c>
@@ -2303,7 +2328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>398</v>
       </c>
@@ -2317,7 +2342,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>399</v>
       </c>
@@ -2485,18 +2510,30 @@
       <c r="A32" s="14" t="s">
         <v>523</v>
       </c>
+      <c r="L32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>542</v>
+      </c>
+      <c r="M33" t="s">
+        <v>543</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
+    <hyperlink ref="L32" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2600,11 +2637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,7 +2726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2746,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2876,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2979,7 +3016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3121,7 +3158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3270,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3459,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3716,7 +3753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3911,10 +3948,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4508,10 +4545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5799,11 +5836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:ALR20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALR21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7188,17 +7225,34 @@
         <v>406</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>546</v>
+      </c>
+      <c r="B21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D21" t="s">
+        <v>402</v>
+      </c>
+      <c r="H21" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,11 +7359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8545,7 +8599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8618,7 +8672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="552">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1689,6 +1689,15 @@
   </si>
   <si>
     <t>Contact8</t>
+  </si>
+  <si>
+    <t>Module3Tc074_CreateMyRegionMenuItem</t>
+  </si>
+  <si>
+    <t>My Region</t>
+  </si>
+  <si>
+    <t>/lightning/cmp/c__RedirectCmp?c__coverage=Region</t>
   </si>
 </sst>
 </file>
@@ -2134,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,24 +2517,38 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B32" t="s">
+        <v>550</v>
+      </c>
+      <c r="E32">
+        <v>-25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L33" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>542</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M34" t="s">
         <v>543</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
-    <hyperlink ref="L32" r:id="rId2"/>
+    <hyperlink ref="L33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="588">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1698,6 +1698,114 @@
   </si>
   <si>
     <t>/lightning/cmp/c__RedirectCmp?c__coverage=Region</t>
+  </si>
+  <si>
+    <t>M4ME2</t>
+  </si>
+  <si>
+    <t>Event 2</t>
+  </si>
+  <si>
+    <t>M4ME3</t>
+  </si>
+  <si>
+    <t>Event 3</t>
+  </si>
+  <si>
+    <t>M4ME4</t>
+  </si>
+  <si>
+    <t>Event 4</t>
+  </si>
+  <si>
+    <t>M4ME5</t>
+  </si>
+  <si>
+    <t>Event 5</t>
+  </si>
+  <si>
+    <t>M4ME6</t>
+  </si>
+  <si>
+    <t>Event 6</t>
+  </si>
+  <si>
+    <t>M4ME7</t>
+  </si>
+  <si>
+    <t>M4ME8</t>
+  </si>
+  <si>
+    <t>M4ME9</t>
+  </si>
+  <si>
+    <t>M4ME10</t>
+  </si>
+  <si>
+    <t>M4ME11</t>
+  </si>
+  <si>
+    <t>M4ME12</t>
+  </si>
+  <si>
+    <t>M4ME13</t>
+  </si>
+  <si>
+    <t>M4ME14</t>
+  </si>
+  <si>
+    <t>M4ME15</t>
+  </si>
+  <si>
+    <t>M4ME16</t>
+  </si>
+  <si>
+    <t>M4ME17</t>
+  </si>
+  <si>
+    <t>M4ME18</t>
+  </si>
+  <si>
+    <t>M4ME19</t>
+  </si>
+  <si>
+    <t>Event 7</t>
+  </si>
+  <si>
+    <t>Event 8</t>
+  </si>
+  <si>
+    <t>Event 9</t>
+  </si>
+  <si>
+    <t>Event 10</t>
+  </si>
+  <si>
+    <t>Event 11</t>
+  </si>
+  <si>
+    <t>Event 12</t>
+  </si>
+  <si>
+    <t>Event 13</t>
+  </si>
+  <si>
+    <t>Event 14</t>
+  </si>
+  <si>
+    <t>Event 15</t>
+  </si>
+  <si>
+    <t>Event 16</t>
+  </si>
+  <si>
+    <t>Event 17</t>
+  </si>
+  <si>
+    <t>Event 18</t>
+  </si>
+  <si>
+    <t>Event 19</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,10 +2769,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,6 +2847,258 @@
         <v>170</v>
       </c>
       <c r="E4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B18" t="s">
+        <v>583</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B21" t="s">
+        <v>586</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" t="s">
+        <v>587</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" t="s">
         <v>402</v>
       </c>
     </row>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498335E4-C2C2-4A23-A27C-EB70D79F1143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="593">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -125,18 +126,12 @@
     <t>9876546789</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
     <t>Ins1</t>
   </si>
   <si>
     <t>AIG Sun life</t>
   </si>
   <si>
-    <t>Contact Deal</t>
-  </si>
-  <si>
     <t>Deal1</t>
   </si>
   <si>
@@ -1022,18 +1017,9 @@
     <t>FieldSetLabel</t>
   </si>
   <si>
-    <t>Fund Preferences&lt;break&gt;Existing LP&lt;break&gt;Fund Commitments (mn)&lt;break&gt;Total Co-investment Commitments (mn)&lt;break&gt;Industry&lt;break&gt;Region</t>
-  </si>
-  <si>
-    <t>Log In Date&lt;break&gt;Revenue&lt;break&gt;EBITDA&lt;break&gt;Industry&lt;break&gt;Region&lt;break&gt;Stage</t>
-  </si>
-  <si>
     <t>Display_field_set</t>
   </si>
   <si>
-    <t>Date&lt;break&gt;Type&lt;break&gt;Status&lt;break&gt;Location&lt;break&gt;Main Contact&lt;break&gt;Region</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -1806,12 +1792,42 @@
   </si>
   <si>
     <t>Event 19</t>
+  </si>
+  <si>
+    <t>TestAIG Sun life</t>
+  </si>
+  <si>
+    <t>TestAlexa Info1</t>
+  </si>
+  <si>
+    <t>TestAlexa Limited partner1</t>
+  </si>
+  <si>
+    <t>DavidTest</t>
+  </si>
+  <si>
+    <t>TestAlexa Fund1</t>
+  </si>
+  <si>
+    <t>TestAlexa Co-Invest Fund1</t>
+  </si>
+  <si>
+    <t>TestContact Deal</t>
+  </si>
+  <si>
+    <t>Fund Preferences&lt;breakOn&gt;Existing LP&lt;breakOn&gt;Fund Commitments (mn)&lt;breakOn&gt;Total Co-investment Commitments (mn)&lt;breakOn&gt;Industry&lt;breakOn&gt;Region</t>
+  </si>
+  <si>
+    <t>Log In Date&lt;breakOn&gt;Revenue&lt;breakOn&gt;EBITDA&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Stage</t>
+  </si>
+  <si>
+    <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1917,7 +1933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1970,10 +1986,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2250,10 +2270,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -2272,391 +2292,391 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>315</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
         <v>316</v>
-      </c>
-      <c r="B2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
         <v>319</v>
-      </c>
-      <c r="B3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
         <v>322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J11" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H15" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I15" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H20" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I20" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="J20" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K20" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K21" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E24">
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B26" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F26" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B29" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E31">
         <v>-20</v>
       </c>
       <c r="L31" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B32" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E32">
         <v>-25</v>
       </c>
       <c r="L32" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L33" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M34" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
-    <hyperlink ref="L33" r:id="rId2"/>
+    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2664,7 +2684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2687,79 +2707,79 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>174</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2768,11 +2788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,316 +2810,316 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B13" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B16" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B17" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B18" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B19" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B20" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B21" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B22" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,35 +3149,35 @@
         <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3199,95 +3219,95 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>500000</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>500000</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3312,85 +3332,85 @@
         <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3399,11 +3419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,10 +3432,10 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" style="31" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" style="31" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -3424,115 +3444,115 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>301</v>
+      <c r="H1" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" t="s">
-        <v>326</v>
+      <c r="H2" s="31" t="s">
+        <v>590</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="H3" t="s">
-        <v>327</v>
+      <c r="H3" s="31" t="s">
+        <v>591</v>
       </c>
       <c r="I3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
         <v>308</v>
       </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>310</v>
-      </c>
       <c r="G4" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" t="s">
-        <v>329</v>
+        <v>305</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>592</v>
       </c>
       <c r="I4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3541,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3562,48 +3582,48 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3611,77 +3631,77 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3708,169 +3728,169 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3879,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3895,239 +3915,239 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E10" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C12" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4155,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -4163,68 +4183,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C4" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4233,11 +4253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4267,27 +4287,27 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4298,13 +4318,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
+      <c r="E3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,12 +4335,12 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4331,7 +4351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -4356,569 +4376,569 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4928,11 +4948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALO31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,7 +4974,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -5958,259 +5978,259 @@
     </row>
     <row r="2" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>583</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="25"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6219,11 +6239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:ALR21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7266,13 +7286,13 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>583</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>26</v>
@@ -7280,349 +7300,349 @@
     </row>
     <row r="4" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
         <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
         <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
         <v>280</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
         <v>281</v>
-      </c>
-      <c r="C10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" t="s">
         <v>284</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" t="s">
         <v>285</v>
-      </c>
-      <c r="C11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
         <v>288</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>289</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>290</v>
-      </c>
-      <c r="D12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E14" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F14">
         <v>8435985993</v>
       </c>
       <c r="H14" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I14" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J14" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E15" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F15">
         <v>8435985993</v>
       </c>
       <c r="H15" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F16">
         <v>8435985993</v>
       </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F17">
         <v>8435985993</v>
       </c>
       <c r="H17" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I17" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J17" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F18">
         <v>8435985993</v>
       </c>
       <c r="H18" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I18" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J18" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D19" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F19">
         <v>8435985993</v>
       </c>
       <c r="H19" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J19" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F20">
         <v>8435985993</v>
       </c>
       <c r="H20" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I20" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="J20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B21" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C21" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H21" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -7631,11 +7651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7656,84 +7676,84 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>588</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -7742,11 +7762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B2" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8803,176 +8823,176 @@
     </row>
     <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
         <v>262</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>263</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>264</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" t="s">
         <v>264</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" t="s">
         <v>269</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>270</v>
-      </c>
-      <c r="C12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" t="s">
         <v>273</v>
       </c>
-      <c r="B13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" t="s">
-        <v>275</v>
-      </c>
       <c r="F13" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" t="s">
         <v>276</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="C14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8982,7 +9002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9002,50 +9022,50 @@
         <v>9</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>159</v>
-      </c>
       <c r="E1" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -9055,7 +9075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9075,35 +9095,35 @@
         <v>9</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>154</v>
-      </c>
       <c r="E1" s="25" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -9115,41 +9135,41 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498335E4-C2C2-4A23-A27C-EB70D79F1143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -18,20 +17,21 @@
     <sheet name="FieldComponent" sheetId="6" r:id="rId3"/>
     <sheet name="Entities" sheetId="3" r:id="rId4"/>
     <sheet name="Contacts" sheetId="2" r:id="rId5"/>
-    <sheet name="Fund" sheetId="7" r:id="rId6"/>
-    <sheet name="Deal" sheetId="4" r:id="rId7"/>
-    <sheet name="DealRequestTracker" sheetId="14" r:id="rId8"/>
-    <sheet name="CustomSDG" sheetId="13" r:id="rId9"/>
-    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId10"/>
-    <sheet name="MarketingEvent" sheetId="15" r:id="rId11"/>
-    <sheet name="Partnerships" sheetId="8" r:id="rId12"/>
-    <sheet name="Commitments" sheetId="9" r:id="rId13"/>
-    <sheet name="Task" sheetId="12" r:id="rId14"/>
-    <sheet name="UploadImageData" sheetId="17" r:id="rId15"/>
-    <sheet name="Fields" sheetId="19" r:id="rId16"/>
-    <sheet name="Attendees" sheetId="20" r:id="rId17"/>
-    <sheet name="Deal Team" sheetId="21" r:id="rId18"/>
-    <sheet name="Coverages" sheetId="22" r:id="rId19"/>
+    <sheet name="Test Custom Object" sheetId="23" r:id="rId6"/>
+    <sheet name="Fund" sheetId="7" r:id="rId7"/>
+    <sheet name="Deal" sheetId="4" r:id="rId8"/>
+    <sheet name="DealRequestTracker" sheetId="14" r:id="rId9"/>
+    <sheet name="CustomSDG" sheetId="13" r:id="rId10"/>
+    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId11"/>
+    <sheet name="MarketingEvent" sheetId="15" r:id="rId12"/>
+    <sheet name="Partnerships" sheetId="8" r:id="rId13"/>
+    <sheet name="Commitments" sheetId="9" r:id="rId14"/>
+    <sheet name="Task" sheetId="12" r:id="rId15"/>
+    <sheet name="UploadImageData" sheetId="17" r:id="rId16"/>
+    <sheet name="Fields" sheetId="19" r:id="rId17"/>
+    <sheet name="Attendees" sheetId="20" r:id="rId18"/>
+    <sheet name="Deal Team" sheetId="21" r:id="rId19"/>
+    <sheet name="Coverages" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="620">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1822,16 +1822,97 @@
   </si>
   <si>
     <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region</t>
+  </si>
+  <si>
+    <t>Module3Tc081_CreateMultiTaggedLogACallAllNavigationMenuItem</t>
+  </si>
+  <si>
+    <t>Log a Call with Multiple Associations</t>
+  </si>
+  <si>
+    <t>create new</t>
+  </si>
+  <si>
+    <t>Module3Tc085_CreateCustomActionOfTypeTask</t>
+  </si>
+  <si>
+    <t>New Meeting</t>
+  </si>
+  <si>
+    <t>Module3Tc086_CreateNavigationRecordsRelatedToMultiTaggedActions</t>
+  </si>
+  <si>
+    <t>New Task with Multiple Associations</t>
+  </si>
+  <si>
+    <t>Module3Tc091_CreatePredefinendValuesInNavigationRecords</t>
+  </si>
+  <si>
+    <t>New Task with Multiple Associations&lt;break&gt;Log a Call with Multiple Associations&lt;break&gt;New Meeting</t>
+  </si>
+  <si>
+    <t>Module3Tc093_CreateTaskRecordTypesAndPageLayouts</t>
+  </si>
+  <si>
+    <t>Task Type1&lt;break&gt;Task Type2&lt;break&gt;Task Type3</t>
+  </si>
+  <si>
+    <t>Module3Tc094_EditNavigationRecordAndSetRecordTypesInEachRecord</t>
+  </si>
+  <si>
+    <t>Log a Call with Multiple Associations&lt;break&gt;New Task with Multiple Associations&lt;break&gt;New Meeting</t>
+  </si>
+  <si>
+    <t>Module3Tc095_VerifyActionsfromNavigationPageAfterAssigningRecordTypes</t>
+  </si>
+  <si>
+    <t>M3INS1</t>
+  </si>
+  <si>
+    <t>M3TestOmaxe Group</t>
+  </si>
+  <si>
+    <t>M3INS2</t>
+  </si>
+  <si>
+    <t>M3TestAIG Corp</t>
+  </si>
+  <si>
+    <t>M3CON1</t>
+  </si>
+  <si>
+    <t>M3TestAlex</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>navatariptesting+78601@gmail.com</t>
+  </si>
+  <si>
+    <t>M3FUND1</t>
+  </si>
+  <si>
+    <t>M3TestAxis Deal</t>
+  </si>
+  <si>
+    <t>M3TestCst Record1</t>
+  </si>
+  <si>
+    <t>M3CSTOBJ</t>
+  </si>
+  <si>
+    <t>Test_Custom_Object_Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1968,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1929,11 +2018,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1990,10 +2080,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2270,11 +2365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,24 +2754,116 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B33" t="s">
+        <v>594</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>595</v>
+      </c>
+      <c r="K33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B34" t="s">
+        <v>597</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>595</v>
+      </c>
+      <c r="K34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" t="s">
+        <v>599</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>595</v>
+      </c>
+      <c r="K35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="J37" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B38" t="s">
+        <v>605</v>
+      </c>
+      <c r="J38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B39" t="s">
+        <v>605</v>
+      </c>
+      <c r="F39" t="s">
+        <v>595</v>
+      </c>
+      <c r="J39" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>537</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M41" t="s">
         <v>538</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L30" r:id="rId1" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
+    <hyperlink ref="L40" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2684,7 +2871,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2787,8 +3077,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3128,8 +3418,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3185,8 +3475,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3315,8 +3605,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3418,8 +3708,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3560,8 +3850,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,8 +3999,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,8 +4188,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4155,8 +4445,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4252,106 +4640,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -4948,11 +5238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:ALO31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,17 +6523,39 @@
         <v>292</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>610</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:ALR21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALR23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7645,17 +7957,77 @@
         <v>404</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I8"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7756,13 +8128,27 @@
         <v>93</v>
       </c>
     </row>
+    <row r="10" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9001,8 +9387,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9072,107 +9458,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar.LAP0051\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5525,7 +5525,7 @@
   <dimension ref="A1:ALO39"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="647">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1981,6 +1981,9 @@
   </si>
   <si>
     <t>Create New&lt;break&gt;Account&lt;break&gt;Fund&lt;break&gt;Task1</t>
+  </si>
+  <si>
+    <t>Funds</t>
   </si>
 </sst>
 </file>
@@ -4990,7 +4993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5755,8 +5758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO49"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12701,79 +12704,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="39"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -12781,13 +12790,16 @@
         <v>582</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>646</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -12795,82 +12807,87 @@
         <v>583</v>
       </c>
       <c r="C5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
-      <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>610</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="D9" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>523</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12884,7 +12901,7 @@
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:XFD9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="661">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1984,6 +1984,48 @@
   </si>
   <si>
     <t>Funds</t>
+  </si>
+  <si>
+    <t>M3Task1</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Test Comments for Log a call from Nav menu</t>
+  </si>
+  <si>
+    <t>M3Task2</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Multitagged Task 1</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Test Comments for New Task from Nav menu</t>
+  </si>
+  <si>
+    <t>M3Task3</t>
+  </si>
+  <si>
+    <t>New Meeting 1</t>
+  </si>
+  <si>
+    <t>Monday Morning Meeting</t>
+  </si>
+  <si>
+    <t>Test Comments for New Meeting from Nav menu</t>
   </si>
 </sst>
 </file>
@@ -3792,7 +3834,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,9 +4033,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4001,7 +4045,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4012,7 +4056,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>140</v>
       </c>
@@ -4021,7 +4065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>138</v>
       </c>
@@ -4030,7 +4074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>136</v>
       </c>
@@ -4039,7 +4083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>134</v>
       </c>
@@ -4047,7 +4091,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>132</v>
       </c>
@@ -4055,7 +4099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>130</v>
       </c>
@@ -4063,7 +4107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>128</v>
       </c>
@@ -4071,7 +4115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -4079,12 +4123,90 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>124</v>
       </c>
       <c r="C10" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -12706,7 +12828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="664">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2026,6 +2026,15 @@
   </si>
   <si>
     <t>Test Comments for New Meeting from Nav menu</t>
+  </si>
+  <si>
+    <t>Meeting_Type</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -4036,7 +4045,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4045,7 +4054,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4054,6 +4063,15 @@
       </c>
       <c r="C1" s="21" t="s">
         <v>141</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>661</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sibaram\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="2" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Attendees" sheetId="20" r:id="rId18"/>
     <sheet name="Deal Team" sheetId="21" r:id="rId19"/>
     <sheet name="Coverages" sheetId="22" r:id="rId20"/>
+    <sheet name="SDGActions" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="677">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1293,9 +1294,6 @@
     <t>LastModifiedBy.Email</t>
   </si>
   <si>
-    <t>LastModifiedBy.UserRoleId</t>
-  </si>
-  <si>
     <t>LastModifiedBy.UserRole.Nam</t>
   </si>
   <si>
@@ -2035,6 +2033,51 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Action_Order</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Event_Payload</t>
+  </si>
+  <si>
+    <t>Action_Type</t>
+  </si>
+  <si>
+    <t>SDGAction1</t>
+  </si>
+  <si>
+    <t>New Attendee</t>
+  </si>
+  <si>
+    <t>e.force:createRecord</t>
+  </si>
+  <si>
+    <t>{"entityApiName": "Attendee__c", "defaultFieldValues": {
+}}</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>SDGAction2</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>{"entityApiName": "Contact", "defaultFieldValues": {
+"AccountId" : "#parentrecordId#"
+}}</t>
+  </si>
+  <si>
+    <t>Member__r.Name</t>
+  </si>
+  <si>
+    <t>Type__c</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2216,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2283,6 +2326,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2617,21 +2663,21 @@
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>344</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2" t="s">
         <v>639</v>
-      </c>
-      <c r="B2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2664,7 +2710,7 @@
         <v>321</v>
       </c>
       <c r="E5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2721,7 +2767,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B11" t="s">
         <v>382</v>
@@ -2776,7 +2822,7 @@
         <v>385</v>
       </c>
       <c r="H16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I16" t="s">
         <v>381</v>
@@ -2800,7 +2846,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B19" t="s">
         <v>385</v>
@@ -2808,65 +2854,65 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B20" t="s">
         <v>385</v>
       </c>
       <c r="H20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B21" t="s">
         <v>455</v>
       </c>
-      <c r="B21" t="s">
+      <c r="H21" t="s">
         <v>456</v>
-      </c>
-      <c r="H21" t="s">
-        <v>457</v>
       </c>
       <c r="I21" t="s">
         <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
+        <v>455</v>
+      </c>
+      <c r="K22" t="s">
         <v>456</v>
-      </c>
-      <c r="K22" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B25" t="s">
         <v>349</v>
@@ -2880,101 +2926,101 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" t="s">
+        <v>455</v>
+      </c>
+      <c r="F27" t="s">
         <v>486</v>
-      </c>
-      <c r="B27" t="s">
-        <v>456</v>
-      </c>
-      <c r="F27" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="B30" t="s">
         <v>490</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>491</v>
-      </c>
-      <c r="F30" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" t="s">
         <v>497</v>
-      </c>
-      <c r="B32" t="s">
-        <v>498</v>
       </c>
       <c r="E32">
         <v>-20</v>
       </c>
       <c r="L32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B33" t="s">
         <v>539</v>
-      </c>
-      <c r="B33" t="s">
-        <v>540</v>
       </c>
       <c r="E33">
         <v>-25</v>
       </c>
       <c r="L33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="B34" t="s">
         <v>588</v>
-      </c>
-      <c r="B34" t="s">
-        <v>589</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K34" t="s">
         <v>349</v>
@@ -2982,16 +3028,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B35" t="s">
         <v>591</v>
-      </c>
-      <c r="B35" t="s">
-        <v>592</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K35" t="s">
         <v>349</v>
@@ -2999,16 +3045,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B36" t="s">
         <v>593</v>
-      </c>
-      <c r="B36" t="s">
-        <v>594</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K36" t="s">
         <v>349</v>
@@ -3016,59 +3062,59 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B37" t="s">
         <v>595</v>
-      </c>
-      <c r="B37" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="J38" t="s">
         <v>597</v>
-      </c>
-      <c r="J38" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="B39" t="s">
         <v>599</v>
       </c>
-      <c r="B39" t="s">
-        <v>600</v>
-      </c>
       <c r="J39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>531</v>
+      </c>
+      <c r="M42" t="s">
         <v>532</v>
-      </c>
-      <c r="M42" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3171,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3187,7 +3233,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3199,10 +3245,10 @@
         <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>154</v>
@@ -3264,7 +3310,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3279,7 +3325,7 @@
         <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>177</v>
@@ -3299,7 +3345,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>182</v>
@@ -3319,7 +3365,7 @@
         <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>187</v>
@@ -3382,7 +3428,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
@@ -3411,17 +3457,17 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>168</v>
@@ -3432,10 +3478,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B8" t="s">
         <v>542</v>
-      </c>
-      <c r="B8" t="s">
-        <v>543</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>168</v>
@@ -3446,10 +3492,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9" t="s">
         <v>544</v>
-      </c>
-      <c r="B9" t="s">
-        <v>545</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>168</v>
@@ -3460,10 +3506,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" t="s">
         <v>546</v>
-      </c>
-      <c r="B10" t="s">
-        <v>547</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>168</v>
@@ -3474,10 +3520,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" t="s">
         <v>548</v>
-      </c>
-      <c r="B11" t="s">
-        <v>549</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>168</v>
@@ -3488,10 +3534,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B12" t="s">
         <v>550</v>
-      </c>
-      <c r="B12" t="s">
-        <v>551</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>168</v>
@@ -3502,10 +3548,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>168</v>
@@ -3516,10 +3562,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>168</v>
@@ -3530,10 +3576,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>168</v>
@@ -3544,10 +3590,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>168</v>
@@ -3558,10 +3604,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>168</v>
@@ -3572,10 +3618,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>168</v>
@@ -3586,10 +3632,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>168</v>
@@ -3600,10 +3646,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>168</v>
@@ -3614,10 +3660,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B21" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>168</v>
@@ -3628,10 +3674,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>168</v>
@@ -3642,10 +3688,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>168</v>
@@ -3656,10 +3702,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>168</v>
@@ -3670,10 +3716,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>168</v>
@@ -3684,10 +3730,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B26" t="s">
         <v>622</v>
-      </c>
-      <c r="B26" t="s">
-        <v>623</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>168</v>
@@ -3698,10 +3744,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B27" t="s">
         <v>624</v>
-      </c>
-      <c r="B27" t="s">
-        <v>625</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>168</v>
@@ -3714,7 +3760,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3726,16 +3772,16 @@
         <v>167</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3826,7 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -3810,26 +3856,26 @@
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>517</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>518</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>519</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>520</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -3944,7 +3990,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4002,7 +4048,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4023,14 +4069,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4042,16 +4088,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4065,166 +4112,183 @@
         <v>141</v>
       </c>
       <c r="F1" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="G1" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="19" t="s">
-        <v>139</v>
-      </c>
+    </row>
+    <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>134</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="9" t="s">
-        <v>631</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>648</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>649</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>650</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>651</v>
-      </c>
+    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="13"/>
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>657</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>653</v>
-      </c>
-      <c r="C17" s="50" t="s">
+      <c r="F18" s="50" t="s">
         <v>658</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="G18" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>659</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>650</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -4290,7 +4354,7 @@
         <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
         <v>301</v>
@@ -4305,7 +4369,7 @@
         <v>302</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -4334,7 +4398,7 @@
         <v>305</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I3" t="s">
         <v>323</v>
@@ -4363,7 +4427,7 @@
         <v>305</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I4" t="s">
         <v>324</v>
@@ -4379,7 +4443,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4422,7 +4486,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4475,7 +4539,7 @@
         <v>360</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,7 +4547,7 @@
         <v>361</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4499,10 +4563,10 @@
         <v>367</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>416</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4547,7 +4611,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4561,7 +4625,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>96</v>
@@ -4583,7 +4647,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4592,169 +4656,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" t="s">
         <v>419</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>420</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>421</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>422</v>
-      </c>
-      <c r="E4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" t="s">
         <v>420</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>421</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>422</v>
-      </c>
-      <c r="E5" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="s">
         <v>420</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>421</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>422</v>
-      </c>
-      <c r="E6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" t="s">
         <v>420</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>421</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>422</v>
-      </c>
-      <c r="E7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" t="s">
         <v>420</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>421</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>422</v>
-      </c>
-      <c r="E8" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" t="s">
         <v>420</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>421</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>422</v>
-      </c>
-      <c r="E9" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" t="s">
         <v>420</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>421</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>422</v>
-      </c>
-      <c r="E10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" t="s">
         <v>420</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>421</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>422</v>
-      </c>
-      <c r="E11" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
         <v>420</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>421</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>422</v>
-      </c>
-      <c r="E12" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>625</v>
+      </c>
+      <c r="B13" t="s">
         <v>626</v>
       </c>
-      <c r="B13" t="s">
-        <v>627</v>
-      </c>
       <c r="C13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4781,16 +4845,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>368</v>
@@ -4799,7 +4863,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -4808,222 +4872,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
         <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" t="s">
         <v>433</v>
-      </c>
-      <c r="F3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
         <v>414</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s">
         <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
         <v>433</v>
-      </c>
-      <c r="F6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
         <v>414</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s">
         <v>414</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C9" t="s">
         <v>414</v>
       </c>
       <c r="D9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" t="s">
         <v>433</v>
-      </c>
-      <c r="F9" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C10" t="s">
         <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C11" t="s">
         <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" t="s">
         <v>414</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F12" t="s">
         <v>433</v>
-      </c>
-      <c r="F12" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
         <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +5213,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -5163,7 +5227,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5172,112 +5236,193 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
         <v>501</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>502</v>
-      </c>
-      <c r="C4" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" t="s">
         <v>504</v>
       </c>
-      <c r="B5" t="s">
-        <v>505</v>
-      </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" t="s">
         <v>506</v>
       </c>
-      <c r="B6" t="s">
-        <v>507</v>
-      </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" t="s">
         <v>508</v>
       </c>
-      <c r="B7" t="s">
-        <v>509</v>
-      </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
         <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" t="s">
         <v>511</v>
       </c>
-      <c r="B9" t="s">
-        <v>512</v>
-      </c>
       <c r="C9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10" t="s">
         <v>632</v>
       </c>
-      <c r="B10" t="s">
-        <v>633</v>
-      </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B11" t="s">
         <v>398</v>
       </c>
       <c r="C11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" t="s">
         <v>635</v>
       </c>
-      <c r="B12" t="s">
-        <v>636</v>
-      </c>
       <c r="C12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" t="s">
         <v>637</v>
       </c>
-      <c r="B13" t="s">
-        <v>638</v>
-      </c>
       <c r="C13" t="s">
-        <v>619</v>
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="F3" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -5862,7 +6007,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5870,7 +6015,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -5879,13 +6024,13 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -7930,7 +8075,7 @@
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8939,7 +9084,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -8950,7 +9095,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -8961,7 +9106,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -8970,7 +9115,7 @@
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9132,17 +9277,17 @@
     <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>602</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>603</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>79</v>
@@ -9150,10 +9295,10 @@
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>604</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>605</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>79</v>
@@ -9177,14 +9322,14 @@
     <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B31" t="s">
         <v>395</v>
@@ -9195,10 +9340,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" t="s">
         <v>449</v>
-      </c>
-      <c r="B32" t="s">
-        <v>450</v>
       </c>
       <c r="C32" t="s">
         <v>292</v>
@@ -9207,7 +9352,7 @@
     <row r="34" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9217,7 +9362,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>33</v>
@@ -9225,10 +9370,10 @@
     </row>
     <row r="36" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>515</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>516</v>
       </c>
       <c r="C36" s="22"/>
     </row>
@@ -9308,10 +9453,10 @@
         <v>346</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -11322,7 +11467,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12336,10 +12481,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -12355,7 +12500,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
@@ -12505,7 +12650,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -12517,19 +12662,19 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="C18" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="D18" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="E18" s="54" t="s">
         <v>608</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>603</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12539,7 +12684,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
@@ -12554,7 +12699,7 @@
         <v>394</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
         <v>109</v>
@@ -12583,7 +12728,7 @@
         <v>400</v>
       </c>
       <c r="B22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
         <v>112</v>
@@ -12612,7 +12757,7 @@
         <v>403</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
         <v>116</v>
@@ -12641,7 +12786,7 @@
         <v>405</v>
       </c>
       <c r="B24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
@@ -12670,7 +12815,7 @@
         <v>407</v>
       </c>
       <c r="B25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C25" t="s">
         <v>408</v>
@@ -12696,7 +12841,7 @@
         <v>409</v>
       </c>
       <c r="B26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C26" t="s">
         <v>410</v>
@@ -12722,7 +12867,7 @@
         <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C27" t="s">
         <v>412</v>
@@ -12745,13 +12890,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" t="s">
         <v>536</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>537</v>
-      </c>
-      <c r="C28" t="s">
-        <v>538</v>
       </c>
       <c r="D28" t="s">
         <v>395</v>
@@ -12803,7 +12948,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>14</v>
@@ -12818,7 +12963,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12830,10 +12975,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -12913,7 +13058,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -12927,10 +13072,10 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
@@ -12944,10 +13089,10 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -12966,7 +13111,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -12977,10 +13122,10 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" s="50" t="s">
         <v>610</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>611</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>60</v>
@@ -12994,7 +13139,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -13008,7 +13153,7 @@
         <v>147</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>60</v>
@@ -13022,7 +13167,7 @@
         <v>148</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>60</v>
@@ -15128,7 +15273,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16159,7 +16304,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -16171,7 +16316,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
@@ -16206,7 +16351,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -16320,7 +16465,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -16345,7 +16490,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -16357,7 +16502,7 @@
         <v>149</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>30</v>
@@ -16409,7 +16554,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16424,7 +16569,7 @@
         <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>160</v>
@@ -16441,13 +16586,13 @@
         <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -988,27 +988,18 @@
     <t>Updated_Order</t>
   </si>
   <si>
-    <t>Module3Tc009_1_UpdateReportsAndDashboardURLWithAnActualReporAndDashboardLink_Action</t>
-  </si>
-  <si>
     <t>Reports&lt;break&gt;Dashboards</t>
   </si>
   <si>
     <t>Account Referrals&lt;break&gt;Dead Deals</t>
   </si>
   <si>
-    <t>Module3Tc011_RenameNavigationLabelAndVerifyImpactOnNavigationMenu</t>
-  </si>
-  <si>
     <t>Fund&lt;break&gt;Contact</t>
   </si>
   <si>
     <t>New Fund&lt;break&gt;New Contact</t>
   </si>
   <si>
-    <t>Module3Tc012_ChangeTheOrderOfTheLabelAndVerifyImpactOnNavigationMenu</t>
-  </si>
-  <si>
     <t>New Contact&lt;break&gt;Reports&lt;break&gt;Fund Manager&lt;break&gt;Institution&lt;break&gt;Partnership</t>
   </si>
   <si>
@@ -1024,24 +1015,15 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>Module3Tc015_1_AddNewNavigationItemsAndVerifyItOnNavigationMenu</t>
-  </si>
-  <si>
     <t>Dashboards</t>
   </si>
   <si>
-    <t>Module3Tc018_CreateSubMenuAndVerify</t>
-  </si>
-  <si>
     <t>Reports</t>
   </si>
   <si>
     <t>Accounts</t>
   </si>
   <si>
-    <t>Module3Tc019_CreateSubMenuForIIndlevelAndVerifyItOnTheNavigationMenu</t>
-  </si>
-  <si>
     <t>Test Label 2,10,Reports,,,,,</t>
   </si>
   <si>
@@ -1174,15 +1156,9 @@
     <t>List_View_Name</t>
   </si>
   <si>
-    <t>Module3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
-  </si>
-  <si>
     <t>Accounts/Reports&lt;break&gt;Dashboards</t>
   </si>
   <si>
-    <t>Module3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
-  </si>
-  <si>
     <t>Marketing Prospects</t>
   </si>
   <si>
@@ -1198,36 +1174,15 @@
     <t>Accounts/Custom Label 2</t>
   </si>
   <si>
-    <t>Module3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
-  </si>
-  <si>
     <t>OtherAccount</t>
   </si>
   <si>
     <t>Institution&lt;break&gt;Company&lt;break&gt;Fund Manager&lt;break&gt;Fund Manager’s Fund&lt;break&gt;Individual Investor&lt;break&gt;Intermediary&lt;break&gt;Limited Partner</t>
   </si>
   <si>
-    <t>Module3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
     <t>Intermediary&lt;break&gt;Individual Investor&lt;break&gt;Limited Partner</t>
   </si>
   <si>
-    <t>Module3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
-  </si>
-  <si>
-    <t>Module3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
     <t>M4CON1</t>
   </si>
   <si>
@@ -1402,15 +1357,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>Module3Tc032_RemoveListViewObjectAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc033_RemoveListViewNameAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc034_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
-  </si>
-  <si>
     <t>New Fund</t>
   </si>
   <si>
@@ -1420,15 +1366,6 @@
     <t>Fund&lt;break&gt;Fund of Funds</t>
   </si>
   <si>
-    <t>Module3Tc035_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
-  </si>
-  <si>
-    <t>Module3Tc036_1_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc036_2_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
-  </si>
-  <si>
     <t>M4Field1</t>
   </si>
   <si>
@@ -1495,27 +1432,9 @@
     <t>DT-0029</t>
   </si>
   <si>
-    <t>Module3Tc050_CreateNewItemTaskOnNavigationTab</t>
-  </si>
-  <si>
-    <t>Module3Tc051_CreateNewItemsOnNavigationPage</t>
-  </si>
-  <si>
-    <t>Module3Tc055_MakeParentItemAsChildOfOtherItem</t>
-  </si>
-  <si>
     <t>Create New</t>
   </si>
   <si>
-    <t>Module3Tc054_CreateRecordsAfterNavigationThroughNavigationMenu</t>
-  </si>
-  <si>
-    <t>Module3Tc057_DeleteCreateNewItemFromNavigationPage</t>
-  </si>
-  <si>
-    <t>Module3Tc058_Create20ItemsUnderAParentItemAndVerfiyNavigationMenu</t>
-  </si>
-  <si>
     <t>Child1&lt;break&gt;Child2&lt;break&gt;Child3&lt;break&gt;Child4&lt;break&gt;Child5&lt;break&gt;Child6&lt;break&gt;Child7&lt;break&gt;Child8&lt;break&gt;Child9&lt;break&gt;Child10&lt;break&gt;Child11&lt;break&gt;Child12&lt;break&gt;Child13&lt;break&gt;Child14&lt;break&gt;Child15&lt;break&gt;Child16&lt;break&gt;Child17&lt;break&gt;Child18&lt;break&gt;Child19&lt;break&gt;Child20</t>
   </si>
   <si>
@@ -1531,12 +1450,6 @@
     <t>M4Att9</t>
   </si>
   <si>
-    <t>Module3Tc063_2_RemoveTheRecordCreationRightForStandardUser</t>
-  </si>
-  <si>
-    <t>Module3Tc065_CreateMyIndustryMenuItem</t>
-  </si>
-  <si>
     <t>My Industry</t>
   </si>
   <si>
@@ -1660,9 +1573,6 @@
     <t>Contact8</t>
   </si>
   <si>
-    <t>Module3Tc074_CreateMyRegionMenuItem</t>
-  </si>
-  <si>
     <t>My Region</t>
   </si>
   <si>
@@ -1807,48 +1717,27 @@
     <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region</t>
   </si>
   <si>
-    <t>Module3Tc081_CreateMultiTaggedLogACallAllNavigationMenuItem</t>
-  </si>
-  <si>
     <t>Log a Call with Multiple Associations</t>
   </si>
   <si>
     <t>create new</t>
   </si>
   <si>
-    <t>Module3Tc085_CreateCustomActionOfTypeTask</t>
-  </si>
-  <si>
     <t>New Meeting</t>
   </si>
   <si>
-    <t>Module3Tc086_CreateNavigationRecordsRelatedToMultiTaggedActions</t>
-  </si>
-  <si>
     <t>New Task with Multiple Associations</t>
   </si>
   <si>
-    <t>Module3Tc091_CreatePredefinendValuesInNavigationRecords</t>
-  </si>
-  <si>
     <t>New Task with Multiple Associations&lt;break&gt;Log a Call with Multiple Associations&lt;break&gt;New Meeting</t>
   </si>
   <si>
-    <t>Module3Tc093_CreateTaskRecordTypesAndPageLayouts</t>
-  </si>
-  <si>
     <t>Task Type1&lt;break&gt;Task Type2&lt;break&gt;Task Type3</t>
   </si>
   <si>
-    <t>Module3Tc094_EditNavigationRecordAndSetRecordTypesInEachRecord</t>
-  </si>
-  <si>
     <t>Log a Call with Multiple Associations&lt;break&gt;New Task with Multiple Associations&lt;break&gt;New Meeting</t>
   </si>
   <si>
-    <t>Module3Tc095_VerifyActionsfromNavigationPageAfterAssigningRecordTypes</t>
-  </si>
-  <si>
     <t>M3INS1</t>
   </si>
   <si>
@@ -1960,16 +1849,10 @@
     <t>New York</t>
   </si>
   <si>
-    <t>Module3Tc008_VerifyTheitemsForWhichURLAndActionObjectAndLiewViewObjectFieldWasBlank</t>
-  </si>
-  <si>
     <t>Accounts/Custom Label 2&lt;break&gt;Contact/Custom Label 1</t>
   </si>
   <si>
     <t xml:space="preserve">40&lt;break&gt;-10&lt;break&gt;6&lt;break&gt;-10&lt;break&gt; </t>
-  </si>
-  <si>
-    <t>Module3Tc023_2_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
   </si>
   <si>
     <t>Account&lt;break&gt;Fund&lt;break&gt;Task1</t>
@@ -2078,6 +1961,123 @@
   </si>
   <si>
     <t>Type__c</t>
+  </si>
+  <si>
+    <t>M3Tc008_VerifyTheitemsForWhichURLAndActionObjectAndLiewViewObjectFieldWasBlank</t>
+  </si>
+  <si>
+    <t>M3Tc009_1_UpdateReportsAndDashboardURLWithAnActualReporAndDashboardLink_Action</t>
+  </si>
+  <si>
+    <t>M3Tc011_RenameNavigationLabelAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc012_ChangeTheOrderOfTheLabelAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc015_1_AddNewNavigationItemsAndVerifyItOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc018_CreateSubMenuAndVerify</t>
+  </si>
+  <si>
+    <t>M3Tc019_CreateSubMenuForIIndlevelAndVerifyItOnTheNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
+  </si>
+  <si>
+    <t>M3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
+  </si>
+  <si>
+    <t>M3Tc023_2_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
+  </si>
+  <si>
+    <t>M3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>M3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
+  </si>
+  <si>
+    <t>M3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc032_RemoveListViewObjectAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc033_RemoveListViewNameAndVerifyTheImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc034_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
+  </si>
+  <si>
+    <t>M3Tc035_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>M3Tc036_1_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc036_2_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc050_CreateNewItemTaskOnNavigationTab</t>
+  </si>
+  <si>
+    <t>M3Tc051_CreateNewItemsOnNavigationPage</t>
+  </si>
+  <si>
+    <t>M3Tc055_MakeParentItemAsChildOfOtherItem</t>
+  </si>
+  <si>
+    <t>M3Tc054_CreateRecordsAfterNavigationThroughNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc057_DeleteCreateNewItemFromNavigationPage</t>
+  </si>
+  <si>
+    <t>M3Tc058_Create20ItemsUnderAParentItemAndVerfiyNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc063_2_RemoveTheRecordCreationRightForStandardUser</t>
+  </si>
+  <si>
+    <t>M3Tc065_CreateMyIndustryMenuItem</t>
+  </si>
+  <si>
+    <t>M3Tc074_CreateMyRegionMenuItem</t>
+  </si>
+  <si>
+    <t>M3Tc081_CreateMultiTaggedLogACallAllNavigationMenuItem</t>
+  </si>
+  <si>
+    <t>M3Tc085_CreateCustomActionOfTypeTask</t>
+  </si>
+  <si>
+    <t>M3Tc086_CreateNavigationRecordsRelatedToMultiTaggedActions</t>
+  </si>
+  <si>
+    <t>M3Tc091_CreatePredefinendValuesInNavigationRecords</t>
+  </si>
+  <si>
+    <t>M3Tc093_CreateTaskRecordTypesAndPageLayouts</t>
+  </si>
+  <si>
+    <t>M3Tc094_EditNavigationRecordAndSetRecordTypesInEachRecord</t>
+  </si>
+  <si>
+    <t>M3Tc095_VerifyActionsfromNavigationPageAfterAssigningRecordTypes</t>
   </si>
 </sst>
 </file>
@@ -2614,9 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2648,28 +2646,28 @@
         <v>313</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2677,444 +2675,444 @@
         <v>638</v>
       </c>
       <c r="B2" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>315</v>
-      </c>
-      <c r="C3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
         <v>317</v>
-      </c>
-      <c r="B4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>320</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>640</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>326</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>328</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>331</v>
+        <v>644</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>376</v>
+        <v>645</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>378</v>
+        <v>646</v>
       </c>
       <c r="B10" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H10" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I10" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>384</v>
+        <v>648</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>387</v>
+        <v>649</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="J13" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>389</v>
+        <v>650</v>
       </c>
       <c r="B14" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>390</v>
+        <v>651</v>
       </c>
       <c r="B15" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>391</v>
+        <v>652</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H16" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>392</v>
+        <v>653</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>393</v>
+        <v>654</v>
       </c>
       <c r="B18" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>452</v>
+        <v>655</v>
       </c>
       <c r="B19" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>453</v>
+        <v>656</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>454</v>
+        <v>657</v>
       </c>
       <c r="B21" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J21" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="K21" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>458</v>
+        <v>658</v>
       </c>
       <c r="B22" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="K22" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>459</v>
+        <v>659</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>483</v>
+        <v>661</v>
       </c>
       <c r="B25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E25">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>484</v>
+        <v>662</v>
       </c>
       <c r="B26" t="s">
-        <v>642</v>
+        <v>603</v>
       </c>
       <c r="F26" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>485</v>
+        <v>663</v>
       </c>
       <c r="B27" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F27" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>487</v>
+        <v>664</v>
       </c>
       <c r="B28" t="s">
-        <v>643</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>488</v>
+        <v>665</v>
       </c>
       <c r="B29" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>489</v>
+        <v>666</v>
       </c>
       <c r="B30" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="F30" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>495</v>
+        <v>667</v>
       </c>
       <c r="B31" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
       <c r="B32" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="E32">
         <v>-20</v>
       </c>
       <c r="L32" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>538</v>
+        <v>669</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="E33">
         <v>-25</v>
       </c>
       <c r="L33" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="B34" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="K34" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
       <c r="B35" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="K35" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="K36" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>594</v>
+        <v>673</v>
       </c>
       <c r="B37" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>596</v>
+        <v>674</v>
       </c>
       <c r="J38" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="B39" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="J39" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="B40" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="F40" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="J40" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="L41" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="M42" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -3158,7 +3156,7 @@
         <v>152</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3171,7 +3169,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3180,7 +3178,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3192,48 +3190,48 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3245,10 +3243,10 @@
         <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>154</v>
@@ -3310,7 +3308,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3325,7 +3323,7 @@
         <v>176</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>177</v>
@@ -3345,7 +3343,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>182</v>
@@ -3365,7 +3363,7 @@
         <v>186</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>187</v>
@@ -3428,7 +3426,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
@@ -3457,310 +3455,310 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="B12" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="B18" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B19" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="B20" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="B21" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B22" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="B23" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="B24" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="B25" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="B26" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="B27" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3772,16 +3770,16 @@
         <v>167</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3824,7 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -3856,26 +3854,26 @@
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -3990,7 +3988,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4048,7 +4046,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4069,14 +4067,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4090,7 +4088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4112,13 +4110,13 @@
         <v>141</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>660</v>
+        <v>621</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>661</v>
+        <v>622</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>662</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -4126,7 +4124,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
       <c r="D2" s="9" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4218,7 +4216,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
       <c r="D15" s="9" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4239,56 +4237,56 @@
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>647</v>
+        <v>608</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>653</v>
+        <v>614</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>655</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>656</v>
+        <v>617</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>657</v>
+        <v>618</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>658</v>
+        <v>619</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>649</v>
+        <v>610</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>659</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -4343,7 +4341,7 @@
         <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,7 +4352,7 @@
         <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
         <v>301</v>
@@ -4369,7 +4367,7 @@
         <v>302</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -4398,10 +4396,10 @@
         <v>305</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4427,10 +4425,10 @@
         <v>305</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4460,19 +4458,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,7 +4484,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4496,31 +4494,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4528,77 +4526,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>676</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>675</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>96</v>
@@ -4634,7 +4632,7 @@
         <v>307</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4647,7 +4645,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4656,169 +4654,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E9" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="B13" t="s">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -4845,25 +4843,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -4872,222 +4870,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F5" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D6" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E6" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F9" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E10" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D11" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F11" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E12" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5211,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -5227,7 +5225,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5236,112 +5234,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="C7" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="B10" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="B12" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="C12" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>636</v>
+        <v>599</v>
       </c>
       <c r="B13" t="s">
-        <v>637</v>
+        <v>600</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5370,59 +5368,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>663</v>
+        <v>624</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>664</v>
+        <v>625</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>666</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>670</v>
+        <v>631</v>
       </c>
       <c r="F2" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>672</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="F3" t="s">
-        <v>671</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5468,7 +5466,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6007,7 +6005,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6015,7 +6013,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -6024,13 +6022,13 @@
         <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8073,7 @@
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9084,7 +9082,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -9095,7 +9093,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -9106,7 +9104,7 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
         <v>65</v>
@@ -9115,7 +9113,7 @@
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -9277,17 +9275,17 @@
     <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>79</v>
@@ -9295,10 +9293,10 @@
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>79</v>
@@ -9322,17 +9320,17 @@
     <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -9340,10 +9338,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C32" t="s">
         <v>292</v>
@@ -9352,7 +9350,7 @@
     <row r="34" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -9362,7 +9360,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>33</v>
@@ -9370,10 +9368,10 @@
     </row>
     <row r="36" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="C36" s="22"/>
     </row>
@@ -9450,13 +9448,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -11467,7 +11465,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12481,10 +12479,10 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -12500,7 +12498,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
@@ -12650,7 +12648,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -12662,19 +12660,19 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12684,7 +12682,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
@@ -12696,213 +12694,213 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C21" t="s">
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F21">
         <v>8435985993</v>
       </c>
       <c r="H21" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I21" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J21" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="C22" t="s">
         <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="F22">
         <v>8435985993</v>
       </c>
       <c r="H22" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I22" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J22" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
         <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E23" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="F23">
         <v>8435985993</v>
       </c>
       <c r="H23" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I23" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
         <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="F24">
         <v>8435985993</v>
       </c>
       <c r="H24" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I24" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B25" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F25">
         <v>8435985993</v>
       </c>
       <c r="H25" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I25" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J25" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B26" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C26" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D26" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F26">
         <v>8435985993</v>
       </c>
       <c r="H26" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I26" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J26" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C27" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="F27">
         <v>8435985993</v>
       </c>
       <c r="H27" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="J27" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="B28" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="C28" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="D28" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="H28" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12948,7 +12946,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>14</v>
@@ -12963,7 +12961,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12975,10 +12973,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -13058,7 +13056,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -13072,10 +13070,10 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>645</v>
+        <v>606</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
@@ -13089,10 +13087,10 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="C5" t="s">
-        <v>645</v>
+        <v>606</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -13111,7 +13109,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -13122,10 +13120,10 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>60</v>
@@ -13139,7 +13137,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -13153,7 +13151,7 @@
         <v>147</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>60</v>
@@ -13167,7 +13165,7 @@
         <v>148</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>60</v>
@@ -15273,7 +15271,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16304,7 +16302,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -16316,7 +16314,7 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
@@ -16351,7 +16349,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -16429,7 +16427,7 @@
         <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E12" t="s">
         <v>273</v>
@@ -16465,7 +16463,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -16474,13 +16472,13 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -16490,7 +16488,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -16502,7 +16500,7 @@
         <v>149</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>30</v>
@@ -16554,7 +16552,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16569,7 +16567,7 @@
         <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>160</v>
@@ -16586,13 +16584,13 @@
         <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="679">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Institution</t>
   </si>
   <si>
-    <t>navatariptesting+27971@gmail.com</t>
-  </si>
-  <si>
     <t>Contact_Detail_FSet1</t>
   </si>
   <si>
@@ -1534,12 +1531,6 @@
     <t>M5Alexa Sep Deal 2020</t>
   </si>
   <si>
-    <t>3/7/2021</t>
-  </si>
-  <si>
-    <t>3/4/2021</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -1706,15 +1697,6 @@
   </si>
   <si>
     <t>TestContact Deal</t>
-  </si>
-  <si>
-    <t>Fund Preferences&lt;breakOn&gt;Existing LP&lt;breakOn&gt;Fund Commitments (mn)&lt;breakOn&gt;Total Co-investment Commitments (mn)&lt;breakOn&gt;Industry&lt;breakOn&gt;Region</t>
-  </si>
-  <si>
-    <t>Log In Date&lt;breakOn&gt;Revenue&lt;breakOn&gt;EBITDA&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Stage</t>
-  </si>
-  <si>
-    <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region</t>
   </si>
   <si>
     <t>Log a Call with Multiple Associations</t>
@@ -2078,6 +2060,30 @@
   </si>
   <si>
     <t>M3Tc095_VerifyActionsfromNavigationPageAfterAssigningRecordTypes</t>
+  </si>
+  <si>
+    <t>navatariptesting+187@gmail.com</t>
+  </si>
+  <si>
+    <t>CMT - 000940</t>
+  </si>
+  <si>
+    <t>CMT - 000941</t>
+  </si>
+  <si>
+    <t>5/24/2021</t>
+  </si>
+  <si>
+    <t>5/21/2021</t>
+  </si>
+  <si>
+    <t>Fund Preferences&lt;breakOn&gt;Existing LP&lt;breakOn&gt;Total Fund Commitments (mn)&lt;breakOn&gt;Total Co-investment Commitments (mn)&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Bank Name&lt;breakOn&gt;City</t>
+  </si>
+  <si>
+    <t>Log In Date&lt;breakOn&gt;Revenue&lt;breakOn&gt;EBITDA&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Stage&lt;breakOn&gt;Deal Name&lt;breakOn&gt;Company Name</t>
+  </si>
+  <si>
+    <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region&lt;breakOn&gt;Deleted&lt;breakOn&gt;Budget</t>
   </si>
 </sst>
 </file>
@@ -2614,505 +2620,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="66" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>313</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" t="s">
         <v>314</v>
-      </c>
-      <c r="C3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" t="s">
         <v>316</v>
-      </c>
-      <c r="D4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" t="s">
         <v>324</v>
-      </c>
-      <c r="F7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" t="s">
         <v>371</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>372</v>
-      </c>
-      <c r="I10" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G11" t="s">
         <v>374</v>
-      </c>
-      <c r="G11" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J12" t="s">
         <v>376</v>
-      </c>
-      <c r="J12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H21" t="s">
         <v>437</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" t="s">
         <v>438</v>
       </c>
-      <c r="I21" t="s">
-        <v>373</v>
-      </c>
-      <c r="J21" t="s">
-        <v>439</v>
-      </c>
       <c r="K21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B22" t="s">
+        <v>436</v>
+      </c>
+      <c r="K22" t="s">
         <v>437</v>
-      </c>
-      <c r="K22" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E25">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B26" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F26" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B28" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B29" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B30" t="s">
+        <v>462</v>
+      </c>
+      <c r="F30" t="s">
         <v>463</v>
-      </c>
-      <c r="F30" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E32">
         <v>-20</v>
       </c>
       <c r="L32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E33">
         <v>-25</v>
       </c>
       <c r="L33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B34" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B35" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="J38" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B39" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="J39" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B40" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F40" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="J40" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L41" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3147,16 +3153,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>152</v>
-      </c>
       <c r="E1" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3169,7 +3175,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3178,7 +3184,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3190,48 +3196,48 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3240,16 +3246,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3281,19 +3287,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3308,7 +3314,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3317,62 +3323,62 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3403,16 +3409,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3426,26 +3432,26 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>169</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,310 +3461,310 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B18" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B19" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B20" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B22" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B24" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B26" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3767,19 +3773,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3809,13 +3815,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -3824,56 +3830,56 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>490</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -3916,66 +3922,68 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="B2" t="s">
+        <v>673</v>
+      </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
       <c r="M2" s="47"/>
@@ -3988,7 +3996,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4009,36 +4017,39 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>672</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>500000</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>500000</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4046,7 +4057,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4067,14 +4078,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4096,7 +4107,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4104,19 +4115,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -4124,7 +4135,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
       <c r="D2" s="9" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4138,77 +4149,77 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,7 +4227,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
       <c r="D15" s="9" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4237,56 +4248,56 @@
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B18" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>618</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>619</v>
-      </c>
       <c r="G18" s="50" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4298,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,54 +4331,54 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>299</v>
-      </c>
       <c r="H1" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" t="s">
         <v>300</v>
       </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D2" t="s">
-        <v>301</v>
-      </c>
       <c r="E2" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>554</v>
+        <v>676</v>
       </c>
       <c r="I2" t="s">
         <v>33</v>
@@ -4375,60 +4386,60 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>305</v>
-      </c>
       <c r="H3" s="29" t="s">
-        <v>555</v>
+        <v>677</v>
       </c>
       <c r="I3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" t="s">
         <v>307</v>
       </c>
-      <c r="F4" t="s">
-        <v>308</v>
-      </c>
       <c r="G4" s="26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>556</v>
+        <v>678</v>
       </c>
       <c r="I4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4458,19 +4469,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>338</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4484,7 +4495,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4494,31 +4505,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4526,77 +4537,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4623,16 +4634,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,7 +4656,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4654,169 +4665,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" t="s">
         <v>403</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>404</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>405</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>406</v>
-      </c>
-      <c r="E4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" t="s">
         <v>404</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>405</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>406</v>
-      </c>
-      <c r="E5" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" t="s">
         <v>404</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>405</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>406</v>
-      </c>
-      <c r="E6" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
         <v>404</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>405</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>406</v>
-      </c>
-      <c r="E7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" t="s">
         <v>404</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>405</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>406</v>
-      </c>
-      <c r="E8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" t="s">
         <v>404</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>405</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>406</v>
-      </c>
-      <c r="E9" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
         <v>404</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>405</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>406</v>
-      </c>
-      <c r="E10" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" t="s">
         <v>404</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>405</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>406</v>
-      </c>
-      <c r="E11" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" t="s">
         <v>404</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>405</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>406</v>
-      </c>
-      <c r="E12" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B13" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -4843,25 +4854,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -4870,222 +4881,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" t="s">
         <v>416</v>
       </c>
-      <c r="B3" t="s">
-        <v>451</v>
-      </c>
-      <c r="C3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>417</v>
-      </c>
-      <c r="F3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" t="s">
         <v>419</v>
       </c>
-      <c r="B4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4" t="s">
-        <v>420</v>
-      </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E5" t="s">
         <v>421</v>
       </c>
-      <c r="B5" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" t="s">
-        <v>422</v>
-      </c>
       <c r="F5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" t="s">
         <v>417</v>
-      </c>
-      <c r="F6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F9" t="s">
         <v>417</v>
-      </c>
-      <c r="F9" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" t="s">
         <v>417</v>
-      </c>
-      <c r="F12" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -5128,7 +5139,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5139,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -5148,7 +5159,7 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5159,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -5176,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5201,9 +5212,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5211,7 +5222,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -5225,7 +5236,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5234,112 +5245,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" t="s">
         <v>471</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>472</v>
-      </c>
-      <c r="C4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s">
         <v>474</v>
       </c>
-      <c r="B5" t="s">
-        <v>475</v>
-      </c>
       <c r="C5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s">
         <v>476</v>
       </c>
-      <c r="B6" t="s">
-        <v>477</v>
-      </c>
       <c r="C6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" t="s">
         <v>478</v>
       </c>
-      <c r="B7" t="s">
-        <v>479</v>
-      </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
         <v>481</v>
       </c>
-      <c r="B9" t="s">
-        <v>482</v>
-      </c>
       <c r="C9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B12" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C12" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -5357,10 +5368,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,59 +5379,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -5454,549 +5465,549 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>193</v>
       </c>
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>194</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>195</v>
       </c>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>196</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>197</v>
       </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>198</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>199</v>
       </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>200</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>201</v>
       </c>
-      <c r="B8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>202</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>203</v>
       </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>204</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
         <v>205</v>
       </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>206</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>207</v>
       </c>
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>208</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>209</v>
       </c>
-      <c r="B12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>210</v>
-      </c>
       <c r="F12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6005,7 +6016,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6013,22 +6024,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
+        <v>440</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
         <v>441</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -6064,7 +6075,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8073,7 +8084,7 @@
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9082,7 +9093,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -9090,10 +9101,10 @@
     </row>
     <row r="5" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -9101,116 +9112,116 @@
     </row>
     <row r="6" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>100</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>143</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>145</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>257</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9219,32 +9230,32 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -9252,10 +9263,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -9263,43 +9274,43 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -9320,17 +9331,17 @@
     <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -9338,29 +9349,29 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" t="s">
         <v>433</v>
       </c>
-      <c r="B32" t="s">
-        <v>434</v>
-      </c>
       <c r="C32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>33</v>
@@ -9368,10 +9379,10 @@
     </row>
     <row r="36" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>486</v>
       </c>
       <c r="C36" s="22"/>
     </row>
@@ -9448,13 +9459,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -11465,7 +11476,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12479,13 +12490,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>671</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>26</v>
@@ -12498,7 +12509,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
@@ -12510,145 +12521,145 @@
     </row>
     <row r="7" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
         <v>112</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
         <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
         <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" t="s">
         <v>278</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>279</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" t="s">
         <v>280</v>
-      </c>
-      <c r="D13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
         <v>282</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>283</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" t="s">
         <v>284</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" t="s">
         <v>286</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>287</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>288</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>289</v>
-      </c>
-      <c r="E15" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -12660,19 +12671,19 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D18" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="54" t="s">
         <v>565</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12682,7 +12693,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
@@ -12694,213 +12705,213 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>442</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
         <v>379</v>
       </c>
-      <c r="B21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>380</v>
-      </c>
-      <c r="E21" t="s">
-        <v>381</v>
       </c>
       <c r="F21">
         <v>8435985993</v>
       </c>
       <c r="H21" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" t="s">
         <v>382</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>383</v>
-      </c>
-      <c r="J21" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" t="s">
         <v>385</v>
-      </c>
-      <c r="B22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>380</v>
-      </c>
-      <c r="E22" t="s">
-        <v>386</v>
       </c>
       <c r="F22">
         <v>8435985993</v>
       </c>
       <c r="H22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I22" t="s">
+        <v>382</v>
+      </c>
+      <c r="J22" t="s">
         <v>383</v>
-      </c>
-      <c r="J22" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" t="s">
         <v>388</v>
-      </c>
-      <c r="B23" t="s">
-        <v>445</v>
-      </c>
-      <c r="C23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" t="s">
-        <v>380</v>
-      </c>
-      <c r="E23" t="s">
-        <v>389</v>
       </c>
       <c r="F23">
         <v>8435985993</v>
       </c>
       <c r="H23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I23" t="s">
         <v>382</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>383</v>
-      </c>
-      <c r="J23" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E24" t="s">
         <v>390</v>
-      </c>
-      <c r="B24" t="s">
-        <v>446</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>380</v>
-      </c>
-      <c r="E24" t="s">
-        <v>391</v>
       </c>
       <c r="F24">
         <v>8435985993</v>
       </c>
       <c r="H24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J24" t="s">
         <v>383</v>
-      </c>
-      <c r="J24" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C25" t="s">
         <v>392</v>
       </c>
-      <c r="B25" t="s">
-        <v>447</v>
-      </c>
-      <c r="C25" t="s">
-        <v>393</v>
-      </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F25">
         <v>8435985993</v>
       </c>
       <c r="H25" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25" t="s">
         <v>382</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>383</v>
-      </c>
-      <c r="J25" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C26" t="s">
         <v>394</v>
       </c>
-      <c r="B26" t="s">
-        <v>448</v>
-      </c>
-      <c r="C26" t="s">
-        <v>395</v>
-      </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F26">
         <v>8435985993</v>
       </c>
       <c r="H26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J26" t="s">
         <v>383</v>
-      </c>
-      <c r="J26" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" t="s">
         <v>396</v>
       </c>
-      <c r="B27" t="s">
-        <v>449</v>
-      </c>
-      <c r="C27" t="s">
-        <v>397</v>
-      </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F27">
         <v>8435985993</v>
       </c>
       <c r="H27" t="s">
+        <v>381</v>
+      </c>
+      <c r="I27" t="s">
         <v>382</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>383</v>
-      </c>
-      <c r="J27" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12936,9 +12947,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -12946,7 +12957,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>14</v>
@@ -12961,7 +12972,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12973,10 +12984,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -12997,7 +13008,7 @@
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -13012,31 +13023,31 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -13056,7 +13067,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -13067,36 +13078,36 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -13109,7 +13120,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -13120,16 +13131,16 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -13137,7 +13148,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -13148,30 +13159,30 @@
     </row>
     <row r="12" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -15271,7 +15282,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16302,7 +16313,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -16314,18 +16325,18 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -16333,13 +16344,13 @@
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -16349,7 +16360,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -16358,102 +16369,102 @@
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
         <v>260</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>261</v>
-      </c>
-      <c r="C9" t="s">
-        <v>262</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" t="s">
         <v>263</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
         <v>265</v>
       </c>
-      <c r="B10" t="s">
-        <v>266</v>
-      </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" t="s">
         <v>267</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
         <v>268</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>262</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="22" t="s">
         <v>269</v>
-      </c>
-      <c r="E11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
         <v>271</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
         <v>272</v>
       </c>
-      <c r="C12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" t="s">
-        <v>273</v>
-      </c>
       <c r="F12" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
         <v>274</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
         <v>275</v>
       </c>
-      <c r="C13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
@@ -16463,7 +16474,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -16472,13 +16483,13 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" t="s">
         <v>398</v>
       </c>
-      <c r="B16" t="s">
-        <v>399</v>
-      </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -16488,7 +16499,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -16497,10 +16508,10 @@
     </row>
     <row r="19" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>30</v>
@@ -16533,16 +16544,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>157</v>
-      </c>
       <c r="E1" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -16552,7 +16563,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16561,36 +16572,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514448F2-BBA0-4845-B7F6-21852203D5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17370" windowHeight="6195" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -34,7 +35,7 @@
     <sheet name="Coverages" sheetId="22" r:id="rId20"/>
     <sheet name="SDGActions" sheetId="24" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="684">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2084,12 +2085,27 @@
   </si>
   <si>
     <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region&lt;breakOn&gt;Deleted&lt;breakOn&gt;Budget</t>
+  </si>
+  <si>
+    <t>Firm&lt;break&gt;Title&lt;break&gt;Phone&lt;break&gt;Email&lt;break&gt;Tier&lt;break&gt;Owner&lt;break&gt;Last Touch Point</t>
+  </si>
+  <si>
+    <t>M1Tc002_verifyDefaultFieldSet</t>
+  </si>
+  <si>
+    <t>M1Tc028_verifyAllTypeOfImageFormatByUpdateImage</t>
+  </si>
+  <si>
+    <t>\\UploadImages\\JPGImage.jpg&lt;break&gt;\\UploadImages\\15mbfile.jpeg&lt;break&gt;\\UploadImages\\PNG Image.png&lt;break&gt;\\UploadImages\\15MbPNGFile.png&lt;break&gt;\\UploadImages\\GIF Image.gif&lt;break&gt;\\UploadImages\\imgSize5.7mg16mb.gif</t>
+  </si>
+  <si>
+    <t>JPG Minimum size&lt;break&gt;JPG Maximum size&lt;break&gt;PNG Minimum size&lt;break&gt;PNG Maximum size&lt;break&gt;GIF Minimum size&lt;break&gt;GIF Maximum size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2222,7 +2238,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2336,11 +2352,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2617,10 +2636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3121,18 +3142,38 @@
         <v>500</v>
       </c>
     </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>680</v>
+      </c>
+      <c r="B43" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>681</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>683</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
+    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B44" r:id="rId3" xr:uid="{9E447F27-0081-418F-ACAF-CCA965A9ED8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3387,7 +3428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3795,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4096,7 +4137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4306,11 +4347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +4489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4616,7 +4657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4836,7 +4877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5105,11 +5146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,7 +5244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5359,7 +5400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5440,11 +5481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6049,7 +6090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9419,7 +9460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:ALR31"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -12931,14 +12972,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12997,7 +13038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -13191,7 +13232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16524,7 +16565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514448F2-BBA0-4845-B7F6-21852203D5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="685">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -143,9 +142,6 @@
     <t>Test David</t>
   </si>
   <si>
-    <t>Contact Full Name&lt;break&gt;Firm&lt;break&gt;Email&lt;break&gt;Phone</t>
-  </si>
-  <si>
     <t>Institution</t>
   </si>
   <si>
@@ -188,9 +184,6 @@
     <t>ExtraFieldsName</t>
   </si>
   <si>
-    <t>Contact&lt;break&gt;Relationship Type&lt;break&gt;Candidate Notes&lt;break&gt;Do Not Call&lt;break&gt;Email 2&lt;break&gt;Fax&lt;break&gt;Other City&lt;break&gt;Individual&lt;break&gt;Reports To&lt;break&gt;Relationship Owners&lt;break&gt;Average Deal Quality Score&lt;break&gt;Assistant&lt;break&gt;Total Deals Shown&lt;break&gt;Tier&lt;break&gt;Lead Source&lt;break&gt;Department&lt;break&gt;Contact Type&lt;break&gt;Email Opt Out&lt;break&gt;Created By&lt;break&gt;Office Location&lt;break&gt;Created Date&lt;break&gt;Mailing City&lt;break&gt;Owner&lt;break&gt;Asst. Phone&lt;break&gt;Description&lt;break&gt;Primary Contact&lt;break&gt;Birthdate&lt;break&gt;Source&lt;break&gt;Contact Referral Source&lt;break&gt;Region&lt;break&gt;Potential Candidate&lt;break&gt;Phone 2&lt;break&gt;Photo URL&lt;break&gt;Other Street&lt;break&gt;Last Touch Point&lt;break&gt;Candidate Role&lt;break&gt;Other Latitude&lt;break&gt;Candidate Status&lt;break&gt;Mailing Street&lt;break&gt;Industry&lt;break&gt;Last Stay-in-Touch Request Date&lt;break&gt;Mailing Country&lt;break&gt;Last Referenced Date&lt;break&gt;External System ID&lt;break&gt;Last Name&lt;break&gt;Email 3&lt;break&gt;Fax Opt Out</t>
-  </si>
-  <si>
     <t>Ins2</t>
   </si>
   <si>
@@ -1845,9 +1838,6 @@
   </si>
   <si>
     <t>Create New&lt;break&gt;Account&lt;break&gt;Fund&lt;break&gt;Task1</t>
-  </si>
-  <si>
-    <t>Funds</t>
   </si>
   <si>
     <t>M3Task1</t>
@@ -2063,21 +2053,6 @@
     <t>M3Tc095_VerifyActionsfromNavigationPageAfterAssigningRecordTypes</t>
   </si>
   <si>
-    <t>navatariptesting+187@gmail.com</t>
-  </si>
-  <si>
-    <t>CMT - 000940</t>
-  </si>
-  <si>
-    <t>CMT - 000941</t>
-  </si>
-  <si>
-    <t>5/24/2021</t>
-  </si>
-  <si>
-    <t>5/21/2021</t>
-  </si>
-  <si>
     <t>Fund Preferences&lt;breakOn&gt;Existing LP&lt;breakOn&gt;Total Fund Commitments (mn)&lt;breakOn&gt;Total Co-investment Commitments (mn)&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Bank Name&lt;breakOn&gt;City</t>
   </si>
   <si>
@@ -2087,9 +2062,6 @@
     <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region&lt;breakOn&gt;Deleted&lt;breakOn&gt;Budget</t>
   </si>
   <si>
-    <t>Firm&lt;break&gt;Title&lt;break&gt;Phone&lt;break&gt;Email&lt;break&gt;Tier&lt;break&gt;Owner&lt;break&gt;Last Touch Point</t>
-  </si>
-  <si>
     <t>M1Tc002_verifyDefaultFieldSet</t>
   </si>
   <si>
@@ -2100,12 +2072,50 @@
   </si>
   <si>
     <t>JPG Minimum size&lt;break&gt;JPG Maximum size&lt;break&gt;PNG Minimum size&lt;break&gt;PNG Maximum size&lt;break&gt;GIF Minimum size&lt;break&gt;GIF Maximum size</t>
+  </si>
+  <si>
+    <t>Legal Name&lt;break&gt;Title&lt;break&gt;Phone&lt;break&gt;Email&lt;break&gt;Contact Owner</t>
+  </si>
+  <si>
+    <t>Contact Full Name&lt;break&gt;Title&lt;break&gt;Email&lt;break&gt;Phone</t>
+  </si>
+  <si>
+    <t>navataripautomation+83743@gmail.com</t>
+  </si>
+  <si>
+    <t>New/Initial Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact&lt;break&gt;Contact Type&lt;break&gt;Candidate Notes&lt;break&gt;Do Not Call&lt;break&gt;Email 2&lt;break&gt;Fax&lt;break&gt;Other City
+&lt;break&gt;Individual&lt;break&gt;Reports To&lt;break&gt;Relationship Owners&lt;break&gt;Average Deal Quality Score&lt;break&gt;Assistant
+&lt;break&gt;Total Deals Shown&lt;break&gt;Tier&lt;break&gt;Lead Source&lt;break&gt;Department&lt;break&gt;Contact Type&lt;break&gt;Email Opt Out&lt;break&gt;Created By
+&lt;break&gt;Office Location&lt;break&gt;Created Date&lt;break&gt;Mailing City&lt;break&gt;Contact Owner&lt;break&gt;Asst. Phone&lt;break&gt;Description&lt;break&gt;
+Primary Contact&lt;break&gt;Birthdate&lt;break&gt;Source&lt;break&gt;Contact Referral Source&lt;break&gt;Region&lt;break&gt;Potential Candidate
+&lt;break&gt;Phone 2&lt;break&gt;Photo URL&lt;break&gt;Other Street&lt;break&gt;Last Touchpoint&lt;break&gt;Candidate Role&lt;break&gt;Other Latitude&lt;break&gt;
+Candidate Status&lt;break&gt;Mailing Street&lt;break&gt;Industry Focus&lt;break&gt;Last Stay-in-Touch Request Date&lt;break&gt;Mailing Country&lt;break&gt;
+Last Referenced Date&lt;break&gt;External System ID&lt;break&gt;Last Name&lt;break&gt;Email 3&lt;break&gt;Fax Opt Out
+</t>
+  </si>
+  <si>
+    <t>CMT - 000937</t>
+  </si>
+  <si>
+    <t>CMT - 000938</t>
+  </si>
+  <si>
+    <t>Institutions</t>
+  </si>
+  <si>
+    <t>7/21/2021</t>
+  </si>
+  <si>
+    <t>7/18/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2359,7 +2369,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2636,11 +2646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,514 +2668,514 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>312</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I10" t="s">
         <v>370</v>
-      </c>
-      <c r="H10" t="s">
-        <v>371</v>
-      </c>
-      <c r="I10" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" t="s">
         <v>375</v>
-      </c>
-      <c r="J13" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B21" t="s">
+        <v>434</v>
+      </c>
+      <c r="H21" t="s">
+        <v>435</v>
+      </c>
+      <c r="I21" t="s">
+        <v>370</v>
+      </c>
+      <c r="J21" t="s">
         <v>436</v>
       </c>
-      <c r="H21" t="s">
-        <v>437</v>
-      </c>
-      <c r="I21" t="s">
-        <v>372</v>
-      </c>
-      <c r="J21" t="s">
-        <v>438</v>
-      </c>
       <c r="K21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E25">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F26" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E32">
         <v>-20</v>
       </c>
       <c r="L32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E33">
         <v>-25</v>
       </c>
       <c r="L33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B34" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B35" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="K36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B39" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J39" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B40" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L41" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B43" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B44" r:id="rId3" xr:uid="{9E447F27-0081-418F-ACAF-CCA965A9ED8A}"/>
+    <hyperlink ref="L41" r:id="rId1"/>
+    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
+    <hyperlink ref="B44" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3173,7 +3183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,16 +3204,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="E1" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3216,7 +3226,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3225,7 +3235,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3237,48 +3247,48 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3287,16 +3297,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3328,19 +3338,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3355,7 +3365,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3364,62 +3374,62 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="F4" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3428,7 +3438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3450,16 +3460,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3473,26 +3483,26 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,310 +3512,310 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B23" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B26" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B27" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3814,19 +3824,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +3846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,13 +3866,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
@@ -3871,56 +3881,56 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -3930,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3963,67 +3973,67 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
@@ -4037,7 +4047,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4058,39 +4068,39 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>500000</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>500000</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,7 +4108,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4119,14 +4129,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4137,7 +4147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4156,19 +4166,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -4176,7 +4186,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
       <c r="D2" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4190,77 +4200,77 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,7 +4278,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
       <c r="D15" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4289,56 +4299,56 @@
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>599</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="H16" s="50" t="s">
         <v>602</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>603</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>606</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="H17" s="50" t="s">
         <v>607</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>608</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>609</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>611</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>607</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>612</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>613</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4347,11 +4357,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4363,8 +4373,8 @@
     <col min="5" max="5" width="16.140625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.28515625" style="29" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4372,115 +4382,115 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>301</v>
-      </c>
       <c r="H2" s="29" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" t="s">
         <v>305</v>
       </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" t="s">
-        <v>307</v>
-      </c>
       <c r="G4" s="26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="I4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4489,7 +4499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4510,19 +4520,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4536,7 +4546,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4546,31 +4556,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4578,77 +4588,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4657,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4675,16 +4685,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,7 +4707,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4706,169 +4716,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
         <v>402</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>403</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" t="s">
         <v>403</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>404</v>
-      </c>
-      <c r="D5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
         <v>403</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>404</v>
-      </c>
-      <c r="D6" t="s">
-        <v>405</v>
-      </c>
-      <c r="E6" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
         <v>403</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>404</v>
-      </c>
-      <c r="D7" t="s">
-        <v>405</v>
-      </c>
-      <c r="E7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s">
         <v>403</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>404</v>
-      </c>
-      <c r="D8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" t="s">
         <v>403</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>404</v>
-      </c>
-      <c r="D9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" t="s">
         <v>403</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>404</v>
-      </c>
-      <c r="D10" t="s">
-        <v>405</v>
-      </c>
-      <c r="E10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" t="s">
         <v>403</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>404</v>
-      </c>
-      <c r="D11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E11" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" t="s">
         <v>403</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>404</v>
-      </c>
-      <c r="D12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +4887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,25 +4905,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -4922,222 +4932,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" t="s">
         <v>415</v>
-      </c>
-      <c r="B3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" t="s">
-        <v>416</v>
-      </c>
-      <c r="F3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5146,11 +5156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5160,7 +5170,7 @@
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5180,7 +5190,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5191,16 +5201,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
+        <v>676</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5211,13 +5221,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5228,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5244,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5263,7 +5273,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -5277,7 +5287,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5286,112 +5296,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" t="s">
         <v>470</v>
-      </c>
-      <c r="B4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5400,7 +5410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,59 +5430,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +5491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5506,549 +5516,549 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6057,7 +6067,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6065,22 +6075,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -6090,7 +6100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6116,7 +6126,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -8125,7 +8135,7 @@
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9134,135 +9144,135 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9271,87 +9281,87 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -9372,58 +9382,58 @@
     <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C36" s="22"/>
     </row>
@@ -9460,7 +9470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALR31"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -9500,13 +9510,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -11517,7 +11527,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -12531,13 +12541,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>26</v>
@@ -12550,7 +12560,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
@@ -12562,145 +12572,145 @@
     </row>
     <row r="7" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
         <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
         <v>277</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" t="s">
         <v>278</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
         <v>281</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" t="s">
         <v>282</v>
-      </c>
-      <c r="C14" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
         <v>285</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>286</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>287</v>
-      </c>
-      <c r="D15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -12712,19 +12722,19 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>562</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="D18" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18" s="54" t="s">
         <v>563</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>559</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12734,7 +12744,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
@@ -12746,213 +12756,213 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" t="s">
         <v>378</v>
-      </c>
-      <c r="B21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" t="s">
-        <v>380</v>
       </c>
       <c r="F21">
         <v>8435985993</v>
       </c>
       <c r="H21" t="s">
+        <v>379</v>
+      </c>
+      <c r="I21" t="s">
+        <v>380</v>
+      </c>
+      <c r="J21" t="s">
         <v>381</v>
-      </c>
-      <c r="I21" t="s">
-        <v>382</v>
-      </c>
-      <c r="J21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F22">
         <v>8435985993</v>
       </c>
       <c r="H22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F23">
         <v>8435985993</v>
       </c>
       <c r="H23" t="s">
+        <v>379</v>
+      </c>
+      <c r="I23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J23" t="s">
         <v>381</v>
-      </c>
-      <c r="I23" t="s">
-        <v>382</v>
-      </c>
-      <c r="J23" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F24">
         <v>8435985993</v>
       </c>
       <c r="H24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I24" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F25">
         <v>8435985993</v>
       </c>
       <c r="H25" t="s">
+        <v>379</v>
+      </c>
+      <c r="I25" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" t="s">
         <v>381</v>
-      </c>
-      <c r="I25" t="s">
-        <v>382</v>
-      </c>
-      <c r="J25" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F26">
         <v>8435985993</v>
       </c>
       <c r="H26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F27">
         <v>8435985993</v>
       </c>
       <c r="H27" t="s">
+        <v>379</v>
+      </c>
+      <c r="I27" t="s">
+        <v>380</v>
+      </c>
+      <c r="J27" t="s">
         <v>381</v>
-      </c>
-      <c r="I27" t="s">
-        <v>382</v>
-      </c>
-      <c r="J27" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B28" t="s">
+        <v>502</v>
+      </c>
+      <c r="C28" t="s">
         <v>503</v>
       </c>
-      <c r="B28" t="s">
-        <v>504</v>
-      </c>
-      <c r="C28" t="s">
-        <v>505</v>
-      </c>
       <c r="D28" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -12972,14 +12982,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E18" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12998,7 +13008,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>14</v>
@@ -13013,7 +13023,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -13025,10 +13035,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -13038,11 +13048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13064,31 +13074,31 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
@@ -13108,7 +13118,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -13119,36 +13129,30 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
-        <v>548</v>
-      </c>
-      <c r="C4" t="s">
-        <v>600</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" t="s">
-        <v>600</v>
+        <v>547</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -13161,7 +13165,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -13172,16 +13176,16 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -13189,7 +13193,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -13200,30 +13204,30 @@
     </row>
     <row r="12" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -13232,11 +13236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13244,7 +13248,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -15323,7 +15327,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16354,54 +16358,54 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -16410,102 +16414,102 @@
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
         <v>259</v>
-      </c>
-      <c r="B9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" t="s">
         <v>266</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="C11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" t="s">
         <v>270</v>
       </c>
-      <c r="B12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
-        <v>272</v>
-      </c>
       <c r="F12" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" t="s">
         <v>273</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" s="22" t="s">
         <v>274</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
@@ -16515,7 +16519,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -16524,13 +16528,13 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -16540,7 +16544,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -16549,10 +16553,10 @@
     </row>
     <row r="19" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>30</v>
@@ -16561,11 +16565,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16585,16 +16590,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>156</v>
-      </c>
       <c r="E1" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -16604,7 +16609,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -16613,36 +16618,36 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>674</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,43 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514448F2-BBA0-4845-B7F6-21852203D5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" firstSheet="1" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="FilePath" sheetId="18" r:id="rId1"/>
-    <sheet name="FieldSet" sheetId="1" r:id="rId2"/>
-    <sheet name="FieldComponent" sheetId="6" r:id="rId3"/>
-    <sheet name="Entities" sheetId="3" r:id="rId4"/>
-    <sheet name="Contacts" sheetId="2" r:id="rId5"/>
-    <sheet name="Test Custom Object" sheetId="23" r:id="rId6"/>
-    <sheet name="Fund" sheetId="7" r:id="rId7"/>
-    <sheet name="Deal" sheetId="4" r:id="rId8"/>
-    <sheet name="DealRequestTracker" sheetId="14" r:id="rId9"/>
-    <sheet name="CustomSDG" sheetId="13" r:id="rId10"/>
-    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId11"/>
-    <sheet name="MarketingEvent" sheetId="15" r:id="rId12"/>
-    <sheet name="Partnerships" sheetId="8" r:id="rId13"/>
-    <sheet name="Commitments" sheetId="9" r:id="rId14"/>
-    <sheet name="Task" sheetId="12" r:id="rId15"/>
-    <sheet name="UploadImageData" sheetId="17" r:id="rId16"/>
-    <sheet name="Fields" sheetId="19" r:id="rId17"/>
-    <sheet name="Attendees" sheetId="20" r:id="rId18"/>
-    <sheet name="Deal Team" sheetId="21" r:id="rId19"/>
-    <sheet name="Coverages" sheetId="22" r:id="rId20"/>
-    <sheet name="SDGActions" sheetId="24" r:id="rId21"/>
+    <sheet name="FilePath" r:id="rId1" sheetId="18"/>
+    <sheet name="FieldSet" r:id="rId2" sheetId="1"/>
+    <sheet name="FieldComponent" r:id="rId3" sheetId="6"/>
+    <sheet name="Entities" r:id="rId4" sheetId="3"/>
+    <sheet name="Contacts" r:id="rId5" sheetId="2"/>
+    <sheet name="Test Custom Object" r:id="rId6" sheetId="23"/>
+    <sheet name="Fund" r:id="rId7" sheetId="7"/>
+    <sheet name="Deal" r:id="rId8" sheetId="4"/>
+    <sheet name="DealRequestTracker" r:id="rId9" sheetId="14"/>
+    <sheet name="CustomSDG" r:id="rId10" sheetId="13"/>
+    <sheet name="ToggleButtonCheck" r:id="rId11" sheetId="16"/>
+    <sheet name="MarketingEvent" r:id="rId12" sheetId="15"/>
+    <sheet name="Partnerships" r:id="rId13" sheetId="8"/>
+    <sheet name="Commitments" r:id="rId14" sheetId="9"/>
+    <sheet name="Task" r:id="rId15" sheetId="12"/>
+    <sheet name="UploadImageData" r:id="rId16" sheetId="17"/>
+    <sheet name="Fields" r:id="rId17" sheetId="19"/>
+    <sheet name="Attendees" r:id="rId18" sheetId="20"/>
+    <sheet name="Deal Team" r:id="rId19" sheetId="21"/>
+    <sheet name="Coverages" r:id="rId20" sheetId="22"/>
+    <sheet name="SDGActions" r:id="rId21" sheetId="24"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="692">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2100,12 +2099,36 @@
   </si>
   <si>
     <t>JPG Minimum size&lt;break&gt;JPG Maximum size&lt;break&gt;PNG Minimum size&lt;break&gt;PNG Maximum size&lt;break&gt;GIF Minimum size&lt;break&gt;GIF Maximum size</t>
+  </si>
+  <si>
+    <t>Updated_Stage</t>
+  </si>
+  <si>
+    <t>HSRPIP6</t>
+  </si>
+  <si>
+    <t>InstDeal</t>
+  </si>
+  <si>
+    <t>navatariptesting+19650@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+26881@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+73144@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+99299@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+44415@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2234,135 +2257,135 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" quotePrefix="1" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2379,10 +2402,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2417,7 +2440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2452,7 +2475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2546,21 +2569,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2577,7 +2600,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2629,31 +2652,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="66" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="89.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="81.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="66.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3150,7 +3173,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>681</v>
       </c>
@@ -3163,18 +3186,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B44" r:id="rId3" xr:uid="{9E447F27-0081-418F-ACAF-CCA965A9ED8A}"/>
+    <hyperlink r:id="rId1" ref="L41"/>
+    <hyperlink display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" r:id="rId2" ref="L31"/>
+    <hyperlink r:id="rId3" ref="B44"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
@@ -3182,11 +3205,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" style="5" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="19.140625" collapsed="true"/>
+    <col min="6" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3206,7 +3229,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,7 +3297,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -3300,13 +3323,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -3314,13 +3337,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="127.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="22.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="32.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="127.5703125" collapsed="true"/>
+    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3366,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
@@ -3351,7 +3374,7 @@
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
     </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -3423,13 +3446,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A5" sqref="A3:XFD5"/>
@@ -3437,12 +3460,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="21.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="11.0" collapsed="true"/>
+    <col min="6" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,14 +3485,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
     </row>
-    <row r="3" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
@@ -3801,7 +3824,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -3830,14 +3853,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -3845,13 +3868,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -3865,10 +3888,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
     </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>571</v>
@@ -3898,7 +3921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>585</v>
@@ -3906,7 +3929,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>486</v>
       </c>
@@ -3915,7 +3938,7 @@
       </c>
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>488</v>
       </c>
@@ -3925,13 +3948,13 @@
       <c r="C9" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
@@ -3939,26 +3962,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -4020,7 +4043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="2" s="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" t="s">
         <v>673</v>
@@ -4032,7 +4055,7 @@
       <c r="Q2" s="48"/>
       <c r="S2" s="48"/>
     </row>
-    <row r="3" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="3" s="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
@@ -4093,7 +4116,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="7" s="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
@@ -4117,14 +4140,14 @@
       <c r="S7" s="16"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>490</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>491</v>
       </c>
@@ -4132,13 +4155,13 @@
       <c r="C9" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:T18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -4146,12 +4169,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4171,7 +4194,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
@@ -4263,7 +4286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="15.75" r="15" s="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
@@ -4287,7 +4310,7 @@
       <c r="S15" s="16"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>601</v>
       </c>
@@ -4304,7 +4327,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>606</v>
       </c>
@@ -4321,7 +4344,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>611</v>
       </c>
@@ -4342,13 +4365,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -4356,18 +4379,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="29" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="29" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="29" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4484,13 +4507,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -4498,11 +4521,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,13 +4675,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -4666,8 +4689,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4872,13 +4895,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4886,8 +4909,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5141,13 +5164,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -5155,15 +5178,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="77.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -5183,7 +5206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -5238,14 +5261,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
@@ -5253,9 +5276,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5269,12 +5292,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="53"/>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
     </row>
-    <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>587</v>
@@ -5395,13 +5418,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -5409,10 +5432,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5435,7 +5458,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row ht="150" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>622</v>
       </c>
@@ -5455,7 +5478,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row ht="210" r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>627</v>
       </c>
@@ -5476,13 +5499,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -5490,15 +5513,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -6085,24 +6108,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:ALO49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALP49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1003" x14ac:dyDescent="0.25">
@@ -7118,7 +7141,7 @@
       <c r="ALN1" s="5"/>
       <c r="ALO1" s="5"/>
     </row>
-    <row r="2" spans="1:1003" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="34" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="C2" s="33"/>
       <c r="D2" s="35"/>
@@ -9324,7 +9347,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>584</v>
@@ -9332,7 +9355,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>558</v>
       </c>
@@ -9343,7 +9366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>560</v>
       </c>
@@ -9354,22 +9377,22 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="22"/>
     </row>
-    <row r="29" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="22"/>
     </row>
-    <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>574</v>
@@ -9399,7 +9422,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>585</v>
@@ -9407,7 +9430,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>145</v>
       </c>
@@ -9418,7 +9441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>484</v>
       </c>
@@ -9427,41 +9450,41 @@
       </c>
       <c r="C36" s="22"/>
     </row>
-    <row r="41" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="50" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="42" s="50" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="43" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
     </row>
-    <row r="44" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="50" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="45" s="50" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="46" s="50" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="47" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
     </row>
-    <row r="48" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="22"/>
     </row>
-    <row r="49" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:ALR31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ALS31"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
@@ -9469,12 +9492,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1006" x14ac:dyDescent="0.25">
@@ -10505,7 +10528,7 @@
       <c r="ALQ1" s="5"/>
       <c r="ALR1" s="5"/>
     </row>
-    <row r="2" spans="1:1006" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="34" spans="1:1006" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -12574,7 +12597,7 @@
         <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:1006" x14ac:dyDescent="0.25">
@@ -12591,7 +12614,7 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:1006" x14ac:dyDescent="0.25">
@@ -12608,7 +12631,7 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:1006" x14ac:dyDescent="0.25">
@@ -12625,7 +12648,7 @@
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:1006" x14ac:dyDescent="0.25">
@@ -12642,7 +12665,7 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:1006" x14ac:dyDescent="0.25">
@@ -12710,7 +12733,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>562</v>
       </c>
@@ -12727,7 +12750,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -12955,7 +12978,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -12967,20 +12990,20 @@
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
     </row>
-    <row r="31" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink r:id="rId1" ref="E18"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -12988,9 +13011,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -13004,7 +13027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -13033,13 +13056,13 @@
       <c r="C4" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -13047,19 +13070,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -13091,7 +13114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -13103,7 +13126,7 @@
       <c r="I2" s="39"/>
       <c r="J2" s="41"/>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13151,12 +13174,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -13170,7 +13193,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>566</v>
       </c>
@@ -13184,7 +13207,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13198,7 +13221,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>146</v>
       </c>
@@ -13212,7 +13235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>147</v>
       </c>
@@ -13227,29 +13250,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AML19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMM20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -13271,7 +13294,9 @@
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -14291,7 +14316,7 @@
       <c r="AMK1" s="6"/>
       <c r="AML1" s="6"/>
     </row>
-    <row r="2" spans="1:1026" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -15319,7 +15344,7 @@
       <c r="AMK2" s="43"/>
       <c r="AML2" s="43"/>
     </row>
-    <row r="3" spans="1:1026" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -16499,7 +16524,7 @@
         <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
         <v>275</v>
@@ -16507,66 +16532,89 @@
       <c r="F13" s="22" t="s">
         <v>276</v>
       </c>
+      <c r="H13" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="F14" s="22"/>
+      <c r="A14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>397</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>398</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>379</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+    <row customFormat="1" r="19" s="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row customFormat="1" r="20" s="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B20" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D20" s="50" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -16574,10 +16622,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="18.85546875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="5" width="15.28515625" collapsed="true"/>
+    <col min="5" max="16384" style="5" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -16597,10 +16645,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
     </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -16646,7 +16694,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="688">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2110,6 +2110,15 @@
   </si>
   <si>
     <t>7/18/2021</t>
+  </si>
+  <si>
+    <t>HSRPIP6</t>
+  </si>
+  <si>
+    <t>InstDeal</t>
+  </si>
+  <si>
+    <t>Updated_Stage</t>
   </si>
 </sst>
 </file>
@@ -13240,7 +13249,7 @@
   <dimension ref="A1:AML19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13275,7 +13284,9 @@
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -16503,7 +16514,7 @@
         <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>493</v>
       </c>
       <c r="E13" t="s">
         <v>273</v>
@@ -16511,9 +16522,29 @@
       <c r="F13" s="22" t="s">
         <v>274</v>
       </c>
+      <c r="H13" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
-      <c r="F14" s="22"/>
+      <c r="A14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" t="s">
+        <v>686</v>
+      </c>
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -33,8 +33,11 @@
     <sheet name="Deal Team" sheetId="21" r:id="rId19"/>
     <sheet name="Coverages" sheetId="22" r:id="rId20"/>
     <sheet name="SDGActions" sheetId="24" r:id="rId21"/>
+    <sheet name="Report" sheetId="25" r:id="rId22"/>
+    <sheet name="CustomEmailFolder" sheetId="26" r:id="rId23"/>
+    <sheet name="Task1" sheetId="27" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="751">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2119,6 +2122,195 @@
   </si>
   <si>
     <t>Updated_Stage</t>
+  </si>
+  <si>
+    <t>Report_Folder_Name</t>
+  </si>
+  <si>
+    <t>Report_Name</t>
+  </si>
+  <si>
+    <t>Select_Report_Type</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>SmokeReport1</t>
+  </si>
+  <si>
+    <t>Contacts &amp; Institutions</t>
+  </si>
+  <si>
+    <t>All institutions</t>
+  </si>
+  <si>
+    <t>All Time</t>
+  </si>
+  <si>
+    <t>Email_Template_Folder_Label</t>
+  </si>
+  <si>
+    <t>Email_Template_Name</t>
+  </si>
+  <si>
+    <t>Public_Folder_Access</t>
+  </si>
+  <si>
+    <t>Available_For_Use</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Email_Body</t>
+  </si>
+  <si>
+    <t>EmailTemplate1</t>
+  </si>
+  <si>
+    <t>Read/Write</t>
+  </si>
+  <si>
+    <t>Checked</t>
+  </si>
+  <si>
+    <t>PE Test Email Description</t>
+  </si>
+  <si>
+    <t>PE Test Email Subject</t>
+  </si>
+  <si>
+    <t>PE Test Email Body</t>
+  </si>
+  <si>
+    <t>CustomReportFolder</t>
+  </si>
+  <si>
+    <t>CustomReport</t>
+  </si>
+  <si>
+    <t>PETestEmailFolder</t>
+  </si>
+  <si>
+    <t>PETestCustomEmailTemplate</t>
+  </si>
+  <si>
+    <t>Due_Date</t>
+  </si>
+  <si>
+    <t>Updated_Comment</t>
+  </si>
+  <si>
+    <t>Updated_Subject</t>
+  </si>
+  <si>
+    <t>Updated_Priority</t>
+  </si>
+  <si>
+    <t>New Interactions- Call</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>New Interactions- Meeting</t>
+  </si>
+  <si>
+    <t>Board Meeting</t>
+  </si>
+  <si>
+    <t>New Interactions- Task</t>
+  </si>
+  <si>
+    <t>M3CALL1</t>
+  </si>
+  <si>
+    <t>M3TASK1</t>
+  </si>
+  <si>
+    <t>M3MEETING1</t>
+  </si>
+  <si>
+    <t>Jio Deal</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Due Deligence</t>
+  </si>
+  <si>
+    <t>M3DEAL1</t>
+  </si>
+  <si>
+    <t>Reliance Group</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Ambani</t>
+  </si>
+  <si>
+    <t>M3CON2</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>M3INS3</t>
+  </si>
+  <si>
+    <t>M3INS4</t>
+  </si>
+  <si>
+    <t>M3INS5</t>
+  </si>
+  <si>
+    <t>M3INS6</t>
+  </si>
+  <si>
+    <t>M3INS7</t>
+  </si>
+  <si>
+    <t>M3INS8</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Company 1</t>
+  </si>
+  <si>
+    <t>Fund Manager 1</t>
+  </si>
+  <si>
+    <t>Indi Investor</t>
+  </si>
+  <si>
+    <t>Lender 1</t>
+  </si>
+  <si>
+    <t>Fund Manager</t>
+  </si>
+  <si>
+    <t>Fund Manager's Fund</t>
+  </si>
+  <si>
+    <t>Individual Investor</t>
+  </si>
+  <si>
+    <t>Fund Managers Fund 1</t>
+  </si>
+  <si>
+    <t>Parent_Institution</t>
   </si>
 </sst>
 </file>
@@ -2257,7 +2449,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2374,6 +2566,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5168,8 +5363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5493,6 +5688,4330 @@
       <c r="F3" t="s">
         <v>623</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G2" t="s">
+        <v>706</v>
+      </c>
+      <c r="H2" t="s">
+        <v>707</v>
+      </c>
+      <c r="I2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1022" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
+      <c r="EK1" s="5"/>
+      <c r="EL1" s="5"/>
+      <c r="EM1" s="5"/>
+      <c r="EN1" s="5"/>
+      <c r="EO1" s="5"/>
+      <c r="EP1" s="5"/>
+      <c r="EQ1" s="5"/>
+      <c r="ER1" s="5"/>
+      <c r="ES1" s="5"/>
+      <c r="ET1" s="5"/>
+      <c r="EU1" s="5"/>
+      <c r="EV1" s="5"/>
+      <c r="EW1" s="5"/>
+      <c r="EX1" s="5"/>
+      <c r="EY1" s="5"/>
+      <c r="EZ1" s="5"/>
+      <c r="FA1" s="5"/>
+      <c r="FB1" s="5"/>
+      <c r="FC1" s="5"/>
+      <c r="FD1" s="5"/>
+      <c r="FE1" s="5"/>
+      <c r="FF1" s="5"/>
+      <c r="FG1" s="5"/>
+      <c r="FH1" s="5"/>
+      <c r="FI1" s="5"/>
+      <c r="FJ1" s="5"/>
+      <c r="FK1" s="5"/>
+      <c r="FL1" s="5"/>
+      <c r="FM1" s="5"/>
+      <c r="FN1" s="5"/>
+      <c r="FO1" s="5"/>
+      <c r="FP1" s="5"/>
+      <c r="FQ1" s="5"/>
+      <c r="FR1" s="5"/>
+      <c r="FS1" s="5"/>
+      <c r="FT1" s="5"/>
+      <c r="FU1" s="5"/>
+      <c r="FV1" s="5"/>
+      <c r="FW1" s="5"/>
+      <c r="FX1" s="5"/>
+      <c r="FY1" s="5"/>
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="5"/>
+      <c r="GB1" s="5"/>
+      <c r="GC1" s="5"/>
+      <c r="GD1" s="5"/>
+      <c r="GE1" s="5"/>
+      <c r="GF1" s="5"/>
+      <c r="GG1" s="5"/>
+      <c r="GH1" s="5"/>
+      <c r="GI1" s="5"/>
+      <c r="GJ1" s="5"/>
+      <c r="GK1" s="5"/>
+      <c r="GL1" s="5"/>
+      <c r="GM1" s="5"/>
+      <c r="GN1" s="5"/>
+      <c r="GO1" s="5"/>
+      <c r="GP1" s="5"/>
+      <c r="GQ1" s="5"/>
+      <c r="GR1" s="5"/>
+      <c r="GS1" s="5"/>
+      <c r="GT1" s="5"/>
+      <c r="GU1" s="5"/>
+      <c r="GV1" s="5"/>
+      <c r="GW1" s="5"/>
+      <c r="GX1" s="5"/>
+      <c r="GY1" s="5"/>
+      <c r="GZ1" s="5"/>
+      <c r="HA1" s="5"/>
+      <c r="HB1" s="5"/>
+      <c r="HC1" s="5"/>
+      <c r="HD1" s="5"/>
+      <c r="HE1" s="5"/>
+      <c r="HF1" s="5"/>
+      <c r="HG1" s="5"/>
+      <c r="HH1" s="5"/>
+      <c r="HI1" s="5"/>
+      <c r="HJ1" s="5"/>
+      <c r="HK1" s="5"/>
+      <c r="HL1" s="5"/>
+      <c r="HM1" s="5"/>
+      <c r="HN1" s="5"/>
+      <c r="HO1" s="5"/>
+      <c r="HP1" s="5"/>
+      <c r="HQ1" s="5"/>
+      <c r="HR1" s="5"/>
+      <c r="HS1" s="5"/>
+      <c r="HT1" s="5"/>
+      <c r="HU1" s="5"/>
+      <c r="HV1" s="5"/>
+      <c r="HW1" s="5"/>
+      <c r="HX1" s="5"/>
+      <c r="HY1" s="5"/>
+      <c r="HZ1" s="5"/>
+      <c r="IA1" s="5"/>
+      <c r="IB1" s="5"/>
+      <c r="IC1" s="5"/>
+      <c r="ID1" s="5"/>
+      <c r="IE1" s="5"/>
+      <c r="IF1" s="5"/>
+      <c r="IG1" s="5"/>
+      <c r="IH1" s="5"/>
+      <c r="II1" s="5"/>
+      <c r="IJ1" s="5"/>
+      <c r="IK1" s="5"/>
+      <c r="IL1" s="5"/>
+      <c r="IM1" s="5"/>
+      <c r="IN1" s="5"/>
+      <c r="IO1" s="5"/>
+      <c r="IP1" s="5"/>
+      <c r="IQ1" s="5"/>
+      <c r="IR1" s="5"/>
+      <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
+      <c r="IU1" s="5"/>
+      <c r="IV1" s="5"/>
+      <c r="IW1" s="5"/>
+      <c r="IX1" s="5"/>
+      <c r="IY1" s="5"/>
+      <c r="IZ1" s="5"/>
+      <c r="JA1" s="5"/>
+      <c r="JB1" s="5"/>
+      <c r="JC1" s="5"/>
+      <c r="JD1" s="5"/>
+      <c r="JE1" s="5"/>
+      <c r="JF1" s="5"/>
+      <c r="JG1" s="5"/>
+      <c r="JH1" s="5"/>
+      <c r="JI1" s="5"/>
+      <c r="JJ1" s="5"/>
+      <c r="JK1" s="5"/>
+      <c r="JL1" s="5"/>
+      <c r="JM1" s="5"/>
+      <c r="JN1" s="5"/>
+      <c r="JO1" s="5"/>
+      <c r="JP1" s="5"/>
+      <c r="JQ1" s="5"/>
+      <c r="JR1" s="5"/>
+      <c r="JS1" s="5"/>
+      <c r="JT1" s="5"/>
+      <c r="JU1" s="5"/>
+      <c r="JV1" s="5"/>
+      <c r="JW1" s="5"/>
+      <c r="JX1" s="5"/>
+      <c r="JY1" s="5"/>
+      <c r="JZ1" s="5"/>
+      <c r="KA1" s="5"/>
+      <c r="KB1" s="5"/>
+      <c r="KC1" s="5"/>
+      <c r="KD1" s="5"/>
+      <c r="KE1" s="5"/>
+      <c r="KF1" s="5"/>
+      <c r="KG1" s="5"/>
+      <c r="KH1" s="5"/>
+      <c r="KI1" s="5"/>
+      <c r="KJ1" s="5"/>
+      <c r="KK1" s="5"/>
+      <c r="KL1" s="5"/>
+      <c r="KM1" s="5"/>
+      <c r="KN1" s="5"/>
+      <c r="KO1" s="5"/>
+      <c r="KP1" s="5"/>
+      <c r="KQ1" s="5"/>
+      <c r="KR1" s="5"/>
+      <c r="KS1" s="5"/>
+      <c r="KT1" s="5"/>
+      <c r="KU1" s="5"/>
+      <c r="KV1" s="5"/>
+      <c r="KW1" s="5"/>
+      <c r="KX1" s="5"/>
+      <c r="KY1" s="5"/>
+      <c r="KZ1" s="5"/>
+      <c r="LA1" s="5"/>
+      <c r="LB1" s="5"/>
+      <c r="LC1" s="5"/>
+      <c r="LD1" s="5"/>
+      <c r="LE1" s="5"/>
+      <c r="LF1" s="5"/>
+      <c r="LG1" s="5"/>
+      <c r="LH1" s="5"/>
+      <c r="LI1" s="5"/>
+      <c r="LJ1" s="5"/>
+      <c r="LK1" s="5"/>
+      <c r="LL1" s="5"/>
+      <c r="LM1" s="5"/>
+      <c r="LN1" s="5"/>
+      <c r="LO1" s="5"/>
+      <c r="LP1" s="5"/>
+      <c r="LQ1" s="5"/>
+      <c r="LR1" s="5"/>
+      <c r="LS1" s="5"/>
+      <c r="LT1" s="5"/>
+      <c r="LU1" s="5"/>
+      <c r="LV1" s="5"/>
+      <c r="LW1" s="5"/>
+      <c r="LX1" s="5"/>
+      <c r="LY1" s="5"/>
+      <c r="LZ1" s="5"/>
+      <c r="MA1" s="5"/>
+      <c r="MB1" s="5"/>
+      <c r="MC1" s="5"/>
+      <c r="MD1" s="5"/>
+      <c r="ME1" s="5"/>
+      <c r="MF1" s="5"/>
+      <c r="MG1" s="5"/>
+      <c r="MH1" s="5"/>
+      <c r="MI1" s="5"/>
+      <c r="MJ1" s="5"/>
+      <c r="MK1" s="5"/>
+      <c r="ML1" s="5"/>
+      <c r="MM1" s="5"/>
+      <c r="MN1" s="5"/>
+      <c r="MO1" s="5"/>
+      <c r="MP1" s="5"/>
+      <c r="MQ1" s="5"/>
+      <c r="MR1" s="5"/>
+      <c r="MS1" s="5"/>
+      <c r="MT1" s="5"/>
+      <c r="MU1" s="5"/>
+      <c r="MV1" s="5"/>
+      <c r="MW1" s="5"/>
+      <c r="MX1" s="5"/>
+      <c r="MY1" s="5"/>
+      <c r="MZ1" s="5"/>
+      <c r="NA1" s="5"/>
+      <c r="NB1" s="5"/>
+      <c r="NC1" s="5"/>
+      <c r="ND1" s="5"/>
+      <c r="NE1" s="5"/>
+      <c r="NF1" s="5"/>
+      <c r="NG1" s="5"/>
+      <c r="NH1" s="5"/>
+      <c r="NI1" s="5"/>
+      <c r="NJ1" s="5"/>
+      <c r="NK1" s="5"/>
+      <c r="NL1" s="5"/>
+      <c r="NM1" s="5"/>
+      <c r="NN1" s="5"/>
+      <c r="NO1" s="5"/>
+      <c r="NP1" s="5"/>
+      <c r="NQ1" s="5"/>
+      <c r="NR1" s="5"/>
+      <c r="NS1" s="5"/>
+      <c r="NT1" s="5"/>
+      <c r="NU1" s="5"/>
+      <c r="NV1" s="5"/>
+      <c r="NW1" s="5"/>
+      <c r="NX1" s="5"/>
+      <c r="NY1" s="5"/>
+      <c r="NZ1" s="5"/>
+      <c r="OA1" s="5"/>
+      <c r="OB1" s="5"/>
+      <c r="OC1" s="5"/>
+      <c r="OD1" s="5"/>
+      <c r="OE1" s="5"/>
+      <c r="OF1" s="5"/>
+      <c r="OG1" s="5"/>
+      <c r="OH1" s="5"/>
+      <c r="OI1" s="5"/>
+      <c r="OJ1" s="5"/>
+      <c r="OK1" s="5"/>
+      <c r="OL1" s="5"/>
+      <c r="OM1" s="5"/>
+      <c r="ON1" s="5"/>
+      <c r="OO1" s="5"/>
+      <c r="OP1" s="5"/>
+      <c r="OQ1" s="5"/>
+      <c r="OR1" s="5"/>
+      <c r="OS1" s="5"/>
+      <c r="OT1" s="5"/>
+      <c r="OU1" s="5"/>
+      <c r="OV1" s="5"/>
+      <c r="OW1" s="5"/>
+      <c r="OX1" s="5"/>
+      <c r="OY1" s="5"/>
+      <c r="OZ1" s="5"/>
+      <c r="PA1" s="5"/>
+      <c r="PB1" s="5"/>
+      <c r="PC1" s="5"/>
+      <c r="PD1" s="5"/>
+      <c r="PE1" s="5"/>
+      <c r="PF1" s="5"/>
+      <c r="PG1" s="5"/>
+      <c r="PH1" s="5"/>
+      <c r="PI1" s="5"/>
+      <c r="PJ1" s="5"/>
+      <c r="PK1" s="5"/>
+      <c r="PL1" s="5"/>
+      <c r="PM1" s="5"/>
+      <c r="PN1" s="5"/>
+      <c r="PO1" s="5"/>
+      <c r="PP1" s="5"/>
+      <c r="PQ1" s="5"/>
+      <c r="PR1" s="5"/>
+      <c r="PS1" s="5"/>
+      <c r="PT1" s="5"/>
+      <c r="PU1" s="5"/>
+      <c r="PV1" s="5"/>
+      <c r="PW1" s="5"/>
+      <c r="PX1" s="5"/>
+      <c r="PY1" s="5"/>
+      <c r="PZ1" s="5"/>
+      <c r="QA1" s="5"/>
+      <c r="QB1" s="5"/>
+      <c r="QC1" s="5"/>
+      <c r="QD1" s="5"/>
+      <c r="QE1" s="5"/>
+      <c r="QF1" s="5"/>
+      <c r="QG1" s="5"/>
+      <c r="QH1" s="5"/>
+      <c r="QI1" s="5"/>
+      <c r="QJ1" s="5"/>
+      <c r="QK1" s="5"/>
+      <c r="QL1" s="5"/>
+      <c r="QM1" s="5"/>
+      <c r="QN1" s="5"/>
+      <c r="QO1" s="5"/>
+      <c r="QP1" s="5"/>
+      <c r="QQ1" s="5"/>
+      <c r="QR1" s="5"/>
+      <c r="QS1" s="5"/>
+      <c r="QT1" s="5"/>
+      <c r="QU1" s="5"/>
+      <c r="QV1" s="5"/>
+      <c r="QW1" s="5"/>
+      <c r="QX1" s="5"/>
+      <c r="QY1" s="5"/>
+      <c r="QZ1" s="5"/>
+      <c r="RA1" s="5"/>
+      <c r="RB1" s="5"/>
+      <c r="RC1" s="5"/>
+      <c r="RD1" s="5"/>
+      <c r="RE1" s="5"/>
+      <c r="RF1" s="5"/>
+      <c r="RG1" s="5"/>
+      <c r="RH1" s="5"/>
+      <c r="RI1" s="5"/>
+      <c r="RJ1" s="5"/>
+      <c r="RK1" s="5"/>
+      <c r="RL1" s="5"/>
+      <c r="RM1" s="5"/>
+      <c r="RN1" s="5"/>
+      <c r="RO1" s="5"/>
+      <c r="RP1" s="5"/>
+      <c r="RQ1" s="5"/>
+      <c r="RR1" s="5"/>
+      <c r="RS1" s="5"/>
+      <c r="RT1" s="5"/>
+      <c r="RU1" s="5"/>
+      <c r="RV1" s="5"/>
+      <c r="RW1" s="5"/>
+      <c r="RX1" s="5"/>
+      <c r="RY1" s="5"/>
+      <c r="RZ1" s="5"/>
+      <c r="SA1" s="5"/>
+      <c r="SB1" s="5"/>
+      <c r="SC1" s="5"/>
+      <c r="SD1" s="5"/>
+      <c r="SE1" s="5"/>
+      <c r="SF1" s="5"/>
+      <c r="SG1" s="5"/>
+      <c r="SH1" s="5"/>
+      <c r="SI1" s="5"/>
+      <c r="SJ1" s="5"/>
+      <c r="SK1" s="5"/>
+      <c r="SL1" s="5"/>
+      <c r="SM1" s="5"/>
+      <c r="SN1" s="5"/>
+      <c r="SO1" s="5"/>
+      <c r="SP1" s="5"/>
+      <c r="SQ1" s="5"/>
+      <c r="SR1" s="5"/>
+      <c r="SS1" s="5"/>
+      <c r="ST1" s="5"/>
+      <c r="SU1" s="5"/>
+      <c r="SV1" s="5"/>
+      <c r="SW1" s="5"/>
+      <c r="SX1" s="5"/>
+      <c r="SY1" s="5"/>
+      <c r="SZ1" s="5"/>
+      <c r="TA1" s="5"/>
+      <c r="TB1" s="5"/>
+      <c r="TC1" s="5"/>
+      <c r="TD1" s="5"/>
+      <c r="TE1" s="5"/>
+      <c r="TF1" s="5"/>
+      <c r="TG1" s="5"/>
+      <c r="TH1" s="5"/>
+      <c r="TI1" s="5"/>
+      <c r="TJ1" s="5"/>
+      <c r="TK1" s="5"/>
+      <c r="TL1" s="5"/>
+      <c r="TM1" s="5"/>
+      <c r="TN1" s="5"/>
+      <c r="TO1" s="5"/>
+      <c r="TP1" s="5"/>
+      <c r="TQ1" s="5"/>
+      <c r="TR1" s="5"/>
+      <c r="TS1" s="5"/>
+      <c r="TT1" s="5"/>
+      <c r="TU1" s="5"/>
+      <c r="TV1" s="5"/>
+      <c r="TW1" s="5"/>
+      <c r="TX1" s="5"/>
+      <c r="TY1" s="5"/>
+      <c r="TZ1" s="5"/>
+      <c r="UA1" s="5"/>
+      <c r="UB1" s="5"/>
+      <c r="UC1" s="5"/>
+      <c r="UD1" s="5"/>
+      <c r="UE1" s="5"/>
+      <c r="UF1" s="5"/>
+      <c r="UG1" s="5"/>
+      <c r="UH1" s="5"/>
+      <c r="UI1" s="5"/>
+      <c r="UJ1" s="5"/>
+      <c r="UK1" s="5"/>
+      <c r="UL1" s="5"/>
+      <c r="UM1" s="5"/>
+      <c r="UN1" s="5"/>
+      <c r="UO1" s="5"/>
+      <c r="UP1" s="5"/>
+      <c r="UQ1" s="5"/>
+      <c r="UR1" s="5"/>
+      <c r="US1" s="5"/>
+      <c r="UT1" s="5"/>
+      <c r="UU1" s="5"/>
+      <c r="UV1" s="5"/>
+      <c r="UW1" s="5"/>
+      <c r="UX1" s="5"/>
+      <c r="UY1" s="5"/>
+      <c r="UZ1" s="5"/>
+      <c r="VA1" s="5"/>
+      <c r="VB1" s="5"/>
+      <c r="VC1" s="5"/>
+      <c r="VD1" s="5"/>
+      <c r="VE1" s="5"/>
+      <c r="VF1" s="5"/>
+      <c r="VG1" s="5"/>
+      <c r="VH1" s="5"/>
+      <c r="VI1" s="5"/>
+      <c r="VJ1" s="5"/>
+      <c r="VK1" s="5"/>
+      <c r="VL1" s="5"/>
+      <c r="VM1" s="5"/>
+      <c r="VN1" s="5"/>
+      <c r="VO1" s="5"/>
+      <c r="VP1" s="5"/>
+      <c r="VQ1" s="5"/>
+      <c r="VR1" s="5"/>
+      <c r="VS1" s="5"/>
+      <c r="VT1" s="5"/>
+      <c r="VU1" s="5"/>
+      <c r="VV1" s="5"/>
+      <c r="VW1" s="5"/>
+      <c r="VX1" s="5"/>
+      <c r="VY1" s="5"/>
+      <c r="VZ1" s="5"/>
+      <c r="WA1" s="5"/>
+      <c r="WB1" s="5"/>
+      <c r="WC1" s="5"/>
+      <c r="WD1" s="5"/>
+      <c r="WE1" s="5"/>
+      <c r="WF1" s="5"/>
+      <c r="WG1" s="5"/>
+      <c r="WH1" s="5"/>
+      <c r="WI1" s="5"/>
+      <c r="WJ1" s="5"/>
+      <c r="WK1" s="5"/>
+      <c r="WL1" s="5"/>
+      <c r="WM1" s="5"/>
+      <c r="WN1" s="5"/>
+      <c r="WO1" s="5"/>
+      <c r="WP1" s="5"/>
+      <c r="WQ1" s="5"/>
+      <c r="WR1" s="5"/>
+      <c r="WS1" s="5"/>
+      <c r="WT1" s="5"/>
+      <c r="WU1" s="5"/>
+      <c r="WV1" s="5"/>
+      <c r="WW1" s="5"/>
+      <c r="WX1" s="5"/>
+      <c r="WY1" s="5"/>
+      <c r="WZ1" s="5"/>
+      <c r="XA1" s="5"/>
+      <c r="XB1" s="5"/>
+      <c r="XC1" s="5"/>
+      <c r="XD1" s="5"/>
+      <c r="XE1" s="5"/>
+      <c r="XF1" s="5"/>
+      <c r="XG1" s="5"/>
+      <c r="XH1" s="5"/>
+      <c r="XI1" s="5"/>
+      <c r="XJ1" s="5"/>
+      <c r="XK1" s="5"/>
+      <c r="XL1" s="5"/>
+      <c r="XM1" s="5"/>
+      <c r="XN1" s="5"/>
+      <c r="XO1" s="5"/>
+      <c r="XP1" s="5"/>
+      <c r="XQ1" s="5"/>
+      <c r="XR1" s="5"/>
+      <c r="XS1" s="5"/>
+      <c r="XT1" s="5"/>
+      <c r="XU1" s="5"/>
+      <c r="XV1" s="5"/>
+      <c r="XW1" s="5"/>
+      <c r="XX1" s="5"/>
+      <c r="XY1" s="5"/>
+      <c r="XZ1" s="5"/>
+      <c r="YA1" s="5"/>
+      <c r="YB1" s="5"/>
+      <c r="YC1" s="5"/>
+      <c r="YD1" s="5"/>
+      <c r="YE1" s="5"/>
+      <c r="YF1" s="5"/>
+      <c r="YG1" s="5"/>
+      <c r="YH1" s="5"/>
+      <c r="YI1" s="5"/>
+      <c r="YJ1" s="5"/>
+      <c r="YK1" s="5"/>
+      <c r="YL1" s="5"/>
+      <c r="YM1" s="5"/>
+      <c r="YN1" s="5"/>
+      <c r="YO1" s="5"/>
+      <c r="YP1" s="5"/>
+      <c r="YQ1" s="5"/>
+      <c r="YR1" s="5"/>
+      <c r="YS1" s="5"/>
+      <c r="YT1" s="5"/>
+      <c r="YU1" s="5"/>
+      <c r="YV1" s="5"/>
+      <c r="YW1" s="5"/>
+      <c r="YX1" s="5"/>
+      <c r="YY1" s="5"/>
+      <c r="YZ1" s="5"/>
+      <c r="ZA1" s="5"/>
+      <c r="ZB1" s="5"/>
+      <c r="ZC1" s="5"/>
+      <c r="ZD1" s="5"/>
+      <c r="ZE1" s="5"/>
+      <c r="ZF1" s="5"/>
+      <c r="ZG1" s="5"/>
+      <c r="ZH1" s="5"/>
+      <c r="ZI1" s="5"/>
+      <c r="ZJ1" s="5"/>
+      <c r="ZK1" s="5"/>
+      <c r="ZL1" s="5"/>
+      <c r="ZM1" s="5"/>
+      <c r="ZN1" s="5"/>
+      <c r="ZO1" s="5"/>
+      <c r="ZP1" s="5"/>
+      <c r="ZQ1" s="5"/>
+      <c r="ZR1" s="5"/>
+      <c r="ZS1" s="5"/>
+      <c r="ZT1" s="5"/>
+      <c r="ZU1" s="5"/>
+      <c r="ZV1" s="5"/>
+      <c r="ZW1" s="5"/>
+      <c r="ZX1" s="5"/>
+      <c r="ZY1" s="5"/>
+      <c r="ZZ1" s="5"/>
+      <c r="AAA1" s="5"/>
+      <c r="AAB1" s="5"/>
+      <c r="AAC1" s="5"/>
+      <c r="AAD1" s="5"/>
+      <c r="AAE1" s="5"/>
+      <c r="AAF1" s="5"/>
+      <c r="AAG1" s="5"/>
+      <c r="AAH1" s="5"/>
+      <c r="AAI1" s="5"/>
+      <c r="AAJ1" s="5"/>
+      <c r="AAK1" s="5"/>
+      <c r="AAL1" s="5"/>
+      <c r="AAM1" s="5"/>
+      <c r="AAN1" s="5"/>
+      <c r="AAO1" s="5"/>
+      <c r="AAP1" s="5"/>
+      <c r="AAQ1" s="5"/>
+      <c r="AAR1" s="5"/>
+      <c r="AAS1" s="5"/>
+      <c r="AAT1" s="5"/>
+      <c r="AAU1" s="5"/>
+      <c r="AAV1" s="5"/>
+      <c r="AAW1" s="5"/>
+      <c r="AAX1" s="5"/>
+      <c r="AAY1" s="5"/>
+      <c r="AAZ1" s="5"/>
+      <c r="ABA1" s="5"/>
+      <c r="ABB1" s="5"/>
+      <c r="ABC1" s="5"/>
+      <c r="ABD1" s="5"/>
+      <c r="ABE1" s="5"/>
+      <c r="ABF1" s="5"/>
+      <c r="ABG1" s="5"/>
+      <c r="ABH1" s="5"/>
+      <c r="ABI1" s="5"/>
+      <c r="ABJ1" s="5"/>
+      <c r="ABK1" s="5"/>
+      <c r="ABL1" s="5"/>
+      <c r="ABM1" s="5"/>
+      <c r="ABN1" s="5"/>
+      <c r="ABO1" s="5"/>
+      <c r="ABP1" s="5"/>
+      <c r="ABQ1" s="5"/>
+      <c r="ABR1" s="5"/>
+      <c r="ABS1" s="5"/>
+      <c r="ABT1" s="5"/>
+      <c r="ABU1" s="5"/>
+      <c r="ABV1" s="5"/>
+      <c r="ABW1" s="5"/>
+      <c r="ABX1" s="5"/>
+      <c r="ABY1" s="5"/>
+      <c r="ABZ1" s="5"/>
+      <c r="ACA1" s="5"/>
+      <c r="ACB1" s="5"/>
+      <c r="ACC1" s="5"/>
+      <c r="ACD1" s="5"/>
+      <c r="ACE1" s="5"/>
+      <c r="ACF1" s="5"/>
+      <c r="ACG1" s="5"/>
+      <c r="ACH1" s="5"/>
+      <c r="ACI1" s="5"/>
+      <c r="ACJ1" s="5"/>
+      <c r="ACK1" s="5"/>
+      <c r="ACL1" s="5"/>
+      <c r="ACM1" s="5"/>
+      <c r="ACN1" s="5"/>
+      <c r="ACO1" s="5"/>
+      <c r="ACP1" s="5"/>
+      <c r="ACQ1" s="5"/>
+      <c r="ACR1" s="5"/>
+      <c r="ACS1" s="5"/>
+      <c r="ACT1" s="5"/>
+      <c r="ACU1" s="5"/>
+      <c r="ACV1" s="5"/>
+      <c r="ACW1" s="5"/>
+      <c r="ACX1" s="5"/>
+      <c r="ACY1" s="5"/>
+      <c r="ACZ1" s="5"/>
+      <c r="ADA1" s="5"/>
+      <c r="ADB1" s="5"/>
+      <c r="ADC1" s="5"/>
+      <c r="ADD1" s="5"/>
+      <c r="ADE1" s="5"/>
+      <c r="ADF1" s="5"/>
+      <c r="ADG1" s="5"/>
+      <c r="ADH1" s="5"/>
+      <c r="ADI1" s="5"/>
+      <c r="ADJ1" s="5"/>
+      <c r="ADK1" s="5"/>
+      <c r="ADL1" s="5"/>
+      <c r="ADM1" s="5"/>
+      <c r="ADN1" s="5"/>
+      <c r="ADO1" s="5"/>
+      <c r="ADP1" s="5"/>
+      <c r="ADQ1" s="5"/>
+      <c r="ADR1" s="5"/>
+      <c r="ADS1" s="5"/>
+      <c r="ADT1" s="5"/>
+      <c r="ADU1" s="5"/>
+      <c r="ADV1" s="5"/>
+      <c r="ADW1" s="5"/>
+      <c r="ADX1" s="5"/>
+      <c r="ADY1" s="5"/>
+      <c r="ADZ1" s="5"/>
+      <c r="AEA1" s="5"/>
+      <c r="AEB1" s="5"/>
+      <c r="AEC1" s="5"/>
+      <c r="AED1" s="5"/>
+      <c r="AEE1" s="5"/>
+      <c r="AEF1" s="5"/>
+      <c r="AEG1" s="5"/>
+      <c r="AEH1" s="5"/>
+      <c r="AEI1" s="5"/>
+      <c r="AEJ1" s="5"/>
+      <c r="AEK1" s="5"/>
+      <c r="AEL1" s="5"/>
+      <c r="AEM1" s="5"/>
+      <c r="AEN1" s="5"/>
+      <c r="AEO1" s="5"/>
+      <c r="AEP1" s="5"/>
+      <c r="AEQ1" s="5"/>
+      <c r="AER1" s="5"/>
+      <c r="AES1" s="5"/>
+      <c r="AET1" s="5"/>
+      <c r="AEU1" s="5"/>
+      <c r="AEV1" s="5"/>
+      <c r="AEW1" s="5"/>
+      <c r="AEX1" s="5"/>
+      <c r="AEY1" s="5"/>
+      <c r="AEZ1" s="5"/>
+      <c r="AFA1" s="5"/>
+      <c r="AFB1" s="5"/>
+      <c r="AFC1" s="5"/>
+      <c r="AFD1" s="5"/>
+      <c r="AFE1" s="5"/>
+      <c r="AFF1" s="5"/>
+      <c r="AFG1" s="5"/>
+      <c r="AFH1" s="5"/>
+      <c r="AFI1" s="5"/>
+      <c r="AFJ1" s="5"/>
+      <c r="AFK1" s="5"/>
+      <c r="AFL1" s="5"/>
+      <c r="AFM1" s="5"/>
+      <c r="AFN1" s="5"/>
+      <c r="AFO1" s="5"/>
+      <c r="AFP1" s="5"/>
+      <c r="AFQ1" s="5"/>
+      <c r="AFR1" s="5"/>
+      <c r="AFS1" s="5"/>
+      <c r="AFT1" s="5"/>
+      <c r="AFU1" s="5"/>
+      <c r="AFV1" s="5"/>
+      <c r="AFW1" s="5"/>
+      <c r="AFX1" s="5"/>
+      <c r="AFY1" s="5"/>
+      <c r="AFZ1" s="5"/>
+      <c r="AGA1" s="5"/>
+      <c r="AGB1" s="5"/>
+      <c r="AGC1" s="5"/>
+      <c r="AGD1" s="5"/>
+      <c r="AGE1" s="5"/>
+      <c r="AGF1" s="5"/>
+      <c r="AGG1" s="5"/>
+      <c r="AGH1" s="5"/>
+      <c r="AGI1" s="5"/>
+      <c r="AGJ1" s="5"/>
+      <c r="AGK1" s="5"/>
+      <c r="AGL1" s="5"/>
+      <c r="AGM1" s="5"/>
+      <c r="AGN1" s="5"/>
+      <c r="AGO1" s="5"/>
+      <c r="AGP1" s="5"/>
+      <c r="AGQ1" s="5"/>
+      <c r="AGR1" s="5"/>
+      <c r="AGS1" s="5"/>
+      <c r="AGT1" s="5"/>
+      <c r="AGU1" s="5"/>
+      <c r="AGV1" s="5"/>
+      <c r="AGW1" s="5"/>
+      <c r="AGX1" s="5"/>
+      <c r="AGY1" s="5"/>
+      <c r="AGZ1" s="5"/>
+      <c r="AHA1" s="5"/>
+      <c r="AHB1" s="5"/>
+      <c r="AHC1" s="5"/>
+      <c r="AHD1" s="5"/>
+      <c r="AHE1" s="5"/>
+      <c r="AHF1" s="5"/>
+      <c r="AHG1" s="5"/>
+      <c r="AHH1" s="5"/>
+      <c r="AHI1" s="5"/>
+      <c r="AHJ1" s="5"/>
+      <c r="AHK1" s="5"/>
+      <c r="AHL1" s="5"/>
+      <c r="AHM1" s="5"/>
+      <c r="AHN1" s="5"/>
+      <c r="AHO1" s="5"/>
+      <c r="AHP1" s="5"/>
+      <c r="AHQ1" s="5"/>
+      <c r="AHR1" s="5"/>
+      <c r="AHS1" s="5"/>
+      <c r="AHT1" s="5"/>
+      <c r="AHU1" s="5"/>
+      <c r="AHV1" s="5"/>
+      <c r="AHW1" s="5"/>
+      <c r="AHX1" s="5"/>
+      <c r="AHY1" s="5"/>
+      <c r="AHZ1" s="5"/>
+      <c r="AIA1" s="5"/>
+      <c r="AIB1" s="5"/>
+      <c r="AIC1" s="5"/>
+      <c r="AID1" s="5"/>
+      <c r="AIE1" s="5"/>
+      <c r="AIF1" s="5"/>
+      <c r="AIG1" s="5"/>
+      <c r="AIH1" s="5"/>
+      <c r="AII1" s="5"/>
+      <c r="AIJ1" s="5"/>
+      <c r="AIK1" s="5"/>
+      <c r="AIL1" s="5"/>
+      <c r="AIM1" s="5"/>
+      <c r="AIN1" s="5"/>
+      <c r="AIO1" s="5"/>
+      <c r="AIP1" s="5"/>
+      <c r="AIQ1" s="5"/>
+      <c r="AIR1" s="5"/>
+      <c r="AIS1" s="5"/>
+      <c r="AIT1" s="5"/>
+      <c r="AIU1" s="5"/>
+      <c r="AIV1" s="5"/>
+      <c r="AIW1" s="5"/>
+      <c r="AIX1" s="5"/>
+      <c r="AIY1" s="5"/>
+      <c r="AIZ1" s="5"/>
+      <c r="AJA1" s="5"/>
+      <c r="AJB1" s="5"/>
+      <c r="AJC1" s="5"/>
+      <c r="AJD1" s="5"/>
+      <c r="AJE1" s="5"/>
+      <c r="AJF1" s="5"/>
+      <c r="AJG1" s="5"/>
+      <c r="AJH1" s="5"/>
+      <c r="AJI1" s="5"/>
+      <c r="AJJ1" s="5"/>
+      <c r="AJK1" s="5"/>
+      <c r="AJL1" s="5"/>
+      <c r="AJM1" s="5"/>
+      <c r="AJN1" s="5"/>
+      <c r="AJO1" s="5"/>
+      <c r="AJP1" s="5"/>
+      <c r="AJQ1" s="5"/>
+      <c r="AJR1" s="5"/>
+      <c r="AJS1" s="5"/>
+      <c r="AJT1" s="5"/>
+      <c r="AJU1" s="5"/>
+      <c r="AJV1" s="5"/>
+      <c r="AJW1" s="5"/>
+      <c r="AJX1" s="5"/>
+      <c r="AJY1" s="5"/>
+      <c r="AJZ1" s="5"/>
+      <c r="AKA1" s="5"/>
+      <c r="AKB1" s="5"/>
+      <c r="AKC1" s="5"/>
+      <c r="AKD1" s="5"/>
+      <c r="AKE1" s="5"/>
+      <c r="AKF1" s="5"/>
+      <c r="AKG1" s="5"/>
+      <c r="AKH1" s="5"/>
+      <c r="AKI1" s="5"/>
+      <c r="AKJ1" s="5"/>
+      <c r="AKK1" s="5"/>
+      <c r="AKL1" s="5"/>
+      <c r="AKM1" s="5"/>
+      <c r="AKN1" s="5"/>
+      <c r="AKO1" s="5"/>
+      <c r="AKP1" s="5"/>
+      <c r="AKQ1" s="5"/>
+      <c r="AKR1" s="5"/>
+      <c r="AKS1" s="5"/>
+      <c r="AKT1" s="5"/>
+      <c r="AKU1" s="5"/>
+      <c r="AKV1" s="5"/>
+      <c r="AKW1" s="5"/>
+      <c r="AKX1" s="5"/>
+      <c r="AKY1" s="5"/>
+      <c r="AKZ1" s="5"/>
+      <c r="ALA1" s="5"/>
+      <c r="ALB1" s="5"/>
+      <c r="ALC1" s="5"/>
+      <c r="ALD1" s="5"/>
+      <c r="ALE1" s="5"/>
+      <c r="ALF1" s="5"/>
+      <c r="ALG1" s="5"/>
+      <c r="ALH1" s="5"/>
+      <c r="ALI1" s="5"/>
+      <c r="ALJ1" s="5"/>
+      <c r="ALK1" s="5"/>
+      <c r="ALL1" s="5"/>
+      <c r="ALM1" s="5"/>
+      <c r="ALN1" s="5"/>
+      <c r="ALO1" s="5"/>
+      <c r="ALP1" s="5"/>
+      <c r="ALQ1" s="5"/>
+      <c r="ALR1" s="5"/>
+      <c r="ALS1" s="5"/>
+      <c r="ALT1" s="5"/>
+      <c r="ALU1" s="5"/>
+      <c r="ALV1" s="5"/>
+      <c r="ALW1" s="5"/>
+      <c r="ALX1" s="5"/>
+      <c r="ALY1" s="5"/>
+      <c r="ALZ1" s="5"/>
+      <c r="AMA1" s="5"/>
+      <c r="AMB1" s="5"/>
+      <c r="AMC1" s="5"/>
+      <c r="AMD1" s="5"/>
+      <c r="AME1" s="5"/>
+      <c r="AMF1" s="5"/>
+      <c r="AMG1" s="5"/>
+      <c r="AMH1" s="5"/>
+    </row>
+    <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="5"/>
+      <c r="BE2" s="5"/>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
+      <c r="BT2" s="5"/>
+      <c r="BU2" s="5"/>
+      <c r="BV2" s="5"/>
+      <c r="BW2" s="5"/>
+      <c r="BX2" s="5"/>
+      <c r="BY2" s="5"/>
+      <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
+      <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CL2" s="5"/>
+      <c r="CM2" s="5"/>
+      <c r="CN2" s="5"/>
+      <c r="CO2" s="5"/>
+      <c r="CP2" s="5"/>
+      <c r="CQ2" s="5"/>
+      <c r="CR2" s="5"/>
+      <c r="CS2" s="5"/>
+      <c r="CT2" s="5"/>
+      <c r="CU2" s="5"/>
+      <c r="CV2" s="5"/>
+      <c r="CW2" s="5"/>
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
+      <c r="DF2" s="5"/>
+      <c r="DG2" s="5"/>
+      <c r="DH2" s="5"/>
+      <c r="DI2" s="5"/>
+      <c r="DJ2" s="5"/>
+      <c r="DK2" s="5"/>
+      <c r="DL2" s="5"/>
+      <c r="DM2" s="5"/>
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5"/>
+      <c r="DP2" s="5"/>
+      <c r="DQ2" s="5"/>
+      <c r="DR2" s="5"/>
+      <c r="DS2" s="5"/>
+      <c r="DT2" s="5"/>
+      <c r="DU2" s="5"/>
+      <c r="DV2" s="5"/>
+      <c r="DW2" s="5"/>
+      <c r="DX2" s="5"/>
+      <c r="DY2" s="5"/>
+      <c r="DZ2" s="5"/>
+      <c r="EA2" s="5"/>
+      <c r="EB2" s="5"/>
+      <c r="EC2" s="5"/>
+      <c r="ED2" s="5"/>
+      <c r="EE2" s="5"/>
+      <c r="EF2" s="5"/>
+      <c r="EG2" s="5"/>
+      <c r="EH2" s="5"/>
+      <c r="EI2" s="5"/>
+      <c r="EJ2" s="5"/>
+      <c r="EK2" s="5"/>
+      <c r="EL2" s="5"/>
+      <c r="EM2" s="5"/>
+      <c r="EN2" s="5"/>
+      <c r="EO2" s="5"/>
+      <c r="EP2" s="5"/>
+      <c r="EQ2" s="5"/>
+      <c r="ER2" s="5"/>
+      <c r="ES2" s="5"/>
+      <c r="ET2" s="5"/>
+      <c r="EU2" s="5"/>
+      <c r="EV2" s="5"/>
+      <c r="EW2" s="5"/>
+      <c r="EX2" s="5"/>
+      <c r="EY2" s="5"/>
+      <c r="EZ2" s="5"/>
+      <c r="FA2" s="5"/>
+      <c r="FB2" s="5"/>
+      <c r="FC2" s="5"/>
+      <c r="FD2" s="5"/>
+      <c r="FE2" s="5"/>
+      <c r="FF2" s="5"/>
+      <c r="FG2" s="5"/>
+      <c r="FH2" s="5"/>
+      <c r="FI2" s="5"/>
+      <c r="FJ2" s="5"/>
+      <c r="FK2" s="5"/>
+      <c r="FL2" s="5"/>
+      <c r="FM2" s="5"/>
+      <c r="FN2" s="5"/>
+      <c r="FO2" s="5"/>
+      <c r="FP2" s="5"/>
+      <c r="FQ2" s="5"/>
+      <c r="FR2" s="5"/>
+      <c r="FS2" s="5"/>
+      <c r="FT2" s="5"/>
+      <c r="FU2" s="5"/>
+      <c r="FV2" s="5"/>
+      <c r="FW2" s="5"/>
+      <c r="FX2" s="5"/>
+      <c r="FY2" s="5"/>
+      <c r="FZ2" s="5"/>
+      <c r="GA2" s="5"/>
+      <c r="GB2" s="5"/>
+      <c r="GC2" s="5"/>
+      <c r="GD2" s="5"/>
+      <c r="GE2" s="5"/>
+      <c r="GF2" s="5"/>
+      <c r="GG2" s="5"/>
+      <c r="GH2" s="5"/>
+      <c r="GI2" s="5"/>
+      <c r="GJ2" s="5"/>
+      <c r="GK2" s="5"/>
+      <c r="GL2" s="5"/>
+      <c r="GM2" s="5"/>
+      <c r="GN2" s="5"/>
+      <c r="GO2" s="5"/>
+      <c r="GP2" s="5"/>
+      <c r="GQ2" s="5"/>
+      <c r="GR2" s="5"/>
+      <c r="GS2" s="5"/>
+      <c r="GT2" s="5"/>
+      <c r="GU2" s="5"/>
+      <c r="GV2" s="5"/>
+      <c r="GW2" s="5"/>
+      <c r="GX2" s="5"/>
+      <c r="GY2" s="5"/>
+      <c r="GZ2" s="5"/>
+      <c r="HA2" s="5"/>
+      <c r="HB2" s="5"/>
+      <c r="HC2" s="5"/>
+      <c r="HD2" s="5"/>
+      <c r="HE2" s="5"/>
+      <c r="HF2" s="5"/>
+      <c r="HG2" s="5"/>
+      <c r="HH2" s="5"/>
+      <c r="HI2" s="5"/>
+      <c r="HJ2" s="5"/>
+      <c r="HK2" s="5"/>
+      <c r="HL2" s="5"/>
+      <c r="HM2" s="5"/>
+      <c r="HN2" s="5"/>
+      <c r="HO2" s="5"/>
+      <c r="HP2" s="5"/>
+      <c r="HQ2" s="5"/>
+      <c r="HR2" s="5"/>
+      <c r="HS2" s="5"/>
+      <c r="HT2" s="5"/>
+      <c r="HU2" s="5"/>
+      <c r="HV2" s="5"/>
+      <c r="HW2" s="5"/>
+      <c r="HX2" s="5"/>
+      <c r="HY2" s="5"/>
+      <c r="HZ2" s="5"/>
+      <c r="IA2" s="5"/>
+      <c r="IB2" s="5"/>
+      <c r="IC2" s="5"/>
+      <c r="ID2" s="5"/>
+      <c r="IE2" s="5"/>
+      <c r="IF2" s="5"/>
+      <c r="IG2" s="5"/>
+      <c r="IH2" s="5"/>
+      <c r="II2" s="5"/>
+      <c r="IJ2" s="5"/>
+      <c r="IK2" s="5"/>
+      <c r="IL2" s="5"/>
+      <c r="IM2" s="5"/>
+      <c r="IN2" s="5"/>
+      <c r="IO2" s="5"/>
+      <c r="IP2" s="5"/>
+      <c r="IQ2" s="5"/>
+      <c r="IR2" s="5"/>
+      <c r="IS2" s="5"/>
+      <c r="IT2" s="5"/>
+      <c r="IU2" s="5"/>
+      <c r="IV2" s="5"/>
+      <c r="IW2" s="5"/>
+      <c r="IX2" s="5"/>
+      <c r="IY2" s="5"/>
+      <c r="IZ2" s="5"/>
+      <c r="JA2" s="5"/>
+      <c r="JB2" s="5"/>
+      <c r="JC2" s="5"/>
+      <c r="JD2" s="5"/>
+      <c r="JE2" s="5"/>
+      <c r="JF2" s="5"/>
+      <c r="JG2" s="5"/>
+      <c r="JH2" s="5"/>
+      <c r="JI2" s="5"/>
+      <c r="JJ2" s="5"/>
+      <c r="JK2" s="5"/>
+      <c r="JL2" s="5"/>
+      <c r="JM2" s="5"/>
+      <c r="JN2" s="5"/>
+      <c r="JO2" s="5"/>
+      <c r="JP2" s="5"/>
+      <c r="JQ2" s="5"/>
+      <c r="JR2" s="5"/>
+      <c r="JS2" s="5"/>
+      <c r="JT2" s="5"/>
+      <c r="JU2" s="5"/>
+      <c r="JV2" s="5"/>
+      <c r="JW2" s="5"/>
+      <c r="JX2" s="5"/>
+      <c r="JY2" s="5"/>
+      <c r="JZ2" s="5"/>
+      <c r="KA2" s="5"/>
+      <c r="KB2" s="5"/>
+      <c r="KC2" s="5"/>
+      <c r="KD2" s="5"/>
+      <c r="KE2" s="5"/>
+      <c r="KF2" s="5"/>
+      <c r="KG2" s="5"/>
+      <c r="KH2" s="5"/>
+      <c r="KI2" s="5"/>
+      <c r="KJ2" s="5"/>
+      <c r="KK2" s="5"/>
+      <c r="KL2" s="5"/>
+      <c r="KM2" s="5"/>
+      <c r="KN2" s="5"/>
+      <c r="KO2" s="5"/>
+      <c r="KP2" s="5"/>
+      <c r="KQ2" s="5"/>
+      <c r="KR2" s="5"/>
+      <c r="KS2" s="5"/>
+      <c r="KT2" s="5"/>
+      <c r="KU2" s="5"/>
+      <c r="KV2" s="5"/>
+      <c r="KW2" s="5"/>
+      <c r="KX2" s="5"/>
+      <c r="KY2" s="5"/>
+      <c r="KZ2" s="5"/>
+      <c r="LA2" s="5"/>
+      <c r="LB2" s="5"/>
+      <c r="LC2" s="5"/>
+      <c r="LD2" s="5"/>
+      <c r="LE2" s="5"/>
+      <c r="LF2" s="5"/>
+      <c r="LG2" s="5"/>
+      <c r="LH2" s="5"/>
+      <c r="LI2" s="5"/>
+      <c r="LJ2" s="5"/>
+      <c r="LK2" s="5"/>
+      <c r="LL2" s="5"/>
+      <c r="LM2" s="5"/>
+      <c r="LN2" s="5"/>
+      <c r="LO2" s="5"/>
+      <c r="LP2" s="5"/>
+      <c r="LQ2" s="5"/>
+      <c r="LR2" s="5"/>
+      <c r="LS2" s="5"/>
+      <c r="LT2" s="5"/>
+      <c r="LU2" s="5"/>
+      <c r="LV2" s="5"/>
+      <c r="LW2" s="5"/>
+      <c r="LX2" s="5"/>
+      <c r="LY2" s="5"/>
+      <c r="LZ2" s="5"/>
+      <c r="MA2" s="5"/>
+      <c r="MB2" s="5"/>
+      <c r="MC2" s="5"/>
+      <c r="MD2" s="5"/>
+      <c r="ME2" s="5"/>
+      <c r="MF2" s="5"/>
+      <c r="MG2" s="5"/>
+      <c r="MH2" s="5"/>
+      <c r="MI2" s="5"/>
+      <c r="MJ2" s="5"/>
+      <c r="MK2" s="5"/>
+      <c r="ML2" s="5"/>
+      <c r="MM2" s="5"/>
+      <c r="MN2" s="5"/>
+      <c r="MO2" s="5"/>
+      <c r="MP2" s="5"/>
+      <c r="MQ2" s="5"/>
+      <c r="MR2" s="5"/>
+      <c r="MS2" s="5"/>
+      <c r="MT2" s="5"/>
+      <c r="MU2" s="5"/>
+      <c r="MV2" s="5"/>
+      <c r="MW2" s="5"/>
+      <c r="MX2" s="5"/>
+      <c r="MY2" s="5"/>
+      <c r="MZ2" s="5"/>
+      <c r="NA2" s="5"/>
+      <c r="NB2" s="5"/>
+      <c r="NC2" s="5"/>
+      <c r="ND2" s="5"/>
+      <c r="NE2" s="5"/>
+      <c r="NF2" s="5"/>
+      <c r="NG2" s="5"/>
+      <c r="NH2" s="5"/>
+      <c r="NI2" s="5"/>
+      <c r="NJ2" s="5"/>
+      <c r="NK2" s="5"/>
+      <c r="NL2" s="5"/>
+      <c r="NM2" s="5"/>
+      <c r="NN2" s="5"/>
+      <c r="NO2" s="5"/>
+      <c r="NP2" s="5"/>
+      <c r="NQ2" s="5"/>
+      <c r="NR2" s="5"/>
+      <c r="NS2" s="5"/>
+      <c r="NT2" s="5"/>
+      <c r="NU2" s="5"/>
+      <c r="NV2" s="5"/>
+      <c r="NW2" s="5"/>
+      <c r="NX2" s="5"/>
+      <c r="NY2" s="5"/>
+      <c r="NZ2" s="5"/>
+      <c r="OA2" s="5"/>
+      <c r="OB2" s="5"/>
+      <c r="OC2" s="5"/>
+      <c r="OD2" s="5"/>
+      <c r="OE2" s="5"/>
+      <c r="OF2" s="5"/>
+      <c r="OG2" s="5"/>
+      <c r="OH2" s="5"/>
+      <c r="OI2" s="5"/>
+      <c r="OJ2" s="5"/>
+      <c r="OK2" s="5"/>
+      <c r="OL2" s="5"/>
+      <c r="OM2" s="5"/>
+      <c r="ON2" s="5"/>
+      <c r="OO2" s="5"/>
+      <c r="OP2" s="5"/>
+      <c r="OQ2" s="5"/>
+      <c r="OR2" s="5"/>
+      <c r="OS2" s="5"/>
+      <c r="OT2" s="5"/>
+      <c r="OU2" s="5"/>
+      <c r="OV2" s="5"/>
+      <c r="OW2" s="5"/>
+      <c r="OX2" s="5"/>
+      <c r="OY2" s="5"/>
+      <c r="OZ2" s="5"/>
+      <c r="PA2" s="5"/>
+      <c r="PB2" s="5"/>
+      <c r="PC2" s="5"/>
+      <c r="PD2" s="5"/>
+      <c r="PE2" s="5"/>
+      <c r="PF2" s="5"/>
+      <c r="PG2" s="5"/>
+      <c r="PH2" s="5"/>
+      <c r="PI2" s="5"/>
+      <c r="PJ2" s="5"/>
+      <c r="PK2" s="5"/>
+      <c r="PL2" s="5"/>
+      <c r="PM2" s="5"/>
+      <c r="PN2" s="5"/>
+      <c r="PO2" s="5"/>
+      <c r="PP2" s="5"/>
+      <c r="PQ2" s="5"/>
+      <c r="PR2" s="5"/>
+      <c r="PS2" s="5"/>
+      <c r="PT2" s="5"/>
+      <c r="PU2" s="5"/>
+      <c r="PV2" s="5"/>
+      <c r="PW2" s="5"/>
+      <c r="PX2" s="5"/>
+      <c r="PY2" s="5"/>
+      <c r="PZ2" s="5"/>
+      <c r="QA2" s="5"/>
+      <c r="QB2" s="5"/>
+      <c r="QC2" s="5"/>
+      <c r="QD2" s="5"/>
+      <c r="QE2" s="5"/>
+      <c r="QF2" s="5"/>
+      <c r="QG2" s="5"/>
+      <c r="QH2" s="5"/>
+      <c r="QI2" s="5"/>
+      <c r="QJ2" s="5"/>
+      <c r="QK2" s="5"/>
+      <c r="QL2" s="5"/>
+      <c r="QM2" s="5"/>
+      <c r="QN2" s="5"/>
+      <c r="QO2" s="5"/>
+      <c r="QP2" s="5"/>
+      <c r="QQ2" s="5"/>
+      <c r="QR2" s="5"/>
+      <c r="QS2" s="5"/>
+      <c r="QT2" s="5"/>
+      <c r="QU2" s="5"/>
+      <c r="QV2" s="5"/>
+      <c r="QW2" s="5"/>
+      <c r="QX2" s="5"/>
+      <c r="QY2" s="5"/>
+      <c r="QZ2" s="5"/>
+      <c r="RA2" s="5"/>
+      <c r="RB2" s="5"/>
+      <c r="RC2" s="5"/>
+      <c r="RD2" s="5"/>
+      <c r="RE2" s="5"/>
+      <c r="RF2" s="5"/>
+      <c r="RG2" s="5"/>
+      <c r="RH2" s="5"/>
+      <c r="RI2" s="5"/>
+      <c r="RJ2" s="5"/>
+      <c r="RK2" s="5"/>
+      <c r="RL2" s="5"/>
+      <c r="RM2" s="5"/>
+      <c r="RN2" s="5"/>
+      <c r="RO2" s="5"/>
+      <c r="RP2" s="5"/>
+      <c r="RQ2" s="5"/>
+      <c r="RR2" s="5"/>
+      <c r="RS2" s="5"/>
+      <c r="RT2" s="5"/>
+      <c r="RU2" s="5"/>
+      <c r="RV2" s="5"/>
+      <c r="RW2" s="5"/>
+      <c r="RX2" s="5"/>
+      <c r="RY2" s="5"/>
+      <c r="RZ2" s="5"/>
+      <c r="SA2" s="5"/>
+      <c r="SB2" s="5"/>
+      <c r="SC2" s="5"/>
+      <c r="SD2" s="5"/>
+      <c r="SE2" s="5"/>
+      <c r="SF2" s="5"/>
+      <c r="SG2" s="5"/>
+      <c r="SH2" s="5"/>
+      <c r="SI2" s="5"/>
+      <c r="SJ2" s="5"/>
+      <c r="SK2" s="5"/>
+      <c r="SL2" s="5"/>
+      <c r="SM2" s="5"/>
+      <c r="SN2" s="5"/>
+      <c r="SO2" s="5"/>
+      <c r="SP2" s="5"/>
+      <c r="SQ2" s="5"/>
+      <c r="SR2" s="5"/>
+      <c r="SS2" s="5"/>
+      <c r="ST2" s="5"/>
+      <c r="SU2" s="5"/>
+      <c r="SV2" s="5"/>
+      <c r="SW2" s="5"/>
+      <c r="SX2" s="5"/>
+      <c r="SY2" s="5"/>
+      <c r="SZ2" s="5"/>
+      <c r="TA2" s="5"/>
+      <c r="TB2" s="5"/>
+      <c r="TC2" s="5"/>
+      <c r="TD2" s="5"/>
+      <c r="TE2" s="5"/>
+      <c r="TF2" s="5"/>
+      <c r="TG2" s="5"/>
+      <c r="TH2" s="5"/>
+      <c r="TI2" s="5"/>
+      <c r="TJ2" s="5"/>
+      <c r="TK2" s="5"/>
+      <c r="TL2" s="5"/>
+      <c r="TM2" s="5"/>
+      <c r="TN2" s="5"/>
+      <c r="TO2" s="5"/>
+      <c r="TP2" s="5"/>
+      <c r="TQ2" s="5"/>
+      <c r="TR2" s="5"/>
+      <c r="TS2" s="5"/>
+      <c r="TT2" s="5"/>
+      <c r="TU2" s="5"/>
+      <c r="TV2" s="5"/>
+      <c r="TW2" s="5"/>
+      <c r="TX2" s="5"/>
+      <c r="TY2" s="5"/>
+      <c r="TZ2" s="5"/>
+      <c r="UA2" s="5"/>
+      <c r="UB2" s="5"/>
+      <c r="UC2" s="5"/>
+      <c r="UD2" s="5"/>
+      <c r="UE2" s="5"/>
+      <c r="UF2" s="5"/>
+      <c r="UG2" s="5"/>
+      <c r="UH2" s="5"/>
+      <c r="UI2" s="5"/>
+      <c r="UJ2" s="5"/>
+      <c r="UK2" s="5"/>
+      <c r="UL2" s="5"/>
+      <c r="UM2" s="5"/>
+      <c r="UN2" s="5"/>
+      <c r="UO2" s="5"/>
+      <c r="UP2" s="5"/>
+      <c r="UQ2" s="5"/>
+      <c r="UR2" s="5"/>
+      <c r="US2" s="5"/>
+      <c r="UT2" s="5"/>
+      <c r="UU2" s="5"/>
+      <c r="UV2" s="5"/>
+      <c r="UW2" s="5"/>
+      <c r="UX2" s="5"/>
+      <c r="UY2" s="5"/>
+      <c r="UZ2" s="5"/>
+      <c r="VA2" s="5"/>
+      <c r="VB2" s="5"/>
+      <c r="VC2" s="5"/>
+      <c r="VD2" s="5"/>
+      <c r="VE2" s="5"/>
+      <c r="VF2" s="5"/>
+      <c r="VG2" s="5"/>
+      <c r="VH2" s="5"/>
+      <c r="VI2" s="5"/>
+      <c r="VJ2" s="5"/>
+      <c r="VK2" s="5"/>
+      <c r="VL2" s="5"/>
+      <c r="VM2" s="5"/>
+      <c r="VN2" s="5"/>
+      <c r="VO2" s="5"/>
+      <c r="VP2" s="5"/>
+      <c r="VQ2" s="5"/>
+      <c r="VR2" s="5"/>
+      <c r="VS2" s="5"/>
+      <c r="VT2" s="5"/>
+      <c r="VU2" s="5"/>
+      <c r="VV2" s="5"/>
+      <c r="VW2" s="5"/>
+      <c r="VX2" s="5"/>
+      <c r="VY2" s="5"/>
+      <c r="VZ2" s="5"/>
+      <c r="WA2" s="5"/>
+      <c r="WB2" s="5"/>
+      <c r="WC2" s="5"/>
+      <c r="WD2" s="5"/>
+      <c r="WE2" s="5"/>
+      <c r="WF2" s="5"/>
+      <c r="WG2" s="5"/>
+      <c r="WH2" s="5"/>
+      <c r="WI2" s="5"/>
+      <c r="WJ2" s="5"/>
+      <c r="WK2" s="5"/>
+      <c r="WL2" s="5"/>
+      <c r="WM2" s="5"/>
+      <c r="WN2" s="5"/>
+      <c r="WO2" s="5"/>
+      <c r="WP2" s="5"/>
+      <c r="WQ2" s="5"/>
+      <c r="WR2" s="5"/>
+      <c r="WS2" s="5"/>
+      <c r="WT2" s="5"/>
+      <c r="WU2" s="5"/>
+      <c r="WV2" s="5"/>
+      <c r="WW2" s="5"/>
+      <c r="WX2" s="5"/>
+      <c r="WY2" s="5"/>
+      <c r="WZ2" s="5"/>
+      <c r="XA2" s="5"/>
+      <c r="XB2" s="5"/>
+      <c r="XC2" s="5"/>
+      <c r="XD2" s="5"/>
+      <c r="XE2" s="5"/>
+      <c r="XF2" s="5"/>
+      <c r="XG2" s="5"/>
+      <c r="XH2" s="5"/>
+      <c r="XI2" s="5"/>
+      <c r="XJ2" s="5"/>
+      <c r="XK2" s="5"/>
+      <c r="XL2" s="5"/>
+      <c r="XM2" s="5"/>
+      <c r="XN2" s="5"/>
+      <c r="XO2" s="5"/>
+      <c r="XP2" s="5"/>
+      <c r="XQ2" s="5"/>
+      <c r="XR2" s="5"/>
+      <c r="XS2" s="5"/>
+      <c r="XT2" s="5"/>
+      <c r="XU2" s="5"/>
+      <c r="XV2" s="5"/>
+      <c r="XW2" s="5"/>
+      <c r="XX2" s="5"/>
+      <c r="XY2" s="5"/>
+      <c r="XZ2" s="5"/>
+      <c r="YA2" s="5"/>
+      <c r="YB2" s="5"/>
+      <c r="YC2" s="5"/>
+      <c r="YD2" s="5"/>
+      <c r="YE2" s="5"/>
+      <c r="YF2" s="5"/>
+      <c r="YG2" s="5"/>
+      <c r="YH2" s="5"/>
+      <c r="YI2" s="5"/>
+      <c r="YJ2" s="5"/>
+      <c r="YK2" s="5"/>
+      <c r="YL2" s="5"/>
+      <c r="YM2" s="5"/>
+      <c r="YN2" s="5"/>
+      <c r="YO2" s="5"/>
+      <c r="YP2" s="5"/>
+      <c r="YQ2" s="5"/>
+      <c r="YR2" s="5"/>
+      <c r="YS2" s="5"/>
+      <c r="YT2" s="5"/>
+      <c r="YU2" s="5"/>
+      <c r="YV2" s="5"/>
+      <c r="YW2" s="5"/>
+      <c r="YX2" s="5"/>
+      <c r="YY2" s="5"/>
+      <c r="YZ2" s="5"/>
+      <c r="ZA2" s="5"/>
+      <c r="ZB2" s="5"/>
+      <c r="ZC2" s="5"/>
+      <c r="ZD2" s="5"/>
+      <c r="ZE2" s="5"/>
+      <c r="ZF2" s="5"/>
+      <c r="ZG2" s="5"/>
+      <c r="ZH2" s="5"/>
+      <c r="ZI2" s="5"/>
+      <c r="ZJ2" s="5"/>
+      <c r="ZK2" s="5"/>
+      <c r="ZL2" s="5"/>
+      <c r="ZM2" s="5"/>
+      <c r="ZN2" s="5"/>
+      <c r="ZO2" s="5"/>
+      <c r="ZP2" s="5"/>
+      <c r="ZQ2" s="5"/>
+      <c r="ZR2" s="5"/>
+      <c r="ZS2" s="5"/>
+      <c r="ZT2" s="5"/>
+      <c r="ZU2" s="5"/>
+      <c r="ZV2" s="5"/>
+      <c r="ZW2" s="5"/>
+      <c r="ZX2" s="5"/>
+      <c r="ZY2" s="5"/>
+      <c r="ZZ2" s="5"/>
+      <c r="AAA2" s="5"/>
+      <c r="AAB2" s="5"/>
+      <c r="AAC2" s="5"/>
+      <c r="AAD2" s="5"/>
+      <c r="AAE2" s="5"/>
+      <c r="AAF2" s="5"/>
+      <c r="AAG2" s="5"/>
+      <c r="AAH2" s="5"/>
+      <c r="AAI2" s="5"/>
+      <c r="AAJ2" s="5"/>
+      <c r="AAK2" s="5"/>
+      <c r="AAL2" s="5"/>
+      <c r="AAM2" s="5"/>
+      <c r="AAN2" s="5"/>
+      <c r="AAO2" s="5"/>
+      <c r="AAP2" s="5"/>
+      <c r="AAQ2" s="5"/>
+      <c r="AAR2" s="5"/>
+      <c r="AAS2" s="5"/>
+      <c r="AAT2" s="5"/>
+      <c r="AAU2" s="5"/>
+      <c r="AAV2" s="5"/>
+      <c r="AAW2" s="5"/>
+      <c r="AAX2" s="5"/>
+      <c r="AAY2" s="5"/>
+      <c r="AAZ2" s="5"/>
+      <c r="ABA2" s="5"/>
+      <c r="ABB2" s="5"/>
+      <c r="ABC2" s="5"/>
+      <c r="ABD2" s="5"/>
+      <c r="ABE2" s="5"/>
+      <c r="ABF2" s="5"/>
+      <c r="ABG2" s="5"/>
+      <c r="ABH2" s="5"/>
+      <c r="ABI2" s="5"/>
+      <c r="ABJ2" s="5"/>
+      <c r="ABK2" s="5"/>
+      <c r="ABL2" s="5"/>
+      <c r="ABM2" s="5"/>
+      <c r="ABN2" s="5"/>
+      <c r="ABO2" s="5"/>
+      <c r="ABP2" s="5"/>
+      <c r="ABQ2" s="5"/>
+      <c r="ABR2" s="5"/>
+      <c r="ABS2" s="5"/>
+      <c r="ABT2" s="5"/>
+      <c r="ABU2" s="5"/>
+      <c r="ABV2" s="5"/>
+      <c r="ABW2" s="5"/>
+      <c r="ABX2" s="5"/>
+      <c r="ABY2" s="5"/>
+      <c r="ABZ2" s="5"/>
+      <c r="ACA2" s="5"/>
+      <c r="ACB2" s="5"/>
+      <c r="ACC2" s="5"/>
+      <c r="ACD2" s="5"/>
+      <c r="ACE2" s="5"/>
+      <c r="ACF2" s="5"/>
+      <c r="ACG2" s="5"/>
+      <c r="ACH2" s="5"/>
+      <c r="ACI2" s="5"/>
+      <c r="ACJ2" s="5"/>
+      <c r="ACK2" s="5"/>
+      <c r="ACL2" s="5"/>
+      <c r="ACM2" s="5"/>
+      <c r="ACN2" s="5"/>
+      <c r="ACO2" s="5"/>
+      <c r="ACP2" s="5"/>
+      <c r="ACQ2" s="5"/>
+      <c r="ACR2" s="5"/>
+      <c r="ACS2" s="5"/>
+      <c r="ACT2" s="5"/>
+      <c r="ACU2" s="5"/>
+      <c r="ACV2" s="5"/>
+      <c r="ACW2" s="5"/>
+      <c r="ACX2" s="5"/>
+      <c r="ACY2" s="5"/>
+      <c r="ACZ2" s="5"/>
+      <c r="ADA2" s="5"/>
+      <c r="ADB2" s="5"/>
+      <c r="ADC2" s="5"/>
+      <c r="ADD2" s="5"/>
+      <c r="ADE2" s="5"/>
+      <c r="ADF2" s="5"/>
+      <c r="ADG2" s="5"/>
+      <c r="ADH2" s="5"/>
+      <c r="ADI2" s="5"/>
+      <c r="ADJ2" s="5"/>
+      <c r="ADK2" s="5"/>
+      <c r="ADL2" s="5"/>
+      <c r="ADM2" s="5"/>
+      <c r="ADN2" s="5"/>
+      <c r="ADO2" s="5"/>
+      <c r="ADP2" s="5"/>
+      <c r="ADQ2" s="5"/>
+      <c r="ADR2" s="5"/>
+      <c r="ADS2" s="5"/>
+      <c r="ADT2" s="5"/>
+      <c r="ADU2" s="5"/>
+      <c r="ADV2" s="5"/>
+      <c r="ADW2" s="5"/>
+      <c r="ADX2" s="5"/>
+      <c r="ADY2" s="5"/>
+      <c r="ADZ2" s="5"/>
+      <c r="AEA2" s="5"/>
+      <c r="AEB2" s="5"/>
+      <c r="AEC2" s="5"/>
+      <c r="AED2" s="5"/>
+      <c r="AEE2" s="5"/>
+      <c r="AEF2" s="5"/>
+      <c r="AEG2" s="5"/>
+      <c r="AEH2" s="5"/>
+      <c r="AEI2" s="5"/>
+      <c r="AEJ2" s="5"/>
+      <c r="AEK2" s="5"/>
+      <c r="AEL2" s="5"/>
+      <c r="AEM2" s="5"/>
+      <c r="AEN2" s="5"/>
+      <c r="AEO2" s="5"/>
+      <c r="AEP2" s="5"/>
+      <c r="AEQ2" s="5"/>
+      <c r="AER2" s="5"/>
+      <c r="AES2" s="5"/>
+      <c r="AET2" s="5"/>
+      <c r="AEU2" s="5"/>
+      <c r="AEV2" s="5"/>
+      <c r="AEW2" s="5"/>
+      <c r="AEX2" s="5"/>
+      <c r="AEY2" s="5"/>
+      <c r="AEZ2" s="5"/>
+      <c r="AFA2" s="5"/>
+      <c r="AFB2" s="5"/>
+      <c r="AFC2" s="5"/>
+      <c r="AFD2" s="5"/>
+      <c r="AFE2" s="5"/>
+      <c r="AFF2" s="5"/>
+      <c r="AFG2" s="5"/>
+      <c r="AFH2" s="5"/>
+      <c r="AFI2" s="5"/>
+      <c r="AFJ2" s="5"/>
+      <c r="AFK2" s="5"/>
+      <c r="AFL2" s="5"/>
+      <c r="AFM2" s="5"/>
+      <c r="AFN2" s="5"/>
+      <c r="AFO2" s="5"/>
+      <c r="AFP2" s="5"/>
+      <c r="AFQ2" s="5"/>
+      <c r="AFR2" s="5"/>
+      <c r="AFS2" s="5"/>
+      <c r="AFT2" s="5"/>
+      <c r="AFU2" s="5"/>
+      <c r="AFV2" s="5"/>
+      <c r="AFW2" s="5"/>
+      <c r="AFX2" s="5"/>
+      <c r="AFY2" s="5"/>
+      <c r="AFZ2" s="5"/>
+      <c r="AGA2" s="5"/>
+      <c r="AGB2" s="5"/>
+      <c r="AGC2" s="5"/>
+      <c r="AGD2" s="5"/>
+      <c r="AGE2" s="5"/>
+      <c r="AGF2" s="5"/>
+      <c r="AGG2" s="5"/>
+      <c r="AGH2" s="5"/>
+      <c r="AGI2" s="5"/>
+      <c r="AGJ2" s="5"/>
+      <c r="AGK2" s="5"/>
+      <c r="AGL2" s="5"/>
+      <c r="AGM2" s="5"/>
+      <c r="AGN2" s="5"/>
+      <c r="AGO2" s="5"/>
+      <c r="AGP2" s="5"/>
+      <c r="AGQ2" s="5"/>
+      <c r="AGR2" s="5"/>
+      <c r="AGS2" s="5"/>
+      <c r="AGT2" s="5"/>
+      <c r="AGU2" s="5"/>
+      <c r="AGV2" s="5"/>
+      <c r="AGW2" s="5"/>
+      <c r="AGX2" s="5"/>
+      <c r="AGY2" s="5"/>
+      <c r="AGZ2" s="5"/>
+      <c r="AHA2" s="5"/>
+      <c r="AHB2" s="5"/>
+      <c r="AHC2" s="5"/>
+      <c r="AHD2" s="5"/>
+      <c r="AHE2" s="5"/>
+      <c r="AHF2" s="5"/>
+      <c r="AHG2" s="5"/>
+      <c r="AHH2" s="5"/>
+      <c r="AHI2" s="5"/>
+      <c r="AHJ2" s="5"/>
+      <c r="AHK2" s="5"/>
+      <c r="AHL2" s="5"/>
+      <c r="AHM2" s="5"/>
+      <c r="AHN2" s="5"/>
+      <c r="AHO2" s="5"/>
+      <c r="AHP2" s="5"/>
+      <c r="AHQ2" s="5"/>
+      <c r="AHR2" s="5"/>
+      <c r="AHS2" s="5"/>
+      <c r="AHT2" s="5"/>
+      <c r="AHU2" s="5"/>
+      <c r="AHV2" s="5"/>
+      <c r="AHW2" s="5"/>
+      <c r="AHX2" s="5"/>
+      <c r="AHY2" s="5"/>
+      <c r="AHZ2" s="5"/>
+      <c r="AIA2" s="5"/>
+      <c r="AIB2" s="5"/>
+      <c r="AIC2" s="5"/>
+      <c r="AID2" s="5"/>
+      <c r="AIE2" s="5"/>
+      <c r="AIF2" s="5"/>
+      <c r="AIG2" s="5"/>
+      <c r="AIH2" s="5"/>
+      <c r="AII2" s="5"/>
+      <c r="AIJ2" s="5"/>
+      <c r="AIK2" s="5"/>
+      <c r="AIL2" s="5"/>
+      <c r="AIM2" s="5"/>
+      <c r="AIN2" s="5"/>
+      <c r="AIO2" s="5"/>
+      <c r="AIP2" s="5"/>
+      <c r="AIQ2" s="5"/>
+      <c r="AIR2" s="5"/>
+      <c r="AIS2" s="5"/>
+      <c r="AIT2" s="5"/>
+      <c r="AIU2" s="5"/>
+      <c r="AIV2" s="5"/>
+      <c r="AIW2" s="5"/>
+      <c r="AIX2" s="5"/>
+      <c r="AIY2" s="5"/>
+      <c r="AIZ2" s="5"/>
+      <c r="AJA2" s="5"/>
+      <c r="AJB2" s="5"/>
+      <c r="AJC2" s="5"/>
+      <c r="AJD2" s="5"/>
+      <c r="AJE2" s="5"/>
+      <c r="AJF2" s="5"/>
+      <c r="AJG2" s="5"/>
+      <c r="AJH2" s="5"/>
+      <c r="AJI2" s="5"/>
+      <c r="AJJ2" s="5"/>
+      <c r="AJK2" s="5"/>
+      <c r="AJL2" s="5"/>
+      <c r="AJM2" s="5"/>
+      <c r="AJN2" s="5"/>
+      <c r="AJO2" s="5"/>
+      <c r="AJP2" s="5"/>
+      <c r="AJQ2" s="5"/>
+      <c r="AJR2" s="5"/>
+      <c r="AJS2" s="5"/>
+      <c r="AJT2" s="5"/>
+      <c r="AJU2" s="5"/>
+      <c r="AJV2" s="5"/>
+      <c r="AJW2" s="5"/>
+      <c r="AJX2" s="5"/>
+      <c r="AJY2" s="5"/>
+      <c r="AJZ2" s="5"/>
+      <c r="AKA2" s="5"/>
+      <c r="AKB2" s="5"/>
+      <c r="AKC2" s="5"/>
+      <c r="AKD2" s="5"/>
+      <c r="AKE2" s="5"/>
+      <c r="AKF2" s="5"/>
+      <c r="AKG2" s="5"/>
+      <c r="AKH2" s="5"/>
+      <c r="AKI2" s="5"/>
+      <c r="AKJ2" s="5"/>
+      <c r="AKK2" s="5"/>
+      <c r="AKL2" s="5"/>
+      <c r="AKM2" s="5"/>
+      <c r="AKN2" s="5"/>
+      <c r="AKO2" s="5"/>
+      <c r="AKP2" s="5"/>
+      <c r="AKQ2" s="5"/>
+      <c r="AKR2" s="5"/>
+      <c r="AKS2" s="5"/>
+      <c r="AKT2" s="5"/>
+      <c r="AKU2" s="5"/>
+      <c r="AKV2" s="5"/>
+      <c r="AKW2" s="5"/>
+      <c r="AKX2" s="5"/>
+      <c r="AKY2" s="5"/>
+      <c r="AKZ2" s="5"/>
+      <c r="ALA2" s="5"/>
+      <c r="ALB2" s="5"/>
+      <c r="ALC2" s="5"/>
+      <c r="ALD2" s="5"/>
+      <c r="ALE2" s="5"/>
+      <c r="ALF2" s="5"/>
+      <c r="ALG2" s="5"/>
+      <c r="ALH2" s="5"/>
+      <c r="ALI2" s="5"/>
+      <c r="ALJ2" s="5"/>
+      <c r="ALK2" s="5"/>
+      <c r="ALL2" s="5"/>
+      <c r="ALM2" s="5"/>
+      <c r="ALN2" s="5"/>
+      <c r="ALO2" s="5"/>
+      <c r="ALP2" s="5"/>
+      <c r="ALQ2" s="5"/>
+      <c r="ALR2" s="5"/>
+      <c r="ALS2" s="5"/>
+      <c r="ALT2" s="5"/>
+      <c r="ALU2" s="5"/>
+      <c r="ALV2" s="5"/>
+      <c r="ALW2" s="5"/>
+      <c r="ALX2" s="5"/>
+      <c r="ALY2" s="5"/>
+      <c r="ALZ2" s="5"/>
+      <c r="AMA2" s="5"/>
+      <c r="AMB2" s="5"/>
+      <c r="AMC2" s="5"/>
+      <c r="AMD2" s="5"/>
+      <c r="AME2" s="5"/>
+      <c r="AMF2" s="5"/>
+      <c r="AMG2" s="5"/>
+      <c r="AMH2" s="5"/>
+    </row>
+    <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="5"/>
+      <c r="DU3" s="5"/>
+      <c r="DV3" s="5"/>
+      <c r="DW3" s="5"/>
+      <c r="DX3" s="5"/>
+      <c r="DY3" s="5"/>
+      <c r="DZ3" s="5"/>
+      <c r="EA3" s="5"/>
+      <c r="EB3" s="5"/>
+      <c r="EC3" s="5"/>
+      <c r="ED3" s="5"/>
+      <c r="EE3" s="5"/>
+      <c r="EF3" s="5"/>
+      <c r="EG3" s="5"/>
+      <c r="EH3" s="5"/>
+      <c r="EI3" s="5"/>
+      <c r="EJ3" s="5"/>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5"/>
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
+      <c r="EP3" s="5"/>
+      <c r="EQ3" s="5"/>
+      <c r="ER3" s="5"/>
+      <c r="ES3" s="5"/>
+      <c r="ET3" s="5"/>
+      <c r="EU3" s="5"/>
+      <c r="EV3" s="5"/>
+      <c r="EW3" s="5"/>
+      <c r="EX3" s="5"/>
+      <c r="EY3" s="5"/>
+      <c r="EZ3" s="5"/>
+      <c r="FA3" s="5"/>
+      <c r="FB3" s="5"/>
+      <c r="FC3" s="5"/>
+      <c r="FD3" s="5"/>
+      <c r="FE3" s="5"/>
+      <c r="FF3" s="5"/>
+      <c r="FG3" s="5"/>
+      <c r="FH3" s="5"/>
+      <c r="FI3" s="5"/>
+      <c r="FJ3" s="5"/>
+      <c r="FK3" s="5"/>
+      <c r="FL3" s="5"/>
+      <c r="FM3" s="5"/>
+      <c r="FN3" s="5"/>
+      <c r="FO3" s="5"/>
+      <c r="FP3" s="5"/>
+      <c r="FQ3" s="5"/>
+      <c r="FR3" s="5"/>
+      <c r="FS3" s="5"/>
+      <c r="FT3" s="5"/>
+      <c r="FU3" s="5"/>
+      <c r="FV3" s="5"/>
+      <c r="FW3" s="5"/>
+      <c r="FX3" s="5"/>
+      <c r="FY3" s="5"/>
+      <c r="FZ3" s="5"/>
+      <c r="GA3" s="5"/>
+      <c r="GB3" s="5"/>
+      <c r="GC3" s="5"/>
+      <c r="GD3" s="5"/>
+      <c r="GE3" s="5"/>
+      <c r="GF3" s="5"/>
+      <c r="GG3" s="5"/>
+      <c r="GH3" s="5"/>
+      <c r="GI3" s="5"/>
+      <c r="GJ3" s="5"/>
+      <c r="GK3" s="5"/>
+      <c r="GL3" s="5"/>
+      <c r="GM3" s="5"/>
+      <c r="GN3" s="5"/>
+      <c r="GO3" s="5"/>
+      <c r="GP3" s="5"/>
+      <c r="GQ3" s="5"/>
+      <c r="GR3" s="5"/>
+      <c r="GS3" s="5"/>
+      <c r="GT3" s="5"/>
+      <c r="GU3" s="5"/>
+      <c r="GV3" s="5"/>
+      <c r="GW3" s="5"/>
+      <c r="GX3" s="5"/>
+      <c r="GY3" s="5"/>
+      <c r="GZ3" s="5"/>
+      <c r="HA3" s="5"/>
+      <c r="HB3" s="5"/>
+      <c r="HC3" s="5"/>
+      <c r="HD3" s="5"/>
+      <c r="HE3" s="5"/>
+      <c r="HF3" s="5"/>
+      <c r="HG3" s="5"/>
+      <c r="HH3" s="5"/>
+      <c r="HI3" s="5"/>
+      <c r="HJ3" s="5"/>
+      <c r="HK3" s="5"/>
+      <c r="HL3" s="5"/>
+      <c r="HM3" s="5"/>
+      <c r="HN3" s="5"/>
+      <c r="HO3" s="5"/>
+      <c r="HP3" s="5"/>
+      <c r="HQ3" s="5"/>
+      <c r="HR3" s="5"/>
+      <c r="HS3" s="5"/>
+      <c r="HT3" s="5"/>
+      <c r="HU3" s="5"/>
+      <c r="HV3" s="5"/>
+      <c r="HW3" s="5"/>
+      <c r="HX3" s="5"/>
+      <c r="HY3" s="5"/>
+      <c r="HZ3" s="5"/>
+      <c r="IA3" s="5"/>
+      <c r="IB3" s="5"/>
+      <c r="IC3" s="5"/>
+      <c r="ID3" s="5"/>
+      <c r="IE3" s="5"/>
+      <c r="IF3" s="5"/>
+      <c r="IG3" s="5"/>
+      <c r="IH3" s="5"/>
+      <c r="II3" s="5"/>
+      <c r="IJ3" s="5"/>
+      <c r="IK3" s="5"/>
+      <c r="IL3" s="5"/>
+      <c r="IM3" s="5"/>
+      <c r="IN3" s="5"/>
+      <c r="IO3" s="5"/>
+      <c r="IP3" s="5"/>
+      <c r="IQ3" s="5"/>
+      <c r="IR3" s="5"/>
+      <c r="IS3" s="5"/>
+      <c r="IT3" s="5"/>
+      <c r="IU3" s="5"/>
+      <c r="IV3" s="5"/>
+      <c r="IW3" s="5"/>
+      <c r="IX3" s="5"/>
+      <c r="IY3" s="5"/>
+      <c r="IZ3" s="5"/>
+      <c r="JA3" s="5"/>
+      <c r="JB3" s="5"/>
+      <c r="JC3" s="5"/>
+      <c r="JD3" s="5"/>
+      <c r="JE3" s="5"/>
+      <c r="JF3" s="5"/>
+      <c r="JG3" s="5"/>
+      <c r="JH3" s="5"/>
+      <c r="JI3" s="5"/>
+      <c r="JJ3" s="5"/>
+      <c r="JK3" s="5"/>
+      <c r="JL3" s="5"/>
+      <c r="JM3" s="5"/>
+      <c r="JN3" s="5"/>
+      <c r="JO3" s="5"/>
+      <c r="JP3" s="5"/>
+      <c r="JQ3" s="5"/>
+      <c r="JR3" s="5"/>
+      <c r="JS3" s="5"/>
+      <c r="JT3" s="5"/>
+      <c r="JU3" s="5"/>
+      <c r="JV3" s="5"/>
+      <c r="JW3" s="5"/>
+      <c r="JX3" s="5"/>
+      <c r="JY3" s="5"/>
+      <c r="JZ3" s="5"/>
+      <c r="KA3" s="5"/>
+      <c r="KB3" s="5"/>
+      <c r="KC3" s="5"/>
+      <c r="KD3" s="5"/>
+      <c r="KE3" s="5"/>
+      <c r="KF3" s="5"/>
+      <c r="KG3" s="5"/>
+      <c r="KH3" s="5"/>
+      <c r="KI3" s="5"/>
+      <c r="KJ3" s="5"/>
+      <c r="KK3" s="5"/>
+      <c r="KL3" s="5"/>
+      <c r="KM3" s="5"/>
+      <c r="KN3" s="5"/>
+      <c r="KO3" s="5"/>
+      <c r="KP3" s="5"/>
+      <c r="KQ3" s="5"/>
+      <c r="KR3" s="5"/>
+      <c r="KS3" s="5"/>
+      <c r="KT3" s="5"/>
+      <c r="KU3" s="5"/>
+      <c r="KV3" s="5"/>
+      <c r="KW3" s="5"/>
+      <c r="KX3" s="5"/>
+      <c r="KY3" s="5"/>
+      <c r="KZ3" s="5"/>
+      <c r="LA3" s="5"/>
+      <c r="LB3" s="5"/>
+      <c r="LC3" s="5"/>
+      <c r="LD3" s="5"/>
+      <c r="LE3" s="5"/>
+      <c r="LF3" s="5"/>
+      <c r="LG3" s="5"/>
+      <c r="LH3" s="5"/>
+      <c r="LI3" s="5"/>
+      <c r="LJ3" s="5"/>
+      <c r="LK3" s="5"/>
+      <c r="LL3" s="5"/>
+      <c r="LM3" s="5"/>
+      <c r="LN3" s="5"/>
+      <c r="LO3" s="5"/>
+      <c r="LP3" s="5"/>
+      <c r="LQ3" s="5"/>
+      <c r="LR3" s="5"/>
+      <c r="LS3" s="5"/>
+      <c r="LT3" s="5"/>
+      <c r="LU3" s="5"/>
+      <c r="LV3" s="5"/>
+      <c r="LW3" s="5"/>
+      <c r="LX3" s="5"/>
+      <c r="LY3" s="5"/>
+      <c r="LZ3" s="5"/>
+      <c r="MA3" s="5"/>
+      <c r="MB3" s="5"/>
+      <c r="MC3" s="5"/>
+      <c r="MD3" s="5"/>
+      <c r="ME3" s="5"/>
+      <c r="MF3" s="5"/>
+      <c r="MG3" s="5"/>
+      <c r="MH3" s="5"/>
+      <c r="MI3" s="5"/>
+      <c r="MJ3" s="5"/>
+      <c r="MK3" s="5"/>
+      <c r="ML3" s="5"/>
+      <c r="MM3" s="5"/>
+      <c r="MN3" s="5"/>
+      <c r="MO3" s="5"/>
+      <c r="MP3" s="5"/>
+      <c r="MQ3" s="5"/>
+      <c r="MR3" s="5"/>
+      <c r="MS3" s="5"/>
+      <c r="MT3" s="5"/>
+      <c r="MU3" s="5"/>
+      <c r="MV3" s="5"/>
+      <c r="MW3" s="5"/>
+      <c r="MX3" s="5"/>
+      <c r="MY3" s="5"/>
+      <c r="MZ3" s="5"/>
+      <c r="NA3" s="5"/>
+      <c r="NB3" s="5"/>
+      <c r="NC3" s="5"/>
+      <c r="ND3" s="5"/>
+      <c r="NE3" s="5"/>
+      <c r="NF3" s="5"/>
+      <c r="NG3" s="5"/>
+      <c r="NH3" s="5"/>
+      <c r="NI3" s="5"/>
+      <c r="NJ3" s="5"/>
+      <c r="NK3" s="5"/>
+      <c r="NL3" s="5"/>
+      <c r="NM3" s="5"/>
+      <c r="NN3" s="5"/>
+      <c r="NO3" s="5"/>
+      <c r="NP3" s="5"/>
+      <c r="NQ3" s="5"/>
+      <c r="NR3" s="5"/>
+      <c r="NS3" s="5"/>
+      <c r="NT3" s="5"/>
+      <c r="NU3" s="5"/>
+      <c r="NV3" s="5"/>
+      <c r="NW3" s="5"/>
+      <c r="NX3" s="5"/>
+      <c r="NY3" s="5"/>
+      <c r="NZ3" s="5"/>
+      <c r="OA3" s="5"/>
+      <c r="OB3" s="5"/>
+      <c r="OC3" s="5"/>
+      <c r="OD3" s="5"/>
+      <c r="OE3" s="5"/>
+      <c r="OF3" s="5"/>
+      <c r="OG3" s="5"/>
+      <c r="OH3" s="5"/>
+      <c r="OI3" s="5"/>
+      <c r="OJ3" s="5"/>
+      <c r="OK3" s="5"/>
+      <c r="OL3" s="5"/>
+      <c r="OM3" s="5"/>
+      <c r="ON3" s="5"/>
+      <c r="OO3" s="5"/>
+      <c r="OP3" s="5"/>
+      <c r="OQ3" s="5"/>
+      <c r="OR3" s="5"/>
+      <c r="OS3" s="5"/>
+      <c r="OT3" s="5"/>
+      <c r="OU3" s="5"/>
+      <c r="OV3" s="5"/>
+      <c r="OW3" s="5"/>
+      <c r="OX3" s="5"/>
+      <c r="OY3" s="5"/>
+      <c r="OZ3" s="5"/>
+      <c r="PA3" s="5"/>
+      <c r="PB3" s="5"/>
+      <c r="PC3" s="5"/>
+      <c r="PD3" s="5"/>
+      <c r="PE3" s="5"/>
+      <c r="PF3" s="5"/>
+      <c r="PG3" s="5"/>
+      <c r="PH3" s="5"/>
+      <c r="PI3" s="5"/>
+      <c r="PJ3" s="5"/>
+      <c r="PK3" s="5"/>
+      <c r="PL3" s="5"/>
+      <c r="PM3" s="5"/>
+      <c r="PN3" s="5"/>
+      <c r="PO3" s="5"/>
+      <c r="PP3" s="5"/>
+      <c r="PQ3" s="5"/>
+      <c r="PR3" s="5"/>
+      <c r="PS3" s="5"/>
+      <c r="PT3" s="5"/>
+      <c r="PU3" s="5"/>
+      <c r="PV3" s="5"/>
+      <c r="PW3" s="5"/>
+      <c r="PX3" s="5"/>
+      <c r="PY3" s="5"/>
+      <c r="PZ3" s="5"/>
+      <c r="QA3" s="5"/>
+      <c r="QB3" s="5"/>
+      <c r="QC3" s="5"/>
+      <c r="QD3" s="5"/>
+      <c r="QE3" s="5"/>
+      <c r="QF3" s="5"/>
+      <c r="QG3" s="5"/>
+      <c r="QH3" s="5"/>
+      <c r="QI3" s="5"/>
+      <c r="QJ3" s="5"/>
+      <c r="QK3" s="5"/>
+      <c r="QL3" s="5"/>
+      <c r="QM3" s="5"/>
+      <c r="QN3" s="5"/>
+      <c r="QO3" s="5"/>
+      <c r="QP3" s="5"/>
+      <c r="QQ3" s="5"/>
+      <c r="QR3" s="5"/>
+      <c r="QS3" s="5"/>
+      <c r="QT3" s="5"/>
+      <c r="QU3" s="5"/>
+      <c r="QV3" s="5"/>
+      <c r="QW3" s="5"/>
+      <c r="QX3" s="5"/>
+      <c r="QY3" s="5"/>
+      <c r="QZ3" s="5"/>
+      <c r="RA3" s="5"/>
+      <c r="RB3" s="5"/>
+      <c r="RC3" s="5"/>
+      <c r="RD3" s="5"/>
+      <c r="RE3" s="5"/>
+      <c r="RF3" s="5"/>
+      <c r="RG3" s="5"/>
+      <c r="RH3" s="5"/>
+      <c r="RI3" s="5"/>
+      <c r="RJ3" s="5"/>
+      <c r="RK3" s="5"/>
+      <c r="RL3" s="5"/>
+      <c r="RM3" s="5"/>
+      <c r="RN3" s="5"/>
+      <c r="RO3" s="5"/>
+      <c r="RP3" s="5"/>
+      <c r="RQ3" s="5"/>
+      <c r="RR3" s="5"/>
+      <c r="RS3" s="5"/>
+      <c r="RT3" s="5"/>
+      <c r="RU3" s="5"/>
+      <c r="RV3" s="5"/>
+      <c r="RW3" s="5"/>
+      <c r="RX3" s="5"/>
+      <c r="RY3" s="5"/>
+      <c r="RZ3" s="5"/>
+      <c r="SA3" s="5"/>
+      <c r="SB3" s="5"/>
+      <c r="SC3" s="5"/>
+      <c r="SD3" s="5"/>
+      <c r="SE3" s="5"/>
+      <c r="SF3" s="5"/>
+      <c r="SG3" s="5"/>
+      <c r="SH3" s="5"/>
+      <c r="SI3" s="5"/>
+      <c r="SJ3" s="5"/>
+      <c r="SK3" s="5"/>
+      <c r="SL3" s="5"/>
+      <c r="SM3" s="5"/>
+      <c r="SN3" s="5"/>
+      <c r="SO3" s="5"/>
+      <c r="SP3" s="5"/>
+      <c r="SQ3" s="5"/>
+      <c r="SR3" s="5"/>
+      <c r="SS3" s="5"/>
+      <c r="ST3" s="5"/>
+      <c r="SU3" s="5"/>
+      <c r="SV3" s="5"/>
+      <c r="SW3" s="5"/>
+      <c r="SX3" s="5"/>
+      <c r="SY3" s="5"/>
+      <c r="SZ3" s="5"/>
+      <c r="TA3" s="5"/>
+      <c r="TB3" s="5"/>
+      <c r="TC3" s="5"/>
+      <c r="TD3" s="5"/>
+      <c r="TE3" s="5"/>
+      <c r="TF3" s="5"/>
+      <c r="TG3" s="5"/>
+      <c r="TH3" s="5"/>
+      <c r="TI3" s="5"/>
+      <c r="TJ3" s="5"/>
+      <c r="TK3" s="5"/>
+      <c r="TL3" s="5"/>
+      <c r="TM3" s="5"/>
+      <c r="TN3" s="5"/>
+      <c r="TO3" s="5"/>
+      <c r="TP3" s="5"/>
+      <c r="TQ3" s="5"/>
+      <c r="TR3" s="5"/>
+      <c r="TS3" s="5"/>
+      <c r="TT3" s="5"/>
+      <c r="TU3" s="5"/>
+      <c r="TV3" s="5"/>
+      <c r="TW3" s="5"/>
+      <c r="TX3" s="5"/>
+      <c r="TY3" s="5"/>
+      <c r="TZ3" s="5"/>
+      <c r="UA3" s="5"/>
+      <c r="UB3" s="5"/>
+      <c r="UC3" s="5"/>
+      <c r="UD3" s="5"/>
+      <c r="UE3" s="5"/>
+      <c r="UF3" s="5"/>
+      <c r="UG3" s="5"/>
+      <c r="UH3" s="5"/>
+      <c r="UI3" s="5"/>
+      <c r="UJ3" s="5"/>
+      <c r="UK3" s="5"/>
+      <c r="UL3" s="5"/>
+      <c r="UM3" s="5"/>
+      <c r="UN3" s="5"/>
+      <c r="UO3" s="5"/>
+      <c r="UP3" s="5"/>
+      <c r="UQ3" s="5"/>
+      <c r="UR3" s="5"/>
+      <c r="US3" s="5"/>
+      <c r="UT3" s="5"/>
+      <c r="UU3" s="5"/>
+      <c r="UV3" s="5"/>
+      <c r="UW3" s="5"/>
+      <c r="UX3" s="5"/>
+      <c r="UY3" s="5"/>
+      <c r="UZ3" s="5"/>
+      <c r="VA3" s="5"/>
+      <c r="VB3" s="5"/>
+      <c r="VC3" s="5"/>
+      <c r="VD3" s="5"/>
+      <c r="VE3" s="5"/>
+      <c r="VF3" s="5"/>
+      <c r="VG3" s="5"/>
+      <c r="VH3" s="5"/>
+      <c r="VI3" s="5"/>
+      <c r="VJ3" s="5"/>
+      <c r="VK3" s="5"/>
+      <c r="VL3" s="5"/>
+      <c r="VM3" s="5"/>
+      <c r="VN3" s="5"/>
+      <c r="VO3" s="5"/>
+      <c r="VP3" s="5"/>
+      <c r="VQ3" s="5"/>
+      <c r="VR3" s="5"/>
+      <c r="VS3" s="5"/>
+      <c r="VT3" s="5"/>
+      <c r="VU3" s="5"/>
+      <c r="VV3" s="5"/>
+      <c r="VW3" s="5"/>
+      <c r="VX3" s="5"/>
+      <c r="VY3" s="5"/>
+      <c r="VZ3" s="5"/>
+      <c r="WA3" s="5"/>
+      <c r="WB3" s="5"/>
+      <c r="WC3" s="5"/>
+      <c r="WD3" s="5"/>
+      <c r="WE3" s="5"/>
+      <c r="WF3" s="5"/>
+      <c r="WG3" s="5"/>
+      <c r="WH3" s="5"/>
+      <c r="WI3" s="5"/>
+      <c r="WJ3" s="5"/>
+      <c r="WK3" s="5"/>
+      <c r="WL3" s="5"/>
+      <c r="WM3" s="5"/>
+      <c r="WN3" s="5"/>
+      <c r="WO3" s="5"/>
+      <c r="WP3" s="5"/>
+      <c r="WQ3" s="5"/>
+      <c r="WR3" s="5"/>
+      <c r="WS3" s="5"/>
+      <c r="WT3" s="5"/>
+      <c r="WU3" s="5"/>
+      <c r="WV3" s="5"/>
+      <c r="WW3" s="5"/>
+      <c r="WX3" s="5"/>
+      <c r="WY3" s="5"/>
+      <c r="WZ3" s="5"/>
+      <c r="XA3" s="5"/>
+      <c r="XB3" s="5"/>
+      <c r="XC3" s="5"/>
+      <c r="XD3" s="5"/>
+      <c r="XE3" s="5"/>
+      <c r="XF3" s="5"/>
+      <c r="XG3" s="5"/>
+      <c r="XH3" s="5"/>
+      <c r="XI3" s="5"/>
+      <c r="XJ3" s="5"/>
+      <c r="XK3" s="5"/>
+      <c r="XL3" s="5"/>
+      <c r="XM3" s="5"/>
+      <c r="XN3" s="5"/>
+      <c r="XO3" s="5"/>
+      <c r="XP3" s="5"/>
+      <c r="XQ3" s="5"/>
+      <c r="XR3" s="5"/>
+      <c r="XS3" s="5"/>
+      <c r="XT3" s="5"/>
+      <c r="XU3" s="5"/>
+      <c r="XV3" s="5"/>
+      <c r="XW3" s="5"/>
+      <c r="XX3" s="5"/>
+      <c r="XY3" s="5"/>
+      <c r="XZ3" s="5"/>
+      <c r="YA3" s="5"/>
+      <c r="YB3" s="5"/>
+      <c r="YC3" s="5"/>
+      <c r="YD3" s="5"/>
+      <c r="YE3" s="5"/>
+      <c r="YF3" s="5"/>
+      <c r="YG3" s="5"/>
+      <c r="YH3" s="5"/>
+      <c r="YI3" s="5"/>
+      <c r="YJ3" s="5"/>
+      <c r="YK3" s="5"/>
+      <c r="YL3" s="5"/>
+      <c r="YM3" s="5"/>
+      <c r="YN3" s="5"/>
+      <c r="YO3" s="5"/>
+      <c r="YP3" s="5"/>
+      <c r="YQ3" s="5"/>
+      <c r="YR3" s="5"/>
+      <c r="YS3" s="5"/>
+      <c r="YT3" s="5"/>
+      <c r="YU3" s="5"/>
+      <c r="YV3" s="5"/>
+      <c r="YW3" s="5"/>
+      <c r="YX3" s="5"/>
+      <c r="YY3" s="5"/>
+      <c r="YZ3" s="5"/>
+      <c r="ZA3" s="5"/>
+      <c r="ZB3" s="5"/>
+      <c r="ZC3" s="5"/>
+      <c r="ZD3" s="5"/>
+      <c r="ZE3" s="5"/>
+      <c r="ZF3" s="5"/>
+      <c r="ZG3" s="5"/>
+      <c r="ZH3" s="5"/>
+      <c r="ZI3" s="5"/>
+      <c r="ZJ3" s="5"/>
+      <c r="ZK3" s="5"/>
+      <c r="ZL3" s="5"/>
+      <c r="ZM3" s="5"/>
+      <c r="ZN3" s="5"/>
+      <c r="ZO3" s="5"/>
+      <c r="ZP3" s="5"/>
+      <c r="ZQ3" s="5"/>
+      <c r="ZR3" s="5"/>
+      <c r="ZS3" s="5"/>
+      <c r="ZT3" s="5"/>
+      <c r="ZU3" s="5"/>
+      <c r="ZV3" s="5"/>
+      <c r="ZW3" s="5"/>
+      <c r="ZX3" s="5"/>
+      <c r="ZY3" s="5"/>
+      <c r="ZZ3" s="5"/>
+      <c r="AAA3" s="5"/>
+      <c r="AAB3" s="5"/>
+      <c r="AAC3" s="5"/>
+      <c r="AAD3" s="5"/>
+      <c r="AAE3" s="5"/>
+      <c r="AAF3" s="5"/>
+      <c r="AAG3" s="5"/>
+      <c r="AAH3" s="5"/>
+      <c r="AAI3" s="5"/>
+      <c r="AAJ3" s="5"/>
+      <c r="AAK3" s="5"/>
+      <c r="AAL3" s="5"/>
+      <c r="AAM3" s="5"/>
+      <c r="AAN3" s="5"/>
+      <c r="AAO3" s="5"/>
+      <c r="AAP3" s="5"/>
+      <c r="AAQ3" s="5"/>
+      <c r="AAR3" s="5"/>
+      <c r="AAS3" s="5"/>
+      <c r="AAT3" s="5"/>
+      <c r="AAU3" s="5"/>
+      <c r="AAV3" s="5"/>
+      <c r="AAW3" s="5"/>
+      <c r="AAX3" s="5"/>
+      <c r="AAY3" s="5"/>
+      <c r="AAZ3" s="5"/>
+      <c r="ABA3" s="5"/>
+      <c r="ABB3" s="5"/>
+      <c r="ABC3" s="5"/>
+      <c r="ABD3" s="5"/>
+      <c r="ABE3" s="5"/>
+      <c r="ABF3" s="5"/>
+      <c r="ABG3" s="5"/>
+      <c r="ABH3" s="5"/>
+      <c r="ABI3" s="5"/>
+      <c r="ABJ3" s="5"/>
+      <c r="ABK3" s="5"/>
+      <c r="ABL3" s="5"/>
+      <c r="ABM3" s="5"/>
+      <c r="ABN3" s="5"/>
+      <c r="ABO3" s="5"/>
+      <c r="ABP3" s="5"/>
+      <c r="ABQ3" s="5"/>
+      <c r="ABR3" s="5"/>
+      <c r="ABS3" s="5"/>
+      <c r="ABT3" s="5"/>
+      <c r="ABU3" s="5"/>
+      <c r="ABV3" s="5"/>
+      <c r="ABW3" s="5"/>
+      <c r="ABX3" s="5"/>
+      <c r="ABY3" s="5"/>
+      <c r="ABZ3" s="5"/>
+      <c r="ACA3" s="5"/>
+      <c r="ACB3" s="5"/>
+      <c r="ACC3" s="5"/>
+      <c r="ACD3" s="5"/>
+      <c r="ACE3" s="5"/>
+      <c r="ACF3" s="5"/>
+      <c r="ACG3" s="5"/>
+      <c r="ACH3" s="5"/>
+      <c r="ACI3" s="5"/>
+      <c r="ACJ3" s="5"/>
+      <c r="ACK3" s="5"/>
+      <c r="ACL3" s="5"/>
+      <c r="ACM3" s="5"/>
+      <c r="ACN3" s="5"/>
+      <c r="ACO3" s="5"/>
+      <c r="ACP3" s="5"/>
+      <c r="ACQ3" s="5"/>
+      <c r="ACR3" s="5"/>
+      <c r="ACS3" s="5"/>
+      <c r="ACT3" s="5"/>
+      <c r="ACU3" s="5"/>
+      <c r="ACV3" s="5"/>
+      <c r="ACW3" s="5"/>
+      <c r="ACX3" s="5"/>
+      <c r="ACY3" s="5"/>
+      <c r="ACZ3" s="5"/>
+      <c r="ADA3" s="5"/>
+      <c r="ADB3" s="5"/>
+      <c r="ADC3" s="5"/>
+      <c r="ADD3" s="5"/>
+      <c r="ADE3" s="5"/>
+      <c r="ADF3" s="5"/>
+      <c r="ADG3" s="5"/>
+      <c r="ADH3" s="5"/>
+      <c r="ADI3" s="5"/>
+      <c r="ADJ3" s="5"/>
+      <c r="ADK3" s="5"/>
+      <c r="ADL3" s="5"/>
+      <c r="ADM3" s="5"/>
+      <c r="ADN3" s="5"/>
+      <c r="ADO3" s="5"/>
+      <c r="ADP3" s="5"/>
+      <c r="ADQ3" s="5"/>
+      <c r="ADR3" s="5"/>
+      <c r="ADS3" s="5"/>
+      <c r="ADT3" s="5"/>
+      <c r="ADU3" s="5"/>
+      <c r="ADV3" s="5"/>
+      <c r="ADW3" s="5"/>
+      <c r="ADX3" s="5"/>
+      <c r="ADY3" s="5"/>
+      <c r="ADZ3" s="5"/>
+      <c r="AEA3" s="5"/>
+      <c r="AEB3" s="5"/>
+      <c r="AEC3" s="5"/>
+      <c r="AED3" s="5"/>
+      <c r="AEE3" s="5"/>
+      <c r="AEF3" s="5"/>
+      <c r="AEG3" s="5"/>
+      <c r="AEH3" s="5"/>
+      <c r="AEI3" s="5"/>
+      <c r="AEJ3" s="5"/>
+      <c r="AEK3" s="5"/>
+      <c r="AEL3" s="5"/>
+      <c r="AEM3" s="5"/>
+      <c r="AEN3" s="5"/>
+      <c r="AEO3" s="5"/>
+      <c r="AEP3" s="5"/>
+      <c r="AEQ3" s="5"/>
+      <c r="AER3" s="5"/>
+      <c r="AES3" s="5"/>
+      <c r="AET3" s="5"/>
+      <c r="AEU3" s="5"/>
+      <c r="AEV3" s="5"/>
+      <c r="AEW3" s="5"/>
+      <c r="AEX3" s="5"/>
+      <c r="AEY3" s="5"/>
+      <c r="AEZ3" s="5"/>
+      <c r="AFA3" s="5"/>
+      <c r="AFB3" s="5"/>
+      <c r="AFC3" s="5"/>
+      <c r="AFD3" s="5"/>
+      <c r="AFE3" s="5"/>
+      <c r="AFF3" s="5"/>
+      <c r="AFG3" s="5"/>
+      <c r="AFH3" s="5"/>
+      <c r="AFI3" s="5"/>
+      <c r="AFJ3" s="5"/>
+      <c r="AFK3" s="5"/>
+      <c r="AFL3" s="5"/>
+      <c r="AFM3" s="5"/>
+      <c r="AFN3" s="5"/>
+      <c r="AFO3" s="5"/>
+      <c r="AFP3" s="5"/>
+      <c r="AFQ3" s="5"/>
+      <c r="AFR3" s="5"/>
+      <c r="AFS3" s="5"/>
+      <c r="AFT3" s="5"/>
+      <c r="AFU3" s="5"/>
+      <c r="AFV3" s="5"/>
+      <c r="AFW3" s="5"/>
+      <c r="AFX3" s="5"/>
+      <c r="AFY3" s="5"/>
+      <c r="AFZ3" s="5"/>
+      <c r="AGA3" s="5"/>
+      <c r="AGB3" s="5"/>
+      <c r="AGC3" s="5"/>
+      <c r="AGD3" s="5"/>
+      <c r="AGE3" s="5"/>
+      <c r="AGF3" s="5"/>
+      <c r="AGG3" s="5"/>
+      <c r="AGH3" s="5"/>
+      <c r="AGI3" s="5"/>
+      <c r="AGJ3" s="5"/>
+      <c r="AGK3" s="5"/>
+      <c r="AGL3" s="5"/>
+      <c r="AGM3" s="5"/>
+      <c r="AGN3" s="5"/>
+      <c r="AGO3" s="5"/>
+      <c r="AGP3" s="5"/>
+      <c r="AGQ3" s="5"/>
+      <c r="AGR3" s="5"/>
+      <c r="AGS3" s="5"/>
+      <c r="AGT3" s="5"/>
+      <c r="AGU3" s="5"/>
+      <c r="AGV3" s="5"/>
+      <c r="AGW3" s="5"/>
+      <c r="AGX3" s="5"/>
+      <c r="AGY3" s="5"/>
+      <c r="AGZ3" s="5"/>
+      <c r="AHA3" s="5"/>
+      <c r="AHB3" s="5"/>
+      <c r="AHC3" s="5"/>
+      <c r="AHD3" s="5"/>
+      <c r="AHE3" s="5"/>
+      <c r="AHF3" s="5"/>
+      <c r="AHG3" s="5"/>
+      <c r="AHH3" s="5"/>
+      <c r="AHI3" s="5"/>
+      <c r="AHJ3" s="5"/>
+      <c r="AHK3" s="5"/>
+      <c r="AHL3" s="5"/>
+      <c r="AHM3" s="5"/>
+      <c r="AHN3" s="5"/>
+      <c r="AHO3" s="5"/>
+      <c r="AHP3" s="5"/>
+      <c r="AHQ3" s="5"/>
+      <c r="AHR3" s="5"/>
+      <c r="AHS3" s="5"/>
+      <c r="AHT3" s="5"/>
+      <c r="AHU3" s="5"/>
+      <c r="AHV3" s="5"/>
+      <c r="AHW3" s="5"/>
+      <c r="AHX3" s="5"/>
+      <c r="AHY3" s="5"/>
+      <c r="AHZ3" s="5"/>
+      <c r="AIA3" s="5"/>
+      <c r="AIB3" s="5"/>
+      <c r="AIC3" s="5"/>
+      <c r="AID3" s="5"/>
+      <c r="AIE3" s="5"/>
+      <c r="AIF3" s="5"/>
+      <c r="AIG3" s="5"/>
+      <c r="AIH3" s="5"/>
+      <c r="AII3" s="5"/>
+      <c r="AIJ3" s="5"/>
+      <c r="AIK3" s="5"/>
+      <c r="AIL3" s="5"/>
+      <c r="AIM3" s="5"/>
+      <c r="AIN3" s="5"/>
+      <c r="AIO3" s="5"/>
+      <c r="AIP3" s="5"/>
+      <c r="AIQ3" s="5"/>
+      <c r="AIR3" s="5"/>
+      <c r="AIS3" s="5"/>
+      <c r="AIT3" s="5"/>
+      <c r="AIU3" s="5"/>
+      <c r="AIV3" s="5"/>
+      <c r="AIW3" s="5"/>
+      <c r="AIX3" s="5"/>
+      <c r="AIY3" s="5"/>
+      <c r="AIZ3" s="5"/>
+      <c r="AJA3" s="5"/>
+      <c r="AJB3" s="5"/>
+      <c r="AJC3" s="5"/>
+      <c r="AJD3" s="5"/>
+      <c r="AJE3" s="5"/>
+      <c r="AJF3" s="5"/>
+      <c r="AJG3" s="5"/>
+      <c r="AJH3" s="5"/>
+      <c r="AJI3" s="5"/>
+      <c r="AJJ3" s="5"/>
+      <c r="AJK3" s="5"/>
+      <c r="AJL3" s="5"/>
+      <c r="AJM3" s="5"/>
+      <c r="AJN3" s="5"/>
+      <c r="AJO3" s="5"/>
+      <c r="AJP3" s="5"/>
+      <c r="AJQ3" s="5"/>
+      <c r="AJR3" s="5"/>
+      <c r="AJS3" s="5"/>
+      <c r="AJT3" s="5"/>
+      <c r="AJU3" s="5"/>
+      <c r="AJV3" s="5"/>
+      <c r="AJW3" s="5"/>
+      <c r="AJX3" s="5"/>
+      <c r="AJY3" s="5"/>
+      <c r="AJZ3" s="5"/>
+      <c r="AKA3" s="5"/>
+      <c r="AKB3" s="5"/>
+      <c r="AKC3" s="5"/>
+      <c r="AKD3" s="5"/>
+      <c r="AKE3" s="5"/>
+      <c r="AKF3" s="5"/>
+      <c r="AKG3" s="5"/>
+      <c r="AKH3" s="5"/>
+      <c r="AKI3" s="5"/>
+      <c r="AKJ3" s="5"/>
+      <c r="AKK3" s="5"/>
+      <c r="AKL3" s="5"/>
+      <c r="AKM3" s="5"/>
+      <c r="AKN3" s="5"/>
+      <c r="AKO3" s="5"/>
+      <c r="AKP3" s="5"/>
+      <c r="AKQ3" s="5"/>
+      <c r="AKR3" s="5"/>
+      <c r="AKS3" s="5"/>
+      <c r="AKT3" s="5"/>
+      <c r="AKU3" s="5"/>
+      <c r="AKV3" s="5"/>
+      <c r="AKW3" s="5"/>
+      <c r="AKX3" s="5"/>
+      <c r="AKY3" s="5"/>
+      <c r="AKZ3" s="5"/>
+      <c r="ALA3" s="5"/>
+      <c r="ALB3" s="5"/>
+      <c r="ALC3" s="5"/>
+      <c r="ALD3" s="5"/>
+      <c r="ALE3" s="5"/>
+      <c r="ALF3" s="5"/>
+      <c r="ALG3" s="5"/>
+      <c r="ALH3" s="5"/>
+      <c r="ALI3" s="5"/>
+      <c r="ALJ3" s="5"/>
+      <c r="ALK3" s="5"/>
+      <c r="ALL3" s="5"/>
+      <c r="ALM3" s="5"/>
+      <c r="ALN3" s="5"/>
+      <c r="ALO3" s="5"/>
+      <c r="ALP3" s="5"/>
+      <c r="ALQ3" s="5"/>
+      <c r="ALR3" s="5"/>
+      <c r="ALS3" s="5"/>
+      <c r="ALT3" s="5"/>
+      <c r="ALU3" s="5"/>
+      <c r="ALV3" s="5"/>
+      <c r="ALW3" s="5"/>
+      <c r="ALX3" s="5"/>
+      <c r="ALY3" s="5"/>
+      <c r="ALZ3" s="5"/>
+      <c r="AMA3" s="5"/>
+      <c r="AMB3" s="5"/>
+      <c r="AMC3" s="5"/>
+      <c r="AMD3" s="5"/>
+      <c r="AME3" s="5"/>
+      <c r="AMF3" s="5"/>
+      <c r="AMG3" s="5"/>
+      <c r="AMH3" s="5"/>
+    </row>
+    <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
+      <c r="DP4" s="5"/>
+      <c r="DQ4" s="5"/>
+      <c r="DR4" s="5"/>
+      <c r="DS4" s="5"/>
+      <c r="DT4" s="5"/>
+      <c r="DU4" s="5"/>
+      <c r="DV4" s="5"/>
+      <c r="DW4" s="5"/>
+      <c r="DX4" s="5"/>
+      <c r="DY4" s="5"/>
+      <c r="DZ4" s="5"/>
+      <c r="EA4" s="5"/>
+      <c r="EB4" s="5"/>
+      <c r="EC4" s="5"/>
+      <c r="ED4" s="5"/>
+      <c r="EE4" s="5"/>
+      <c r="EF4" s="5"/>
+      <c r="EG4" s="5"/>
+      <c r="EH4" s="5"/>
+      <c r="EI4" s="5"/>
+      <c r="EJ4" s="5"/>
+      <c r="EK4" s="5"/>
+      <c r="EL4" s="5"/>
+      <c r="EM4" s="5"/>
+      <c r="EN4" s="5"/>
+      <c r="EO4" s="5"/>
+      <c r="EP4" s="5"/>
+      <c r="EQ4" s="5"/>
+      <c r="ER4" s="5"/>
+      <c r="ES4" s="5"/>
+      <c r="ET4" s="5"/>
+      <c r="EU4" s="5"/>
+      <c r="EV4" s="5"/>
+      <c r="EW4" s="5"/>
+      <c r="EX4" s="5"/>
+      <c r="EY4" s="5"/>
+      <c r="EZ4" s="5"/>
+      <c r="FA4" s="5"/>
+      <c r="FB4" s="5"/>
+      <c r="FC4" s="5"/>
+      <c r="FD4" s="5"/>
+      <c r="FE4" s="5"/>
+      <c r="FF4" s="5"/>
+      <c r="FG4" s="5"/>
+      <c r="FH4" s="5"/>
+      <c r="FI4" s="5"/>
+      <c r="FJ4" s="5"/>
+      <c r="FK4" s="5"/>
+      <c r="FL4" s="5"/>
+      <c r="FM4" s="5"/>
+      <c r="FN4" s="5"/>
+      <c r="FO4" s="5"/>
+      <c r="FP4" s="5"/>
+      <c r="FQ4" s="5"/>
+      <c r="FR4" s="5"/>
+      <c r="FS4" s="5"/>
+      <c r="FT4" s="5"/>
+      <c r="FU4" s="5"/>
+      <c r="FV4" s="5"/>
+      <c r="FW4" s="5"/>
+      <c r="FX4" s="5"/>
+      <c r="FY4" s="5"/>
+      <c r="FZ4" s="5"/>
+      <c r="GA4" s="5"/>
+      <c r="GB4" s="5"/>
+      <c r="GC4" s="5"/>
+      <c r="GD4" s="5"/>
+      <c r="GE4" s="5"/>
+      <c r="GF4" s="5"/>
+      <c r="GG4" s="5"/>
+      <c r="GH4" s="5"/>
+      <c r="GI4" s="5"/>
+      <c r="GJ4" s="5"/>
+      <c r="GK4" s="5"/>
+      <c r="GL4" s="5"/>
+      <c r="GM4" s="5"/>
+      <c r="GN4" s="5"/>
+      <c r="GO4" s="5"/>
+      <c r="GP4" s="5"/>
+      <c r="GQ4" s="5"/>
+      <c r="GR4" s="5"/>
+      <c r="GS4" s="5"/>
+      <c r="GT4" s="5"/>
+      <c r="GU4" s="5"/>
+      <c r="GV4" s="5"/>
+      <c r="GW4" s="5"/>
+      <c r="GX4" s="5"/>
+      <c r="GY4" s="5"/>
+      <c r="GZ4" s="5"/>
+      <c r="HA4" s="5"/>
+      <c r="HB4" s="5"/>
+      <c r="HC4" s="5"/>
+      <c r="HD4" s="5"/>
+      <c r="HE4" s="5"/>
+      <c r="HF4" s="5"/>
+      <c r="HG4" s="5"/>
+      <c r="HH4" s="5"/>
+      <c r="HI4" s="5"/>
+      <c r="HJ4" s="5"/>
+      <c r="HK4" s="5"/>
+      <c r="HL4" s="5"/>
+      <c r="HM4" s="5"/>
+      <c r="HN4" s="5"/>
+      <c r="HO4" s="5"/>
+      <c r="HP4" s="5"/>
+      <c r="HQ4" s="5"/>
+      <c r="HR4" s="5"/>
+      <c r="HS4" s="5"/>
+      <c r="HT4" s="5"/>
+      <c r="HU4" s="5"/>
+      <c r="HV4" s="5"/>
+      <c r="HW4" s="5"/>
+      <c r="HX4" s="5"/>
+      <c r="HY4" s="5"/>
+      <c r="HZ4" s="5"/>
+      <c r="IA4" s="5"/>
+      <c r="IB4" s="5"/>
+      <c r="IC4" s="5"/>
+      <c r="ID4" s="5"/>
+      <c r="IE4" s="5"/>
+      <c r="IF4" s="5"/>
+      <c r="IG4" s="5"/>
+      <c r="IH4" s="5"/>
+      <c r="II4" s="5"/>
+      <c r="IJ4" s="5"/>
+      <c r="IK4" s="5"/>
+      <c r="IL4" s="5"/>
+      <c r="IM4" s="5"/>
+      <c r="IN4" s="5"/>
+      <c r="IO4" s="5"/>
+      <c r="IP4" s="5"/>
+      <c r="IQ4" s="5"/>
+      <c r="IR4" s="5"/>
+      <c r="IS4" s="5"/>
+      <c r="IT4" s="5"/>
+      <c r="IU4" s="5"/>
+      <c r="IV4" s="5"/>
+      <c r="IW4" s="5"/>
+      <c r="IX4" s="5"/>
+      <c r="IY4" s="5"/>
+      <c r="IZ4" s="5"/>
+      <c r="JA4" s="5"/>
+      <c r="JB4" s="5"/>
+      <c r="JC4" s="5"/>
+      <c r="JD4" s="5"/>
+      <c r="JE4" s="5"/>
+      <c r="JF4" s="5"/>
+      <c r="JG4" s="5"/>
+      <c r="JH4" s="5"/>
+      <c r="JI4" s="5"/>
+      <c r="JJ4" s="5"/>
+      <c r="JK4" s="5"/>
+      <c r="JL4" s="5"/>
+      <c r="JM4" s="5"/>
+      <c r="JN4" s="5"/>
+      <c r="JO4" s="5"/>
+      <c r="JP4" s="5"/>
+      <c r="JQ4" s="5"/>
+      <c r="JR4" s="5"/>
+      <c r="JS4" s="5"/>
+      <c r="JT4" s="5"/>
+      <c r="JU4" s="5"/>
+      <c r="JV4" s="5"/>
+      <c r="JW4" s="5"/>
+      <c r="JX4" s="5"/>
+      <c r="JY4" s="5"/>
+      <c r="JZ4" s="5"/>
+      <c r="KA4" s="5"/>
+      <c r="KB4" s="5"/>
+      <c r="KC4" s="5"/>
+      <c r="KD4" s="5"/>
+      <c r="KE4" s="5"/>
+      <c r="KF4" s="5"/>
+      <c r="KG4" s="5"/>
+      <c r="KH4" s="5"/>
+      <c r="KI4" s="5"/>
+      <c r="KJ4" s="5"/>
+      <c r="KK4" s="5"/>
+      <c r="KL4" s="5"/>
+      <c r="KM4" s="5"/>
+      <c r="KN4" s="5"/>
+      <c r="KO4" s="5"/>
+      <c r="KP4" s="5"/>
+      <c r="KQ4" s="5"/>
+      <c r="KR4" s="5"/>
+      <c r="KS4" s="5"/>
+      <c r="KT4" s="5"/>
+      <c r="KU4" s="5"/>
+      <c r="KV4" s="5"/>
+      <c r="KW4" s="5"/>
+      <c r="KX4" s="5"/>
+      <c r="KY4" s="5"/>
+      <c r="KZ4" s="5"/>
+      <c r="LA4" s="5"/>
+      <c r="LB4" s="5"/>
+      <c r="LC4" s="5"/>
+      <c r="LD4" s="5"/>
+      <c r="LE4" s="5"/>
+      <c r="LF4" s="5"/>
+      <c r="LG4" s="5"/>
+      <c r="LH4" s="5"/>
+      <c r="LI4" s="5"/>
+      <c r="LJ4" s="5"/>
+      <c r="LK4" s="5"/>
+      <c r="LL4" s="5"/>
+      <c r="LM4" s="5"/>
+      <c r="LN4" s="5"/>
+      <c r="LO4" s="5"/>
+      <c r="LP4" s="5"/>
+      <c r="LQ4" s="5"/>
+      <c r="LR4" s="5"/>
+      <c r="LS4" s="5"/>
+      <c r="LT4" s="5"/>
+      <c r="LU4" s="5"/>
+      <c r="LV4" s="5"/>
+      <c r="LW4" s="5"/>
+      <c r="LX4" s="5"/>
+      <c r="LY4" s="5"/>
+      <c r="LZ4" s="5"/>
+      <c r="MA4" s="5"/>
+      <c r="MB4" s="5"/>
+      <c r="MC4" s="5"/>
+      <c r="MD4" s="5"/>
+      <c r="ME4" s="5"/>
+      <c r="MF4" s="5"/>
+      <c r="MG4" s="5"/>
+      <c r="MH4" s="5"/>
+      <c r="MI4" s="5"/>
+      <c r="MJ4" s="5"/>
+      <c r="MK4" s="5"/>
+      <c r="ML4" s="5"/>
+      <c r="MM4" s="5"/>
+      <c r="MN4" s="5"/>
+      <c r="MO4" s="5"/>
+      <c r="MP4" s="5"/>
+      <c r="MQ4" s="5"/>
+      <c r="MR4" s="5"/>
+      <c r="MS4" s="5"/>
+      <c r="MT4" s="5"/>
+      <c r="MU4" s="5"/>
+      <c r="MV4" s="5"/>
+      <c r="MW4" s="5"/>
+      <c r="MX4" s="5"/>
+      <c r="MY4" s="5"/>
+      <c r="MZ4" s="5"/>
+      <c r="NA4" s="5"/>
+      <c r="NB4" s="5"/>
+      <c r="NC4" s="5"/>
+      <c r="ND4" s="5"/>
+      <c r="NE4" s="5"/>
+      <c r="NF4" s="5"/>
+      <c r="NG4" s="5"/>
+      <c r="NH4" s="5"/>
+      <c r="NI4" s="5"/>
+      <c r="NJ4" s="5"/>
+      <c r="NK4" s="5"/>
+      <c r="NL4" s="5"/>
+      <c r="NM4" s="5"/>
+      <c r="NN4" s="5"/>
+      <c r="NO4" s="5"/>
+      <c r="NP4" s="5"/>
+      <c r="NQ4" s="5"/>
+      <c r="NR4" s="5"/>
+      <c r="NS4" s="5"/>
+      <c r="NT4" s="5"/>
+      <c r="NU4" s="5"/>
+      <c r="NV4" s="5"/>
+      <c r="NW4" s="5"/>
+      <c r="NX4" s="5"/>
+      <c r="NY4" s="5"/>
+      <c r="NZ4" s="5"/>
+      <c r="OA4" s="5"/>
+      <c r="OB4" s="5"/>
+      <c r="OC4" s="5"/>
+      <c r="OD4" s="5"/>
+      <c r="OE4" s="5"/>
+      <c r="OF4" s="5"/>
+      <c r="OG4" s="5"/>
+      <c r="OH4" s="5"/>
+      <c r="OI4" s="5"/>
+      <c r="OJ4" s="5"/>
+      <c r="OK4" s="5"/>
+      <c r="OL4" s="5"/>
+      <c r="OM4" s="5"/>
+      <c r="ON4" s="5"/>
+      <c r="OO4" s="5"/>
+      <c r="OP4" s="5"/>
+      <c r="OQ4" s="5"/>
+      <c r="OR4" s="5"/>
+      <c r="OS4" s="5"/>
+      <c r="OT4" s="5"/>
+      <c r="OU4" s="5"/>
+      <c r="OV4" s="5"/>
+      <c r="OW4" s="5"/>
+      <c r="OX4" s="5"/>
+      <c r="OY4" s="5"/>
+      <c r="OZ4" s="5"/>
+      <c r="PA4" s="5"/>
+      <c r="PB4" s="5"/>
+      <c r="PC4" s="5"/>
+      <c r="PD4" s="5"/>
+      <c r="PE4" s="5"/>
+      <c r="PF4" s="5"/>
+      <c r="PG4" s="5"/>
+      <c r="PH4" s="5"/>
+      <c r="PI4" s="5"/>
+      <c r="PJ4" s="5"/>
+      <c r="PK4" s="5"/>
+      <c r="PL4" s="5"/>
+      <c r="PM4" s="5"/>
+      <c r="PN4" s="5"/>
+      <c r="PO4" s="5"/>
+      <c r="PP4" s="5"/>
+      <c r="PQ4" s="5"/>
+      <c r="PR4" s="5"/>
+      <c r="PS4" s="5"/>
+      <c r="PT4" s="5"/>
+      <c r="PU4" s="5"/>
+      <c r="PV4" s="5"/>
+      <c r="PW4" s="5"/>
+      <c r="PX4" s="5"/>
+      <c r="PY4" s="5"/>
+      <c r="PZ4" s="5"/>
+      <c r="QA4" s="5"/>
+      <c r="QB4" s="5"/>
+      <c r="QC4" s="5"/>
+      <c r="QD4" s="5"/>
+      <c r="QE4" s="5"/>
+      <c r="QF4" s="5"/>
+      <c r="QG4" s="5"/>
+      <c r="QH4" s="5"/>
+      <c r="QI4" s="5"/>
+      <c r="QJ4" s="5"/>
+      <c r="QK4" s="5"/>
+      <c r="QL4" s="5"/>
+      <c r="QM4" s="5"/>
+      <c r="QN4" s="5"/>
+      <c r="QO4" s="5"/>
+      <c r="QP4" s="5"/>
+      <c r="QQ4" s="5"/>
+      <c r="QR4" s="5"/>
+      <c r="QS4" s="5"/>
+      <c r="QT4" s="5"/>
+      <c r="QU4" s="5"/>
+      <c r="QV4" s="5"/>
+      <c r="QW4" s="5"/>
+      <c r="QX4" s="5"/>
+      <c r="QY4" s="5"/>
+      <c r="QZ4" s="5"/>
+      <c r="RA4" s="5"/>
+      <c r="RB4" s="5"/>
+      <c r="RC4" s="5"/>
+      <c r="RD4" s="5"/>
+      <c r="RE4" s="5"/>
+      <c r="RF4" s="5"/>
+      <c r="RG4" s="5"/>
+      <c r="RH4" s="5"/>
+      <c r="RI4" s="5"/>
+      <c r="RJ4" s="5"/>
+      <c r="RK4" s="5"/>
+      <c r="RL4" s="5"/>
+      <c r="RM4" s="5"/>
+      <c r="RN4" s="5"/>
+      <c r="RO4" s="5"/>
+      <c r="RP4" s="5"/>
+      <c r="RQ4" s="5"/>
+      <c r="RR4" s="5"/>
+      <c r="RS4" s="5"/>
+      <c r="RT4" s="5"/>
+      <c r="RU4" s="5"/>
+      <c r="RV4" s="5"/>
+      <c r="RW4" s="5"/>
+      <c r="RX4" s="5"/>
+      <c r="RY4" s="5"/>
+      <c r="RZ4" s="5"/>
+      <c r="SA4" s="5"/>
+      <c r="SB4" s="5"/>
+      <c r="SC4" s="5"/>
+      <c r="SD4" s="5"/>
+      <c r="SE4" s="5"/>
+      <c r="SF4" s="5"/>
+      <c r="SG4" s="5"/>
+      <c r="SH4" s="5"/>
+      <c r="SI4" s="5"/>
+      <c r="SJ4" s="5"/>
+      <c r="SK4" s="5"/>
+      <c r="SL4" s="5"/>
+      <c r="SM4" s="5"/>
+      <c r="SN4" s="5"/>
+      <c r="SO4" s="5"/>
+      <c r="SP4" s="5"/>
+      <c r="SQ4" s="5"/>
+      <c r="SR4" s="5"/>
+      <c r="SS4" s="5"/>
+      <c r="ST4" s="5"/>
+      <c r="SU4" s="5"/>
+      <c r="SV4" s="5"/>
+      <c r="SW4" s="5"/>
+      <c r="SX4" s="5"/>
+      <c r="SY4" s="5"/>
+      <c r="SZ4" s="5"/>
+      <c r="TA4" s="5"/>
+      <c r="TB4" s="5"/>
+      <c r="TC4" s="5"/>
+      <c r="TD4" s="5"/>
+      <c r="TE4" s="5"/>
+      <c r="TF4" s="5"/>
+      <c r="TG4" s="5"/>
+      <c r="TH4" s="5"/>
+      <c r="TI4" s="5"/>
+      <c r="TJ4" s="5"/>
+      <c r="TK4" s="5"/>
+      <c r="TL4" s="5"/>
+      <c r="TM4" s="5"/>
+      <c r="TN4" s="5"/>
+      <c r="TO4" s="5"/>
+      <c r="TP4" s="5"/>
+      <c r="TQ4" s="5"/>
+      <c r="TR4" s="5"/>
+      <c r="TS4" s="5"/>
+      <c r="TT4" s="5"/>
+      <c r="TU4" s="5"/>
+      <c r="TV4" s="5"/>
+      <c r="TW4" s="5"/>
+      <c r="TX4" s="5"/>
+      <c r="TY4" s="5"/>
+      <c r="TZ4" s="5"/>
+      <c r="UA4" s="5"/>
+      <c r="UB4" s="5"/>
+      <c r="UC4" s="5"/>
+      <c r="UD4" s="5"/>
+      <c r="UE4" s="5"/>
+      <c r="UF4" s="5"/>
+      <c r="UG4" s="5"/>
+      <c r="UH4" s="5"/>
+      <c r="UI4" s="5"/>
+      <c r="UJ4" s="5"/>
+      <c r="UK4" s="5"/>
+      <c r="UL4" s="5"/>
+      <c r="UM4" s="5"/>
+      <c r="UN4" s="5"/>
+      <c r="UO4" s="5"/>
+      <c r="UP4" s="5"/>
+      <c r="UQ4" s="5"/>
+      <c r="UR4" s="5"/>
+      <c r="US4" s="5"/>
+      <c r="UT4" s="5"/>
+      <c r="UU4" s="5"/>
+      <c r="UV4" s="5"/>
+      <c r="UW4" s="5"/>
+      <c r="UX4" s="5"/>
+      <c r="UY4" s="5"/>
+      <c r="UZ4" s="5"/>
+      <c r="VA4" s="5"/>
+      <c r="VB4" s="5"/>
+      <c r="VC4" s="5"/>
+      <c r="VD4" s="5"/>
+      <c r="VE4" s="5"/>
+      <c r="VF4" s="5"/>
+      <c r="VG4" s="5"/>
+      <c r="VH4" s="5"/>
+      <c r="VI4" s="5"/>
+      <c r="VJ4" s="5"/>
+      <c r="VK4" s="5"/>
+      <c r="VL4" s="5"/>
+      <c r="VM4" s="5"/>
+      <c r="VN4" s="5"/>
+      <c r="VO4" s="5"/>
+      <c r="VP4" s="5"/>
+      <c r="VQ4" s="5"/>
+      <c r="VR4" s="5"/>
+      <c r="VS4" s="5"/>
+      <c r="VT4" s="5"/>
+      <c r="VU4" s="5"/>
+      <c r="VV4" s="5"/>
+      <c r="VW4" s="5"/>
+      <c r="VX4" s="5"/>
+      <c r="VY4" s="5"/>
+      <c r="VZ4" s="5"/>
+      <c r="WA4" s="5"/>
+      <c r="WB4" s="5"/>
+      <c r="WC4" s="5"/>
+      <c r="WD4" s="5"/>
+      <c r="WE4" s="5"/>
+      <c r="WF4" s="5"/>
+      <c r="WG4" s="5"/>
+      <c r="WH4" s="5"/>
+      <c r="WI4" s="5"/>
+      <c r="WJ4" s="5"/>
+      <c r="WK4" s="5"/>
+      <c r="WL4" s="5"/>
+      <c r="WM4" s="5"/>
+      <c r="WN4" s="5"/>
+      <c r="WO4" s="5"/>
+      <c r="WP4" s="5"/>
+      <c r="WQ4" s="5"/>
+      <c r="WR4" s="5"/>
+      <c r="WS4" s="5"/>
+      <c r="WT4" s="5"/>
+      <c r="WU4" s="5"/>
+      <c r="WV4" s="5"/>
+      <c r="WW4" s="5"/>
+      <c r="WX4" s="5"/>
+      <c r="WY4" s="5"/>
+      <c r="WZ4" s="5"/>
+      <c r="XA4" s="5"/>
+      <c r="XB4" s="5"/>
+      <c r="XC4" s="5"/>
+      <c r="XD4" s="5"/>
+      <c r="XE4" s="5"/>
+      <c r="XF4" s="5"/>
+      <c r="XG4" s="5"/>
+      <c r="XH4" s="5"/>
+      <c r="XI4" s="5"/>
+      <c r="XJ4" s="5"/>
+      <c r="XK4" s="5"/>
+      <c r="XL4" s="5"/>
+      <c r="XM4" s="5"/>
+      <c r="XN4" s="5"/>
+      <c r="XO4" s="5"/>
+      <c r="XP4" s="5"/>
+      <c r="XQ4" s="5"/>
+      <c r="XR4" s="5"/>
+      <c r="XS4" s="5"/>
+      <c r="XT4" s="5"/>
+      <c r="XU4" s="5"/>
+      <c r="XV4" s="5"/>
+      <c r="XW4" s="5"/>
+      <c r="XX4" s="5"/>
+      <c r="XY4" s="5"/>
+      <c r="XZ4" s="5"/>
+      <c r="YA4" s="5"/>
+      <c r="YB4" s="5"/>
+      <c r="YC4" s="5"/>
+      <c r="YD4" s="5"/>
+      <c r="YE4" s="5"/>
+      <c r="YF4" s="5"/>
+      <c r="YG4" s="5"/>
+      <c r="YH4" s="5"/>
+      <c r="YI4" s="5"/>
+      <c r="YJ4" s="5"/>
+      <c r="YK4" s="5"/>
+      <c r="YL4" s="5"/>
+      <c r="YM4" s="5"/>
+      <c r="YN4" s="5"/>
+      <c r="YO4" s="5"/>
+      <c r="YP4" s="5"/>
+      <c r="YQ4" s="5"/>
+      <c r="YR4" s="5"/>
+      <c r="YS4" s="5"/>
+      <c r="YT4" s="5"/>
+      <c r="YU4" s="5"/>
+      <c r="YV4" s="5"/>
+      <c r="YW4" s="5"/>
+      <c r="YX4" s="5"/>
+      <c r="YY4" s="5"/>
+      <c r="YZ4" s="5"/>
+      <c r="ZA4" s="5"/>
+      <c r="ZB4" s="5"/>
+      <c r="ZC4" s="5"/>
+      <c r="ZD4" s="5"/>
+      <c r="ZE4" s="5"/>
+      <c r="ZF4" s="5"/>
+      <c r="ZG4" s="5"/>
+      <c r="ZH4" s="5"/>
+      <c r="ZI4" s="5"/>
+      <c r="ZJ4" s="5"/>
+      <c r="ZK4" s="5"/>
+      <c r="ZL4" s="5"/>
+      <c r="ZM4" s="5"/>
+      <c r="ZN4" s="5"/>
+      <c r="ZO4" s="5"/>
+      <c r="ZP4" s="5"/>
+      <c r="ZQ4" s="5"/>
+      <c r="ZR4" s="5"/>
+      <c r="ZS4" s="5"/>
+      <c r="ZT4" s="5"/>
+      <c r="ZU4" s="5"/>
+      <c r="ZV4" s="5"/>
+      <c r="ZW4" s="5"/>
+      <c r="ZX4" s="5"/>
+      <c r="ZY4" s="5"/>
+      <c r="ZZ4" s="5"/>
+      <c r="AAA4" s="5"/>
+      <c r="AAB4" s="5"/>
+      <c r="AAC4" s="5"/>
+      <c r="AAD4" s="5"/>
+      <c r="AAE4" s="5"/>
+      <c r="AAF4" s="5"/>
+      <c r="AAG4" s="5"/>
+      <c r="AAH4" s="5"/>
+      <c r="AAI4" s="5"/>
+      <c r="AAJ4" s="5"/>
+      <c r="AAK4" s="5"/>
+      <c r="AAL4" s="5"/>
+      <c r="AAM4" s="5"/>
+      <c r="AAN4" s="5"/>
+      <c r="AAO4" s="5"/>
+      <c r="AAP4" s="5"/>
+      <c r="AAQ4" s="5"/>
+      <c r="AAR4" s="5"/>
+      <c r="AAS4" s="5"/>
+      <c r="AAT4" s="5"/>
+      <c r="AAU4" s="5"/>
+      <c r="AAV4" s="5"/>
+      <c r="AAW4" s="5"/>
+      <c r="AAX4" s="5"/>
+      <c r="AAY4" s="5"/>
+      <c r="AAZ4" s="5"/>
+      <c r="ABA4" s="5"/>
+      <c r="ABB4" s="5"/>
+      <c r="ABC4" s="5"/>
+      <c r="ABD4" s="5"/>
+      <c r="ABE4" s="5"/>
+      <c r="ABF4" s="5"/>
+      <c r="ABG4" s="5"/>
+      <c r="ABH4" s="5"/>
+      <c r="ABI4" s="5"/>
+      <c r="ABJ4" s="5"/>
+      <c r="ABK4" s="5"/>
+      <c r="ABL4" s="5"/>
+      <c r="ABM4" s="5"/>
+      <c r="ABN4" s="5"/>
+      <c r="ABO4" s="5"/>
+      <c r="ABP4" s="5"/>
+      <c r="ABQ4" s="5"/>
+      <c r="ABR4" s="5"/>
+      <c r="ABS4" s="5"/>
+      <c r="ABT4" s="5"/>
+      <c r="ABU4" s="5"/>
+      <c r="ABV4" s="5"/>
+      <c r="ABW4" s="5"/>
+      <c r="ABX4" s="5"/>
+      <c r="ABY4" s="5"/>
+      <c r="ABZ4" s="5"/>
+      <c r="ACA4" s="5"/>
+      <c r="ACB4" s="5"/>
+      <c r="ACC4" s="5"/>
+      <c r="ACD4" s="5"/>
+      <c r="ACE4" s="5"/>
+      <c r="ACF4" s="5"/>
+      <c r="ACG4" s="5"/>
+      <c r="ACH4" s="5"/>
+      <c r="ACI4" s="5"/>
+      <c r="ACJ4" s="5"/>
+      <c r="ACK4" s="5"/>
+      <c r="ACL4" s="5"/>
+      <c r="ACM4" s="5"/>
+      <c r="ACN4" s="5"/>
+      <c r="ACO4" s="5"/>
+      <c r="ACP4" s="5"/>
+      <c r="ACQ4" s="5"/>
+      <c r="ACR4" s="5"/>
+      <c r="ACS4" s="5"/>
+      <c r="ACT4" s="5"/>
+      <c r="ACU4" s="5"/>
+      <c r="ACV4" s="5"/>
+      <c r="ACW4" s="5"/>
+      <c r="ACX4" s="5"/>
+      <c r="ACY4" s="5"/>
+      <c r="ACZ4" s="5"/>
+      <c r="ADA4" s="5"/>
+      <c r="ADB4" s="5"/>
+      <c r="ADC4" s="5"/>
+      <c r="ADD4" s="5"/>
+      <c r="ADE4" s="5"/>
+      <c r="ADF4" s="5"/>
+      <c r="ADG4" s="5"/>
+      <c r="ADH4" s="5"/>
+      <c r="ADI4" s="5"/>
+      <c r="ADJ4" s="5"/>
+      <c r="ADK4" s="5"/>
+      <c r="ADL4" s="5"/>
+      <c r="ADM4" s="5"/>
+      <c r="ADN4" s="5"/>
+      <c r="ADO4" s="5"/>
+      <c r="ADP4" s="5"/>
+      <c r="ADQ4" s="5"/>
+      <c r="ADR4" s="5"/>
+      <c r="ADS4" s="5"/>
+      <c r="ADT4" s="5"/>
+      <c r="ADU4" s="5"/>
+      <c r="ADV4" s="5"/>
+      <c r="ADW4" s="5"/>
+      <c r="ADX4" s="5"/>
+      <c r="ADY4" s="5"/>
+      <c r="ADZ4" s="5"/>
+      <c r="AEA4" s="5"/>
+      <c r="AEB4" s="5"/>
+      <c r="AEC4" s="5"/>
+      <c r="AED4" s="5"/>
+      <c r="AEE4" s="5"/>
+      <c r="AEF4" s="5"/>
+      <c r="AEG4" s="5"/>
+      <c r="AEH4" s="5"/>
+      <c r="AEI4" s="5"/>
+      <c r="AEJ4" s="5"/>
+      <c r="AEK4" s="5"/>
+      <c r="AEL4" s="5"/>
+      <c r="AEM4" s="5"/>
+      <c r="AEN4" s="5"/>
+      <c r="AEO4" s="5"/>
+      <c r="AEP4" s="5"/>
+      <c r="AEQ4" s="5"/>
+      <c r="AER4" s="5"/>
+      <c r="AES4" s="5"/>
+      <c r="AET4" s="5"/>
+      <c r="AEU4" s="5"/>
+      <c r="AEV4" s="5"/>
+      <c r="AEW4" s="5"/>
+      <c r="AEX4" s="5"/>
+      <c r="AEY4" s="5"/>
+      <c r="AEZ4" s="5"/>
+      <c r="AFA4" s="5"/>
+      <c r="AFB4" s="5"/>
+      <c r="AFC4" s="5"/>
+      <c r="AFD4" s="5"/>
+      <c r="AFE4" s="5"/>
+      <c r="AFF4" s="5"/>
+      <c r="AFG4" s="5"/>
+      <c r="AFH4" s="5"/>
+      <c r="AFI4" s="5"/>
+      <c r="AFJ4" s="5"/>
+      <c r="AFK4" s="5"/>
+      <c r="AFL4" s="5"/>
+      <c r="AFM4" s="5"/>
+      <c r="AFN4" s="5"/>
+      <c r="AFO4" s="5"/>
+      <c r="AFP4" s="5"/>
+      <c r="AFQ4" s="5"/>
+      <c r="AFR4" s="5"/>
+      <c r="AFS4" s="5"/>
+      <c r="AFT4" s="5"/>
+      <c r="AFU4" s="5"/>
+      <c r="AFV4" s="5"/>
+      <c r="AFW4" s="5"/>
+      <c r="AFX4" s="5"/>
+      <c r="AFY4" s="5"/>
+      <c r="AFZ4" s="5"/>
+      <c r="AGA4" s="5"/>
+      <c r="AGB4" s="5"/>
+      <c r="AGC4" s="5"/>
+      <c r="AGD4" s="5"/>
+      <c r="AGE4" s="5"/>
+      <c r="AGF4" s="5"/>
+      <c r="AGG4" s="5"/>
+      <c r="AGH4" s="5"/>
+      <c r="AGI4" s="5"/>
+      <c r="AGJ4" s="5"/>
+      <c r="AGK4" s="5"/>
+      <c r="AGL4" s="5"/>
+      <c r="AGM4" s="5"/>
+      <c r="AGN4" s="5"/>
+      <c r="AGO4" s="5"/>
+      <c r="AGP4" s="5"/>
+      <c r="AGQ4" s="5"/>
+      <c r="AGR4" s="5"/>
+      <c r="AGS4" s="5"/>
+      <c r="AGT4" s="5"/>
+      <c r="AGU4" s="5"/>
+      <c r="AGV4" s="5"/>
+      <c r="AGW4" s="5"/>
+      <c r="AGX4" s="5"/>
+      <c r="AGY4" s="5"/>
+      <c r="AGZ4" s="5"/>
+      <c r="AHA4" s="5"/>
+      <c r="AHB4" s="5"/>
+      <c r="AHC4" s="5"/>
+      <c r="AHD4" s="5"/>
+      <c r="AHE4" s="5"/>
+      <c r="AHF4" s="5"/>
+      <c r="AHG4" s="5"/>
+      <c r="AHH4" s="5"/>
+      <c r="AHI4" s="5"/>
+      <c r="AHJ4" s="5"/>
+      <c r="AHK4" s="5"/>
+      <c r="AHL4" s="5"/>
+      <c r="AHM4" s="5"/>
+      <c r="AHN4" s="5"/>
+      <c r="AHO4" s="5"/>
+      <c r="AHP4" s="5"/>
+      <c r="AHQ4" s="5"/>
+      <c r="AHR4" s="5"/>
+      <c r="AHS4" s="5"/>
+      <c r="AHT4" s="5"/>
+      <c r="AHU4" s="5"/>
+      <c r="AHV4" s="5"/>
+      <c r="AHW4" s="5"/>
+      <c r="AHX4" s="5"/>
+      <c r="AHY4" s="5"/>
+      <c r="AHZ4" s="5"/>
+      <c r="AIA4" s="5"/>
+      <c r="AIB4" s="5"/>
+      <c r="AIC4" s="5"/>
+      <c r="AID4" s="5"/>
+      <c r="AIE4" s="5"/>
+      <c r="AIF4" s="5"/>
+      <c r="AIG4" s="5"/>
+      <c r="AIH4" s="5"/>
+      <c r="AII4" s="5"/>
+      <c r="AIJ4" s="5"/>
+      <c r="AIK4" s="5"/>
+      <c r="AIL4" s="5"/>
+      <c r="AIM4" s="5"/>
+      <c r="AIN4" s="5"/>
+      <c r="AIO4" s="5"/>
+      <c r="AIP4" s="5"/>
+      <c r="AIQ4" s="5"/>
+      <c r="AIR4" s="5"/>
+      <c r="AIS4" s="5"/>
+      <c r="AIT4" s="5"/>
+      <c r="AIU4" s="5"/>
+      <c r="AIV4" s="5"/>
+      <c r="AIW4" s="5"/>
+      <c r="AIX4" s="5"/>
+      <c r="AIY4" s="5"/>
+      <c r="AIZ4" s="5"/>
+      <c r="AJA4" s="5"/>
+      <c r="AJB4" s="5"/>
+      <c r="AJC4" s="5"/>
+      <c r="AJD4" s="5"/>
+      <c r="AJE4" s="5"/>
+      <c r="AJF4" s="5"/>
+      <c r="AJG4" s="5"/>
+      <c r="AJH4" s="5"/>
+      <c r="AJI4" s="5"/>
+      <c r="AJJ4" s="5"/>
+      <c r="AJK4" s="5"/>
+      <c r="AJL4" s="5"/>
+      <c r="AJM4" s="5"/>
+      <c r="AJN4" s="5"/>
+      <c r="AJO4" s="5"/>
+      <c r="AJP4" s="5"/>
+      <c r="AJQ4" s="5"/>
+      <c r="AJR4" s="5"/>
+      <c r="AJS4" s="5"/>
+      <c r="AJT4" s="5"/>
+      <c r="AJU4" s="5"/>
+      <c r="AJV4" s="5"/>
+      <c r="AJW4" s="5"/>
+      <c r="AJX4" s="5"/>
+      <c r="AJY4" s="5"/>
+      <c r="AJZ4" s="5"/>
+      <c r="AKA4" s="5"/>
+      <c r="AKB4" s="5"/>
+      <c r="AKC4" s="5"/>
+      <c r="AKD4" s="5"/>
+      <c r="AKE4" s="5"/>
+      <c r="AKF4" s="5"/>
+      <c r="AKG4" s="5"/>
+      <c r="AKH4" s="5"/>
+      <c r="AKI4" s="5"/>
+      <c r="AKJ4" s="5"/>
+      <c r="AKK4" s="5"/>
+      <c r="AKL4" s="5"/>
+      <c r="AKM4" s="5"/>
+      <c r="AKN4" s="5"/>
+      <c r="AKO4" s="5"/>
+      <c r="AKP4" s="5"/>
+      <c r="AKQ4" s="5"/>
+      <c r="AKR4" s="5"/>
+      <c r="AKS4" s="5"/>
+      <c r="AKT4" s="5"/>
+      <c r="AKU4" s="5"/>
+      <c r="AKV4" s="5"/>
+      <c r="AKW4" s="5"/>
+      <c r="AKX4" s="5"/>
+      <c r="AKY4" s="5"/>
+      <c r="AKZ4" s="5"/>
+      <c r="ALA4" s="5"/>
+      <c r="ALB4" s="5"/>
+      <c r="ALC4" s="5"/>
+      <c r="ALD4" s="5"/>
+      <c r="ALE4" s="5"/>
+      <c r="ALF4" s="5"/>
+      <c r="ALG4" s="5"/>
+      <c r="ALH4" s="5"/>
+      <c r="ALI4" s="5"/>
+      <c r="ALJ4" s="5"/>
+      <c r="ALK4" s="5"/>
+      <c r="ALL4" s="5"/>
+      <c r="ALM4" s="5"/>
+      <c r="ALN4" s="5"/>
+      <c r="ALO4" s="5"/>
+      <c r="ALP4" s="5"/>
+      <c r="ALQ4" s="5"/>
+      <c r="ALR4" s="5"/>
+      <c r="ALS4" s="5"/>
+      <c r="ALT4" s="5"/>
+      <c r="ALU4" s="5"/>
+      <c r="ALV4" s="5"/>
+      <c r="ALW4" s="5"/>
+      <c r="ALX4" s="5"/>
+      <c r="ALY4" s="5"/>
+      <c r="ALZ4" s="5"/>
+      <c r="AMA4" s="5"/>
+      <c r="AMB4" s="5"/>
+      <c r="AMC4" s="5"/>
+      <c r="AMD4" s="5"/>
+      <c r="AME4" s="5"/>
+      <c r="AMF4" s="5"/>
+      <c r="AMG4" s="5"/>
+      <c r="AMH4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6112,16 +10631,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1003" x14ac:dyDescent="0.25">
@@ -6137,7 +10657,9 @@
       <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -9418,7 +13940,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>583</v>
@@ -9426,7 +13948,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>143</v>
       </c>
@@ -9437,7 +13959,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>482</v>
       </c>
@@ -9446,24 +13968,109 @@
       </c>
       <c r="C36" s="22"/>
     </row>
-    <row r="41" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
+    <row r="38" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>729</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>741</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="s">
+        <v>736</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59" t="s">
+        <v>737</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>743</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="59" t="s">
+        <v>738</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>747</v>
+      </c>
       <c r="D43" s="53"/>
-    </row>
-    <row r="44" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="32" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="s">
+        <v>739</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>744</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
+        <v>740</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>745</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
     </row>
-    <row r="48" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="22"/>
@@ -9480,10 +14087,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALR31"/>
+  <dimension ref="A1:ALR32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12986,8 +17593,28 @@
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
     </row>
-    <row r="31" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="54"/>
+    <row r="31" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
+        <v>560</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>733</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>734</v>
+      </c>
+      <c r="E31" s="60"/>
+    </row>
+    <row r="32" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
+        <v>732</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>730</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>731</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13246,10 +17873,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML19"/>
+  <dimension ref="A1:AML21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16593,6 +21220,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="21" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>728</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>725</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>726</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>727</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="759">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -955,9 +955,6 @@
     <t>Pipeline Layout</t>
   </si>
   <si>
-    <t>Profile Image</t>
-  </si>
-  <si>
     <t>UD3</t>
   </si>
   <si>
@@ -998,12 +995,6 @@
   </si>
   <si>
     <t>FieldSetLabel</t>
-  </si>
-  <si>
-    <t>Display_field_set</t>
-  </si>
-  <si>
-    <t>Marketing</t>
   </si>
   <si>
     <t>Parent</t>
@@ -2057,12 +2048,6 @@
   </si>
   <si>
     <t>Fund Preferences&lt;breakOn&gt;Existing LP&lt;breakOn&gt;Total Fund Commitments (mn)&lt;breakOn&gt;Total Co-investment Commitments (mn)&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Bank Name&lt;breakOn&gt;City</t>
-  </si>
-  <si>
-    <t>Log In Date&lt;breakOn&gt;Revenue&lt;breakOn&gt;EBITDA&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Stage&lt;breakOn&gt;Deal Name&lt;breakOn&gt;Company Name</t>
-  </si>
-  <si>
-    <t>Date&lt;breakOn&gt;Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region&lt;breakOn&gt;Deleted&lt;breakOn&gt;Budget</t>
   </si>
   <si>
     <t>M1Tc002_verifyDefaultFieldSet</t>
@@ -2312,6 +2297,45 @@
   <si>
     <t>Parent_Institution</t>
   </si>
+  <si>
+    <t>Institution_Detail_FSet1</t>
+  </si>
+  <si>
+    <t>Log In Date&lt;breakOn&gt;Revenue&lt;breakOn&gt;EBITDA&lt;breakOn&gt;Investment Size&lt;breakOn&gt;Deal Lead&lt;breakOn&gt;Stage&lt;breakOn&gt;Deal Type&lt;breakOn&gt;Company</t>
+  </si>
+  <si>
+    <t>End Date&lt;breakOn&gt;Event Type&lt;breakOn&gt;Status&lt;breakOn&gt;Location&lt;breakOn&gt;Main Contact&lt;breakOn&gt;Region&lt;breakOn&gt;Deleted&lt;breakOn&gt;Budget</t>
+  </si>
+  <si>
+    <t>Marketing_Detail_FSet1</t>
+  </si>
+  <si>
+    <t>FC32</t>
+  </si>
+  <si>
+    <t>FC33</t>
+  </si>
+  <si>
+    <t>FC34</t>
+  </si>
+  <si>
+    <t>FS4</t>
+  </si>
+  <si>
+    <t>On Marketing Event Page</t>
+  </si>
+  <si>
+    <t>End Date&lt;break&gt;Event Type&lt;break&gt;Status&lt;break&gt;Location&lt;break&gt;Main Contact&lt;break&gt;Region&lt;break&gt;Deleted&lt;break&gt;Budget</t>
+  </si>
+  <si>
+    <t>FS5</t>
+  </si>
+  <si>
+    <t>On Institution Page</t>
+  </si>
+  <si>
+    <t>Fund Preferences&lt;break&gt;Existing LP&lt;break&gt;Total Fund Commitments (mn)&lt;break&gt;Total Co-investment Commitments (mn)&lt;break&gt;Industry&lt;break&gt;Region&lt;break&gt;Bank Name&lt;break&gt;City</t>
+  </si>
 </sst>
 </file>
 
@@ -2320,7 +2344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2383,6 +2407,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2449,7 +2479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2569,6 +2599,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2853,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,507 +2903,507 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>310</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" t="s">
         <v>311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" t="s">
         <v>313</v>
-      </c>
-      <c r="D4" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B23" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B24" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E25">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B26" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B27" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B29" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E32">
         <v>-20</v>
       </c>
       <c r="L32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E33">
         <v>-25</v>
       </c>
       <c r="L33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K34" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B35" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K35" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B37" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J38" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J39" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B40" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F40" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J40" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B43" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +3448,7 @@
         <v>149</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3430,7 +3461,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3439,7 +3470,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -3451,48 +3482,48 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>360</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3504,10 +3535,10 @@
         <v>150</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>151</v>
@@ -3569,7 +3600,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3584,7 +3615,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>174</v>
@@ -3604,7 +3635,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>179</v>
@@ -3624,7 +3655,7 @@
         <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>184</v>
@@ -3687,7 +3718,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
@@ -3716,310 +3747,310 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B15" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B26" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4031,16 +4062,16 @@
         <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4085,7 +4116,7 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4115,26 +4146,26 @@
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -4237,7 +4268,7 @@
     <row r="2" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
@@ -4251,7 +4282,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4275,7 +4306,7 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -4312,7 +4343,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4333,14 +4364,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4376,13 +4407,13 @@
         <v>138</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -4390,7 +4421,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
       <c r="D2" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4482,7 +4513,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
       <c r="D15" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4503,56 +4534,56 @@
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>596</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="H16" s="50" t="s">
         <v>599</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>600</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>601</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="G17" s="50" t="s">
         <v>603</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="H17" s="50" t="s">
         <v>604</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>605</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>606</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>608</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>609</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>610</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>601</v>
-      </c>
-      <c r="H18" s="50" t="s">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4596,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,7 +4638,7 @@
         <v>296</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,10 +4646,10 @@
         <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
         <v>298</v>
@@ -4633,10 +4664,10 @@
         <v>299</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4659,18 +4690,18 @@
         <v>301</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="I3" t="s">
-        <v>317</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
         <v>183</v>
@@ -4682,19 +4713,19 @@
         <v>298</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
         <v>304</v>
       </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
       <c r="G4" s="26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="I4" t="s">
-        <v>318</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -4724,19 +4755,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4750,7 +4781,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4760,31 +4791,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4792,77 +4823,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4889,16 +4920,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4911,7 +4942,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4920,169 +4951,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" t="s">
         <v>400</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>401</v>
-      </c>
-      <c r="C4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" t="s">
         <v>401</v>
-      </c>
-      <c r="C5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" t="s">
         <v>401</v>
-      </c>
-      <c r="C6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
         <v>401</v>
-      </c>
-      <c r="C7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
         <v>401</v>
-      </c>
-      <c r="C8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E8" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" t="s">
         <v>401</v>
-      </c>
-      <c r="C9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" t="s">
         <v>401</v>
-      </c>
-      <c r="C10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E10" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
         <v>401</v>
-      </c>
-      <c r="C11" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" t="s">
-        <v>403</v>
-      </c>
-      <c r="E11" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" t="s">
         <v>401</v>
-      </c>
-      <c r="C12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" t="s">
-        <v>403</v>
-      </c>
-      <c r="E12" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5109,25 +5140,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -5136,222 +5167,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5361,18 +5392,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
   </cols>
@@ -5411,10 +5442,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5431,7 +5462,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5449,6 +5480,40 @@
       </c>
       <c r="E4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C6" t="s">
+        <v>746</v>
+      </c>
+      <c r="D6" t="s">
+        <v>757</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -5477,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -5491,7 +5556,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5500,112 +5565,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5634,59 +5699,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5718,19 +5783,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -5738,22 +5803,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -5788,57 +5853,57 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>138</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="I2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5880,28 +5945,28 @@
         <v>138</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -6917,19 +6982,19 @@
     </row>
     <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -7949,21 +8014,21 @@
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -8983,19 +9048,19 @@
     </row>
     <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -10020,10 +10085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10056,7 +10121,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10590,35 +10655,80 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>299</v>
+      </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="A34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>299</v>
+      </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>437</v>
+        <v>752</v>
       </c>
       <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>42</v>
       </c>
-      <c r="D35" t="s">
-        <v>438</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="D38" t="s">
+        <v>435</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G35" t="s">
-        <v>439</v>
+      <c r="G38" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -10631,7 +10741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -10658,7 +10768,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -12666,7 +12776,7 @@
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -13675,7 +13785,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -13686,7 +13796,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -13697,7 +13807,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -13706,7 +13816,7 @@
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -13868,17 +13978,17 @@
     <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>76</v>
@@ -13886,10 +13996,10 @@
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>76</v>
@@ -13913,17 +14023,17 @@
     <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -13931,10 +14041,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C32" t="s">
         <v>289</v>
@@ -13943,7 +14053,7 @@
     <row r="34" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -13953,7 +14063,7 @@
         <v>143</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>32</v>
@@ -13961,19 +14071,19 @@
     </row>
     <row r="36" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C36" s="22"/>
     </row>
     <row r="38" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>76</v>
@@ -13981,10 +14091,10 @@
     </row>
     <row r="39" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C39" s="58" t="s">
         <v>32</v>
@@ -13992,10 +14102,10 @@
     </row>
     <row r="40" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>32</v>
@@ -14003,10 +14113,10 @@
     </row>
     <row r="41" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>76</v>
@@ -14014,53 +14124,53 @@
     </row>
     <row r="42" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="32" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="B44" s="58" t="s">
         <v>739</v>
       </c>
-      <c r="B44" s="58" t="s">
-        <v>744</v>
-      </c>
       <c r="C44" s="58" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="B45" s="58" t="s">
         <v>740</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>745</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14126,13 +14236,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -16143,7 +16253,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -17157,13 +17267,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>26</v>
@@ -17176,7 +17286,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
@@ -17326,7 +17436,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -17338,19 +17448,19 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="E18" s="54" t="s">
         <v>560</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>561</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>562</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>557</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -17360,7 +17470,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
@@ -17372,213 +17482,213 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F21">
         <v>8435985993</v>
       </c>
       <c r="H21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F22">
         <v>8435985993</v>
       </c>
       <c r="H22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C23" t="s">
         <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E23" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F23">
         <v>8435985993</v>
       </c>
       <c r="H23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C24" t="s">
         <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F24">
         <v>8435985993</v>
       </c>
       <c r="H24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F25">
         <v>8435985993</v>
       </c>
       <c r="H25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F26">
         <v>8435985993</v>
       </c>
       <c r="H26" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F27">
         <v>8435985993</v>
       </c>
       <c r="H27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B28" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H28" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -17595,25 +17705,25 @@
     </row>
     <row r="31" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -17644,7 +17754,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>14</v>
@@ -17659,7 +17769,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -17671,10 +17781,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -17688,7 +17798,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17754,7 +17864,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -17768,7 +17878,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -17782,7 +17892,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -17801,7 +17911,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -17812,10 +17922,10 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>57</v>
@@ -17829,7 +17939,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -17843,7 +17953,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>57</v>
@@ -17857,7 +17967,7 @@
         <v>145</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>57</v>
@@ -17875,7 +17985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -17912,7 +18022,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -19965,7 +20075,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -20996,19 +21106,19 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
@@ -21022,7 +21132,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
@@ -21036,14 +21146,14 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -21121,7 +21231,7 @@
         <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
         <v>270</v>
@@ -21141,7 +21251,7 @@
         <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E13" t="s">
         <v>273</v>
@@ -21150,15 +21260,15 @@
         <v>274</v>
       </c>
       <c r="H13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B14" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C14" t="s">
         <v>259</v>
@@ -21177,7 +21287,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -21186,13 +21296,13 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -21202,7 +21312,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -21214,7 +21324,7 @@
         <v>146</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>30</v>
@@ -21222,16 +21332,16 @@
     </row>
     <row r="21" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -21281,7 +21391,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -21296,7 +21406,7 @@
         <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>157</v>
@@ -21313,13 +21423,13 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar Guest\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="764">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2335,6 +2335,21 @@
   </si>
   <si>
     <t>Fund Preferences&lt;break&gt;Existing LP&lt;break&gt;Total Fund Commitments (mn)&lt;break&gt;Total Co-investment Commitments (mn)&lt;break&gt;Industry&lt;break&gt;Region&lt;break&gt;Bank Name&lt;break&gt;City</t>
+  </si>
+  <si>
+    <t>Accounts New</t>
+  </si>
+  <si>
+    <t>M3Tc012_RenameNavigationLabelAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc013_ChangeTheOrderOfTheLabelAndVerifyImpactOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>Contact&lt;break&gt;Reports&lt;break&gt;Fund Manager&lt;break&gt;Institution&lt;break&gt;Partnership</t>
+  </si>
+  <si>
+    <t>60&lt;break&gt;-10&lt;break&gt;5&lt;break&gt;-10&lt;break&gt;</t>
   </si>
 </sst>
 </file>
@@ -2882,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,6 +3419,28 @@
       </c>
       <c r="C44" s="56" t="s">
         <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="B48" t="s">
+        <v>762</v>
+      </c>
+      <c r="E48" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A5" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="770">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2350,6 +2350,24 @@
   </si>
   <si>
     <t>60&lt;break&gt;-10&lt;break&gt;5&lt;break&gt;-10&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>M3Tc016_AddNewNavigationItemsAndVerifyItOnNavigationMenu</t>
+  </si>
+  <si>
+    <t>M3Tc019_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
+  </si>
+  <si>
+    <t>TestFund&lt;break&gt;TestFund of Funds</t>
+  </si>
+  <si>
+    <t>M3Tc020_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
+  </si>
+  <si>
+    <t>TestCustom Object 1&lt;break&gt;TestCustom Object 2</t>
+  </si>
+  <si>
+    <t>M3Tc023_CreateRecordTypeForCustomObjectAndAddTheFromTheProfiles</t>
   </si>
 </sst>
 </file>
@@ -2897,10 +2915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,6 +3459,53 @@
       </c>
       <c r="E48" t="s">
         <v>763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="B49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" t="s">
+        <v>432</v>
+      </c>
+      <c r="I50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" t="s">
+        <v>766</v>
+      </c>
+      <c r="K50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>769</v>
+      </c>
+      <c r="J52" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="852">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -1030,12 +1030,6 @@
     <t>Deal Team</t>
   </si>
   <si>
-    <t>Deal_Team__c</t>
-  </si>
-  <si>
-    <t>Pipeline__c</t>
-  </si>
-  <si>
     <t>APIName</t>
   </si>
   <si>
@@ -1063,18 +1057,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Attendee_Staff__r.Name</t>
-  </si>
-  <si>
-    <t>Attendee_Staff__r.Title</t>
-  </si>
-  <si>
-    <t>Status__c</t>
-  </si>
-  <si>
-    <t>Notes__c</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1124,12 +1106,6 @@
   </si>
   <si>
     <t>Attendee</t>
-  </si>
-  <si>
-    <t>Attendee__c</t>
-  </si>
-  <si>
-    <t>Marketing_Event__c</t>
   </si>
   <si>
     <t>Navigation_Label_With_Parent</t>
@@ -1922,12 +1898,6 @@
     <t>{"entityApiName": "Contact", "defaultFieldValues": {
 "AccountId" : "#parentrecordId#"
 }}</t>
-  </si>
-  <si>
-    <t>Member__r.Name</t>
-  </si>
-  <si>
-    <t>Type__c</t>
   </si>
   <si>
     <t>M3Tc008_VerifyTheitemsForWhichURLAndActionObjectAndLiewViewObjectFieldWasBlank</t>
@@ -2369,6 +2339,282 @@
   <si>
     <t>M3Tc023_CreateRecordTypeForCustomObjectAndAddTheFromTheProfiles</t>
   </si>
+  <si>
+    <t>Module6</t>
+  </si>
+  <si>
+    <t>M6INS1</t>
+  </si>
+  <si>
+    <t>Test Institution</t>
+  </si>
+  <si>
+    <t>M6INS2</t>
+  </si>
+  <si>
+    <t>Test Company1</t>
+  </si>
+  <si>
+    <t>M6INS3</t>
+  </si>
+  <si>
+    <t>Test Company 2</t>
+  </si>
+  <si>
+    <t>M6INS4</t>
+  </si>
+  <si>
+    <t>Test Company 4</t>
+  </si>
+  <si>
+    <t>M6INS5</t>
+  </si>
+  <si>
+    <t>Test Company 5</t>
+  </si>
+  <si>
+    <t>M6INS6</t>
+  </si>
+  <si>
+    <t>Test Company 6</t>
+  </si>
+  <si>
+    <t>M6INS7</t>
+  </si>
+  <si>
+    <t>Test Company 7</t>
+  </si>
+  <si>
+    <t>M6INS8</t>
+  </si>
+  <si>
+    <t>Test Company 8</t>
+  </si>
+  <si>
+    <t>M6INS9</t>
+  </si>
+  <si>
+    <t>Test Company 9</t>
+  </si>
+  <si>
+    <t>M6INS10</t>
+  </si>
+  <si>
+    <t>Test Company 10</t>
+  </si>
+  <si>
+    <t>M6INS11</t>
+  </si>
+  <si>
+    <t>Company Name (),-,_/,\ &amp;*!@#$%^&amp; commitments - Company Name ^0&amp;*@#$%^ &amp;*!@#$%^&amp; commitments - Company Name ^0&amp;*@#$%^ &amp;*!@#$%^&amp; commitments - Company Name ^0&amp;*@#$%^ &amp;*!@#$%^&amp; commitments - Company Name ^0&amp;*@#$%^ &amp;*!@#$%^&amp; commitments - Company Name ^0&amp;*@#$</t>
+  </si>
+  <si>
+    <t>M6INS12</t>
+  </si>
+  <si>
+    <t>Test Company 11</t>
+  </si>
+  <si>
+    <t>M6INS13</t>
+  </si>
+  <si>
+    <t>Test Company 12</t>
+  </si>
+  <si>
+    <t>M6INS14</t>
+  </si>
+  <si>
+    <t>Test Company 13</t>
+  </si>
+  <si>
+    <t>M6INS15</t>
+  </si>
+  <si>
+    <t>Test Company 14</t>
+  </si>
+  <si>
+    <t>M6INS16</t>
+  </si>
+  <si>
+    <t>Test Company 15</t>
+  </si>
+  <si>
+    <t>M6INS17</t>
+  </si>
+  <si>
+    <t>Test Company 16</t>
+  </si>
+  <si>
+    <t>M6INS18</t>
+  </si>
+  <si>
+    <t>Test Company 17</t>
+  </si>
+  <si>
+    <t>Lender</t>
+  </si>
+  <si>
+    <t>M6INS19</t>
+  </si>
+  <si>
+    <t>Test Company 3</t>
+  </si>
+  <si>
+    <t>M6INS20</t>
+  </si>
+  <si>
+    <t>Test Company 20</t>
+  </si>
+  <si>
+    <t>Module 6</t>
+  </si>
+  <si>
+    <t>M6Deal1</t>
+  </si>
+  <si>
+    <t>Institution Deal</t>
+  </si>
+  <si>
+    <t>M6Deal2</t>
+  </si>
+  <si>
+    <t>Test Deal</t>
+  </si>
+  <si>
+    <t>M6Deal3</t>
+  </si>
+  <si>
+    <t>Test Deal 2</t>
+  </si>
+  <si>
+    <t>IOI</t>
+  </si>
+  <si>
+    <t>M6Deal4</t>
+  </si>
+  <si>
+    <t>Test Deal 4</t>
+  </si>
+  <si>
+    <t>M6Deal5</t>
+  </si>
+  <si>
+    <t>Test Deal 5</t>
+  </si>
+  <si>
+    <t>M6Deal6</t>
+  </si>
+  <si>
+    <t>Test Deal 6</t>
+  </si>
+  <si>
+    <t>Due Dilligence</t>
+  </si>
+  <si>
+    <t>M6Deal7</t>
+  </si>
+  <si>
+    <t>Test Deal 7</t>
+  </si>
+  <si>
+    <t>Parked</t>
+  </si>
+  <si>
+    <t>M6Deal8</t>
+  </si>
+  <si>
+    <t>Test Deal 8</t>
+  </si>
+  <si>
+    <t>M6Deal9</t>
+  </si>
+  <si>
+    <t>Test Deal 9</t>
+  </si>
+  <si>
+    <t>M6Deal10</t>
+  </si>
+  <si>
+    <t>Test Deal 10</t>
+  </si>
+  <si>
+    <t>M6Deal11</t>
+  </si>
+  <si>
+    <t>Test Deal 3</t>
+  </si>
+  <si>
+    <t>M6Deal12</t>
+  </si>
+  <si>
+    <t>Test Deal 11</t>
+  </si>
+  <si>
+    <t>M6Deal13</t>
+  </si>
+  <si>
+    <t>Test Deal 12</t>
+  </si>
+  <si>
+    <t>M6Deal14</t>
+  </si>
+  <si>
+    <t>Test Deal 13</t>
+  </si>
+  <si>
+    <t>M6Deal15</t>
+  </si>
+  <si>
+    <t>Test Deal 14</t>
+  </si>
+  <si>
+    <t>M6Deal16</t>
+  </si>
+  <si>
+    <t>Test Deal 15</t>
+  </si>
+  <si>
+    <t>M6Deal17</t>
+  </si>
+  <si>
+    <t>Test Deal 16</t>
+  </si>
+  <si>
+    <t>M6Deal18</t>
+  </si>
+  <si>
+    <t>Test Deal 17</t>
+  </si>
+  <si>
+    <t>M6Deal19</t>
+  </si>
+  <si>
+    <t>Test Deal 20</t>
+  </si>
+  <si>
+    <t>navpeII__Deal_Team__c</t>
+  </si>
+  <si>
+    <t>navpeII__Attendee__c</t>
+  </si>
+  <si>
+    <t>navpeII__Deal_Contact_Type__c</t>
+  </si>
+  <si>
+    <t>navpeII__Team_Member__r.Name</t>
+  </si>
+  <si>
+    <t>navpeII__Attendee_Staff__r.Name</t>
+  </si>
+  <si>
+    <t>navpeII__Attendee_Staff__r.Title</t>
+  </si>
+  <si>
+    <t>navpeII__Status__c</t>
+  </si>
+  <si>
+    <t>navpeII__Notes__c</t>
+  </si>
 </sst>
 </file>
 
@@ -2377,7 +2623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2447,6 +2693,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080707"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2512,7 +2764,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2633,6 +2885,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2917,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -2954,38 +3207,38 @@
         <v>316</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="B2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
         <v>310</v>
@@ -2996,7 +3249,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
         <v>312</v>
@@ -3007,18 +3260,18 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s">
         <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B6" t="s">
         <v>317</v>
@@ -3026,7 +3279,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B7" t="s">
         <v>318</v>
@@ -3037,7 +3290,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B8" t="s">
         <v>320</v>
@@ -3045,425 +3298,425 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B9" t="s">
         <v>310</v>
       </c>
       <c r="G9" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="I10" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J12" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J13" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H16" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I16" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H20" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H21" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I21" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J21" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K21" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K22" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B23" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E25">
         <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B26" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F26" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F27" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B28" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B29" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B30" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F30" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E32">
         <v>-20</v>
       </c>
       <c r="L32" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B33" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="E33">
         <v>-25</v>
       </c>
       <c r="L33" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B34" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B35" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K35" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B36" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="J38" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B39" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="J39" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B40" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F40" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="J40" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L41" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M42" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B43" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B47" t="s">
         <v>319</v>
       </c>
       <c r="D47" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B48" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="E48" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="B49" t="s">
         <v>317</v>
@@ -3471,41 +3724,41 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="H50" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I50" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="J52" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3777,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,7 +3816,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3587,7 +3840,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>325</v>
       </c>
@@ -3597,35 +3850,35 @@
       <c r="C6" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>327</v>
+      <c r="D6" s="62" t="s">
+        <v>844</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>359</v>
+        <v>845</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3637,10 +3890,10 @@
         <v>150</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>151</v>
@@ -3702,7 +3955,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3717,7 +3970,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>174</v>
@@ -3737,7 +3990,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>179</v>
@@ -3757,7 +4010,7 @@
         <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>184</v>
@@ -3820,7 +4073,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
@@ -3849,310 +4102,310 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B19" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B20" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B21" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B22" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B23" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B24" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B25" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B27" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4164,16 +4417,16 @@
         <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +4471,7 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4248,26 +4501,26 @@
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -4370,7 +4623,7 @@
     <row r="2" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
@@ -4384,7 +4637,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4408,7 +4661,7 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -4445,7 +4698,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4466,14 +4719,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4509,13 +4762,13 @@
         <v>138</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -4523,7 +4776,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
       <c r="D2" s="9" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -4615,7 +4868,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
       <c r="D15" s="9" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4636,56 +4889,56 @@
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4748,10 +5001,10 @@
         <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
         <v>298</v>
@@ -4766,10 +5019,10 @@
         <v>299</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I2" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4795,7 +5048,7 @@
         <v>299</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -4824,10 +5077,10 @@
         <v>299</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="I4" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -4839,8 +5092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,16 +5110,16 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>322</v>
@@ -4883,7 +5136,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -4893,31 +5146,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4925,77 +5178,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>625</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>624</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>340</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>341</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -5022,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>93</v>
@@ -5031,7 +5284,7 @@
         <v>303</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,7 +5297,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5053,169 +5306,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C6" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5242,25 +5495,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -5269,222 +5522,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F8" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E9" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F9" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E12" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C13" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D13" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5544,10 +5797,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5564,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5586,36 +5839,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B5" t="s">
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D5" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="B6" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C6" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D6" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5897,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -5658,7 +5911,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5667,112 +5920,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C5" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C10" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5801,59 +6054,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5885,19 +6138,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -5905,22 +6158,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E2" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="F2" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -5955,57 +6208,57 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>138</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C2" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D2" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
         <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="H2" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="I2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6047,28 +6300,28 @@
         <v>138</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -7084,19 +7337,19 @@
     </row>
     <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -8116,21 +8369,21 @@
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -9150,19 +9403,19 @@
     </row>
     <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -10189,7 +10442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -10223,7 +10476,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10758,13 +11011,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B33" t="s">
         <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D33" s="61" t="s">
         <v>299</v>
@@ -10773,13 +11026,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D34" s="61" t="s">
         <v>299</v>
@@ -10788,13 +11041,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="B35" t="s">
         <v>238</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D35" s="61" t="s">
         <v>299</v>
@@ -10807,7 +11060,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -10815,7 +11068,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -10824,13 +11077,13 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -10841,10 +11094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALO49"/>
+  <dimension ref="A1:ALO68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10870,7 +11123,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -12878,7 +13131,7 @@
     <row r="3" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -13887,7 +14140,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -13898,7 +14151,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -13909,7 +14162,7 @@
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -13918,7 +14171,7 @@
     <row r="8" spans="1:1003" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -14080,17 +14333,17 @@
     <row r="24" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>76</v>
@@ -14098,10 +14351,10 @@
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>76</v>
@@ -14125,17 +14378,17 @@
     <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B31" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -14143,10 +14396,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C32" t="s">
         <v>289</v>
@@ -14155,7 +14408,7 @@
     <row r="34" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -14165,7 +14418,7 @@
         <v>143</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>32</v>
@@ -14173,19 +14426,19 @@
     </row>
     <row r="36" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C36" s="22"/>
     </row>
     <row r="38" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>76</v>
@@ -14193,10 +14446,10 @@
     </row>
     <row r="39" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C39" s="58" t="s">
         <v>32</v>
@@ -14204,10 +14457,10 @@
     </row>
     <row r="40" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>32</v>
@@ -14215,10 +14468,10 @@
     </row>
     <row r="41" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>76</v>
@@ -14226,53 +14479,53 @@
     </row>
     <row r="42" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="32" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14283,14 +14536,233 @@
       <c r="D47" s="53"/>
     </row>
     <row r="48" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="22"/>
-    </row>
-    <row r="49" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="22"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="B51" t="s">
+        <v>766</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="B52" t="s">
+        <v>768</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B53" t="s">
+        <v>770</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="B54" t="s">
+        <v>772</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="B55" t="s">
+        <v>774</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="B56" t="s">
+        <v>776</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="B57" t="s">
+        <v>778</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="B58" t="s">
+        <v>780</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="B59" t="s">
+        <v>782</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="B60" t="s">
+        <v>784</v>
+      </c>
+      <c r="C60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="B61" t="s">
+        <v>786</v>
+      </c>
+      <c r="C61" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="B62" t="s">
+        <v>788</v>
+      </c>
+      <c r="C62" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="B63" t="s">
+        <v>790</v>
+      </c>
+      <c r="C63" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="B64" t="s">
+        <v>792</v>
+      </c>
+      <c r="C64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="B65" t="s">
+        <v>794</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="B66" t="s">
+        <v>796</v>
+      </c>
+      <c r="C66" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="B67" t="s">
+        <v>799</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="B68" t="s">
+        <v>801</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14338,13 +14810,13 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -16355,7 +16827,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -17369,13 +17841,13 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>26</v>
@@ -17388,7 +17860,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
@@ -17538,7 +18010,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -17550,19 +18022,19 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -17572,7 +18044,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
@@ -17584,213 +18056,213 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C21" t="s">
         <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F21">
         <v>8435985993</v>
       </c>
       <c r="H21" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I21" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J21" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B22" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C22" t="s">
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F22">
         <v>8435985993</v>
       </c>
       <c r="H22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I22" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J22" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B23" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C23" t="s">
         <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F23">
         <v>8435985993</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I23" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J23" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C24" t="s">
         <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F24">
         <v>8435985993</v>
       </c>
       <c r="H24" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I24" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J24" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B25" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D25" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F25">
         <v>8435985993</v>
       </c>
       <c r="H25" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I25" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J25" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F26">
         <v>8435985993</v>
       </c>
       <c r="H26" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I26" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J26" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B27" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F27">
         <v>8435985993</v>
       </c>
       <c r="H27" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I27" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="J27" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C28" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H28" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
@@ -17807,25 +18279,25 @@
     </row>
     <row r="31" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -17856,7 +18328,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>14</v>
@@ -17871,7 +18343,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -17883,10 +18355,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -17966,7 +18438,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -17980,7 +18452,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -17994,7 +18466,7 @@
         <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -18013,7 +18485,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -18024,10 +18496,10 @@
     </row>
     <row r="9" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>57</v>
@@ -18041,7 +18513,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -18055,7 +18527,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>57</v>
@@ -18069,7 +18541,7 @@
         <v>145</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>57</v>
@@ -18085,10 +18557,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML21"/>
+  <dimension ref="A1:AML42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18124,7 +18596,7 @@
         <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -20177,7 +20649,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -21208,19 +21680,19 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
@@ -21234,7 +21706,7 @@
         <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
@@ -21248,14 +21720,14 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -21353,7 +21825,7 @@
         <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E13" t="s">
         <v>273</v>
@@ -21362,15 +21834,15 @@
         <v>274</v>
       </c>
       <c r="H13" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B14" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C14" t="s">
         <v>259</v>
@@ -21389,7 +21861,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -21398,52 +21870,332 @@
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>146</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>722</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>803</v>
+      </c>
+      <c r="B24" t="s">
+        <v>804</v>
+      </c>
+      <c r="C24" t="s">
+        <v>762</v>
+      </c>
+      <c r="D24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>805</v>
+      </c>
+      <c r="B25" t="s">
+        <v>806</v>
+      </c>
+      <c r="C25" t="s">
+        <v>764</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>807</v>
+      </c>
+      <c r="B26" t="s">
+        <v>808</v>
+      </c>
+      <c r="C26" t="s">
+        <v>764</v>
+      </c>
+      <c r="D26" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>810</v>
+      </c>
+      <c r="B27" t="s">
+        <v>811</v>
+      </c>
+      <c r="C27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D27" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>812</v>
+      </c>
+      <c r="B28" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" t="s">
+        <v>770</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>814</v>
+      </c>
+      <c r="B29" t="s">
+        <v>815</v>
+      </c>
+      <c r="C29" t="s">
+        <v>772</v>
+      </c>
+      <c r="D29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>817</v>
+      </c>
+      <c r="B30" t="s">
+        <v>818</v>
+      </c>
+      <c r="C30" t="s">
+        <v>774</v>
+      </c>
+      <c r="D30" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>820</v>
+      </c>
+      <c r="B31" t="s">
+        <v>821</v>
+      </c>
+      <c r="C31" t="s">
+        <v>776</v>
+      </c>
+      <c r="D31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>822</v>
+      </c>
+      <c r="B32" t="s">
+        <v>823</v>
+      </c>
+      <c r="C32" t="s">
+        <v>778</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>824</v>
+      </c>
+      <c r="B33" t="s">
+        <v>825</v>
+      </c>
+      <c r="C33" t="s">
+        <v>780</v>
+      </c>
+      <c r="D33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>826</v>
+      </c>
+      <c r="B34" t="s">
+        <v>827</v>
+      </c>
+      <c r="C34" t="s">
+        <v>782</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>828</v>
+      </c>
+      <c r="B35" t="s">
+        <v>829</v>
+      </c>
+      <c r="C35" t="s">
+        <v>784</v>
+      </c>
+      <c r="D35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>830</v>
+      </c>
+      <c r="B36" t="s">
+        <v>831</v>
+      </c>
+      <c r="C36" t="s">
+        <v>786</v>
+      </c>
+      <c r="D36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>832</v>
+      </c>
+      <c r="B37" t="s">
+        <v>833</v>
+      </c>
+      <c r="C37" t="s">
+        <v>788</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>834</v>
+      </c>
+      <c r="B38" t="s">
+        <v>835</v>
+      </c>
+      <c r="C38" t="s">
+        <v>790</v>
+      </c>
+      <c r="D38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>836</v>
+      </c>
+      <c r="B39" t="s">
+        <v>837</v>
+      </c>
+      <c r="C39" t="s">
+        <v>792</v>
+      </c>
+      <c r="D39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>838</v>
+      </c>
+      <c r="B40" t="s">
+        <v>839</v>
+      </c>
+      <c r="C40" t="s">
+        <v>794</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>840</v>
+      </c>
+      <c r="B41" t="s">
+        <v>841</v>
+      </c>
+      <c r="C41" t="s">
+        <v>796</v>
+      </c>
+      <c r="D41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>842</v>
+      </c>
+      <c r="B42" t="s">
+        <v>843</v>
+      </c>
+      <c r="C42" t="s">
+        <v>801</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -21493,7 +22245,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -21508,7 +22260,7 @@
         <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>157</v>
@@ -21525,13 +22277,13 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363DDE94-6425-4A79-A074-762742BAF24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -20,22 +21,23 @@
     <sheet name="Test Custom Object" sheetId="23" r:id="rId6"/>
     <sheet name="Fund" sheetId="7" r:id="rId7"/>
     <sheet name="Deal" sheetId="4" r:id="rId8"/>
-    <sheet name="DealRequestTracker" sheetId="14" r:id="rId9"/>
-    <sheet name="CustomSDG" sheetId="13" r:id="rId10"/>
-    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId11"/>
-    <sheet name="MarketingEvent" sheetId="15" r:id="rId12"/>
-    <sheet name="Partnerships" sheetId="8" r:id="rId13"/>
-    <sheet name="Commitments" sheetId="9" r:id="rId14"/>
-    <sheet name="Task" sheetId="12" r:id="rId15"/>
-    <sheet name="UploadImageData" sheetId="17" r:id="rId16"/>
-    <sheet name="Fields" sheetId="19" r:id="rId17"/>
-    <sheet name="Attendees" sheetId="20" r:id="rId18"/>
-    <sheet name="Deal Team" sheetId="21" r:id="rId19"/>
-    <sheet name="Coverages" sheetId="22" r:id="rId20"/>
-    <sheet name="SDGActions" sheetId="24" r:id="rId21"/>
-    <sheet name="Report" sheetId="25" r:id="rId22"/>
-    <sheet name="CustomEmailFolder" sheetId="26" r:id="rId23"/>
-    <sheet name="Task1" sheetId="27" r:id="rId24"/>
+    <sheet name="Fundraisings" sheetId="28" r:id="rId9"/>
+    <sheet name="DealRequestTracker" sheetId="14" r:id="rId10"/>
+    <sheet name="CustomSDG" sheetId="13" r:id="rId11"/>
+    <sheet name="ToggleButtonCheck" sheetId="16" r:id="rId12"/>
+    <sheet name="MarketingEvent" sheetId="15" r:id="rId13"/>
+    <sheet name="Partnerships" sheetId="8" r:id="rId14"/>
+    <sheet name="Commitments" sheetId="9" r:id="rId15"/>
+    <sheet name="Task" sheetId="12" r:id="rId16"/>
+    <sheet name="UploadImageData" sheetId="17" r:id="rId17"/>
+    <sheet name="Fields" sheetId="19" r:id="rId18"/>
+    <sheet name="Attendees" sheetId="20" r:id="rId19"/>
+    <sheet name="Deal Team" sheetId="21" r:id="rId20"/>
+    <sheet name="Coverages" sheetId="22" r:id="rId21"/>
+    <sheet name="SDGActions" sheetId="24" r:id="rId22"/>
+    <sheet name="Report" sheetId="25" r:id="rId23"/>
+    <sheet name="CustomEmailFolder" sheetId="26" r:id="rId24"/>
+    <sheet name="Task1" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="871">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2615,11 +2617,68 @@
   <si>
     <t>navpeII__Notes__c</t>
   </si>
+  <si>
+    <t>Module8</t>
+  </si>
+  <si>
+    <t>M8CON1</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Mahony</t>
+  </si>
+  <si>
+    <t>dealroom1.2+clientcontact01@gmail.com</t>
+  </si>
+  <si>
+    <t>M8CON2</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Barns</t>
+  </si>
+  <si>
+    <t>dealroom1.2+clientcontact13@gmail.com</t>
+  </si>
+  <si>
+    <t>Module 8</t>
+  </si>
+  <si>
+    <t>M8Deal1</t>
+  </si>
+  <si>
+    <t>Chowda Sauce - Feb 2019</t>
+  </si>
+  <si>
+    <t>M8Deal2</t>
+  </si>
+  <si>
+    <t>Liberty Consulting - Dec 2016</t>
+  </si>
+  <si>
+    <t>FundRaising_Name</t>
+  </si>
+  <si>
+    <t>M8FR1</t>
+  </si>
+  <si>
+    <t>Vertica Systems - Bridge</t>
+  </si>
+  <si>
+    <t>M8FR2</t>
+  </si>
+  <si>
+    <t>VM Ware, Inc. - Penta Mezzanine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2764,7 +2823,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2886,11 +2945,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3167,7 +3227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
@@ -3763,9 +3823,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
-    <hyperlink ref="B44" r:id="rId3"/>
+    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B44" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3773,7 +3833,94 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+    </row>
+    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,8 +4051,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4027,8 +4174,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4435,8 +4582,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4529,8 +4676,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4736,8 +4883,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4946,8 +5093,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5088,12 +5235,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,8 +5403,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5476,277 +5623,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" t="s">
-        <v>390</v>
-      </c>
-      <c r="E6" t="s">
-        <v>403</v>
-      </c>
-      <c r="F6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C10" t="s">
-        <v>385</v>
-      </c>
-      <c r="D10" t="s">
-        <v>390</v>
-      </c>
-      <c r="E10" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" t="s">
-        <v>445</v>
-      </c>
-      <c r="C11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" t="s">
-        <v>390</v>
-      </c>
-      <c r="E11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" t="s">
-        <v>390</v>
-      </c>
-      <c r="E12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5878,7 +5756,276 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>440</v>
+      </c>
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6033,8 +6180,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6114,8 +6261,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6182,8 +6329,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6267,8 +6414,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:AMH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10439,7 +10586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -11093,7 +11240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALO68"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -14770,11 +14917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ALR32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:ALR36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A34" sqref="A34:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18300,16 +18447,60 @@
         <v>716</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>853</v>
+      </c>
+      <c r="B35" t="s">
+        <v>854</v>
+      </c>
+      <c r="C35" t="s">
+        <v>855</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>857</v>
+      </c>
+      <c r="B36" t="s">
+        <v>858</v>
+      </c>
+      <c r="C36" t="s">
+        <v>859</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E35" r:id="rId2" display="mailto:dealroom1.2+clientcontact01@gmail.com" xr:uid="{98BA426C-325F-42E4-9F5B-5E6B7175D14E}"/>
+    <hyperlink ref="E36" r:id="rId3" display="mailto:dealroom1.2+clientcontact13@gmail.com" xr:uid="{5EC2790C-F5FF-49E5-AA9D-A10A39B602C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18368,7 +18559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18556,11 +18747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AML47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22058,7 +22249,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>824</v>
       </c>
@@ -22072,7 +22263,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>826</v>
       </c>
@@ -22086,7 +22277,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>828</v>
       </c>
@@ -22100,7 +22291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>830</v>
       </c>
@@ -22114,7 +22305,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>832</v>
       </c>
@@ -22128,7 +22319,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>834</v>
       </c>
@@ -22142,7 +22333,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>836</v>
       </c>
@@ -22156,7 +22347,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>838</v>
       </c>
@@ -22170,7 +22361,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>840</v>
       </c>
@@ -22184,7 +22375,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>842</v>
       </c>
@@ -22196,6 +22387,45 @@
       </c>
       <c r="D42" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>862</v>
+      </c>
+      <c r="B46" t="s">
+        <v>863</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>864</v>
+      </c>
+      <c r="B47" t="s">
+        <v>865</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -22206,88 +22436,52 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE8F3F1-4090-4764-95F5-1455E00CEB5C}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="5" collapsed="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>669</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>482</v>
+      <c r="B1" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B3" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363DDE94-6425-4A79-A074-762742BAF24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="886">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2144,18 +2143,6 @@
     <t>PE Test Email Body</t>
   </si>
   <si>
-    <t>CustomReportFolder</t>
-  </si>
-  <si>
-    <t>CustomReport</t>
-  </si>
-  <si>
-    <t>PETestEmailFolder</t>
-  </si>
-  <si>
-    <t>PETestCustomEmailTemplate</t>
-  </si>
-  <si>
     <t>Due_Date</t>
   </si>
   <si>
@@ -2309,30 +2296,18 @@
     <t>Fund Preferences&lt;break&gt;Existing LP&lt;break&gt;Total Fund Commitments (mn)&lt;break&gt;Total Co-investment Commitments (mn)&lt;break&gt;Industry&lt;break&gt;Region&lt;break&gt;Bank Name&lt;break&gt;City</t>
   </si>
   <si>
-    <t>Accounts New</t>
-  </si>
-  <si>
     <t>M3Tc012_RenameNavigationLabelAndVerifyImpactOnNavigationMenu</t>
   </si>
   <si>
     <t>M3Tc013_ChangeTheOrderOfTheLabelAndVerifyImpactOnNavigationMenu</t>
   </si>
   <si>
-    <t>Contact&lt;break&gt;Reports&lt;break&gt;Fund Manager&lt;break&gt;Institution&lt;break&gt;Partnership</t>
-  </si>
-  <si>
-    <t>60&lt;break&gt;-10&lt;break&gt;5&lt;break&gt;-10&lt;break&gt;</t>
-  </si>
-  <si>
     <t>M3Tc016_AddNewNavigationItemsAndVerifyItOnNavigationMenu</t>
   </si>
   <si>
     <t>M3Tc019_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
   </si>
   <si>
-    <t>TestFund&lt;break&gt;TestFund of Funds</t>
-  </si>
-  <si>
     <t>M3Tc020_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
   </si>
   <si>
@@ -2673,12 +2648,81 @@
   </si>
   <si>
     <t>VM Ware, Inc. - Penta Mezzanine</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>Partnership New</t>
+  </si>
+  <si>
+    <t>Contact&lt;break&gt;Reports&lt;break&gt;Fund Manager&lt;break&gt;Institution&lt;break&gt;Partnership New</t>
+  </si>
+  <si>
+    <t>60&lt;break&gt;-10&lt;break&gt;42&lt;break&gt;-10&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Test1Fund&lt;break&gt;Test1Fund of Funds</t>
+  </si>
+  <si>
+    <t>M3Tc026_1_DeActivateARecordTypeForInstitution_Action</t>
+  </si>
+  <si>
+    <t>M3Tc027_VerifyAndCreateNavigationItemWhichAreRedirectedtoListView</t>
+  </si>
+  <si>
+    <t>Navigation List View Item</t>
+  </si>
+  <si>
+    <t>M3Tc028_CreateRecordthroughnavigationMenuandVerifyitontabsListview</t>
+  </si>
+  <si>
+    <t>Contact&lt;break&gt;Test Custom Object</t>
+  </si>
+  <si>
+    <t>M3Tc032_VerifyWhetherCustomNavigationwillbeaddedintheNavigationMenu</t>
+  </si>
+  <si>
+    <t>Custom Label</t>
+  </si>
+  <si>
+    <t>M3Tc034_VerifyTheFunctionalityByrenamingAndDeletingandRemovingUtilityItemCustomLabelintheCustomnavigationMenu</t>
+  </si>
+  <si>
+    <t>Custom Label New</t>
+  </si>
+  <si>
+    <t>M3INS12</t>
+  </si>
+  <si>
+    <t>M3INS22</t>
+  </si>
+  <si>
+    <t>navatariptesting+75406@gmail.com</t>
+  </si>
+  <si>
+    <t>M3CON12</t>
+  </si>
+  <si>
+    <t>CustomReportFolder69795</t>
+  </si>
+  <si>
+    <t>CustomReport73415</t>
+  </si>
+  <si>
+    <t>PETestEmailFolder70193</t>
+  </si>
+  <si>
+    <t>PETestCustomEmailTemplate9823</t>
+  </si>
+  <si>
+    <t>08/11/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2950,7 +2994,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3227,11 +3271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,80 +3796,126 @@
         <v>659</v>
       </c>
     </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="B45" t="s">
+        <v>863</v>
+      </c>
+      <c r="D45" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="B46" t="s">
+        <v>865</v>
+      </c>
+      <c r="E46" t="s">
+        <v>866</v>
+      </c>
+    </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
+        <v>747</v>
+      </c>
+      <c r="B47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>424</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>867</v>
+      </c>
+      <c r="K48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>751</v>
+      </c>
+      <c r="J50" t="s">
         <v>750</v>
-      </c>
-      <c r="B47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D47" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="B48" t="s">
-        <v>752</v>
-      </c>
-      <c r="E48" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>754</v>
-      </c>
-      <c r="B49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" t="s">
-        <v>424</v>
-      </c>
-      <c r="I50" t="s">
-        <v>359</v>
-      </c>
-      <c r="J50" t="s">
-        <v>756</v>
-      </c>
-      <c r="K50" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" t="s">
-        <v>424</v>
+        <v>868</v>
+      </c>
+      <c r="J51" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>759</v>
-      </c>
-      <c r="J52" t="s">
-        <v>758</v>
+        <v>869</v>
+      </c>
+      <c r="B52" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>871</v>
+      </c>
+      <c r="B53" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>873</v>
+      </c>
+      <c r="B54" t="s">
+        <v>874</v>
+      </c>
+      <c r="K54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>875</v>
+      </c>
+      <c r="B55" t="s">
+        <v>874</v>
+      </c>
+      <c r="D55" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B44" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L41" r:id="rId1"/>
+    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
+    <hyperlink ref="B44" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3833,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,7 +4010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,7 +4088,7 @@
         <v>326</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>331</v>
@@ -4015,7 +4105,7 @@
         <v>352</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>331</v>
@@ -4052,7 +4142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4175,7 +4265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4583,7 +4673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4677,7 +4767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4884,7 +4974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5094,7 +5184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5169,7 +5259,7 @@
         <v>655</v>
       </c>
       <c r="I2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5195,7 +5285,7 @@
         <v>299</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -5224,10 +5314,10 @@
         <v>299</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="I4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -5236,7 +5326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5336,7 +5426,7 @@
         <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5344,7 +5434,7 @@
         <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5371,7 +5461,7 @@
         <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5379,7 +5469,7 @@
         <v>345</v>
       </c>
       <c r="B14" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5387,7 +5477,7 @@
         <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5395,7 +5485,7 @@
         <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5717,36 +5807,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B6" t="s">
         <v>667</v>
       </c>
       <c r="C6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D6" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -5756,7 +5846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6025,7 +6115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6181,7 +6271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6262,11 +6352,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,10 +6398,10 @@
         <v>678</v>
       </c>
       <c r="B2" t="s">
-        <v>694</v>
+        <v>881</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>882</v>
       </c>
       <c r="D2" t="s">
         <v>679</v>
@@ -6330,11 +6420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6384,10 +6474,10 @@
         <v>688</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>883</v>
       </c>
       <c r="C2" t="s">
-        <v>697</v>
+        <v>884</v>
       </c>
       <c r="D2" t="s">
         <v>689</v>
@@ -6415,25 +6505,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1022" x14ac:dyDescent="0.25">
@@ -6450,7 +6540,7 @@
         <v>331</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>601</v>
@@ -6462,13 +6552,13 @@
         <v>603</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -7484,16 +7574,18 @@
     </row>
     <row r="2" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" t="s">
+        <v>885</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
         <v>590</v>
@@ -8516,18 +8608,18 @@
     </row>
     <row r="3" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>590</v>
@@ -9550,13 +9642,13 @@
     </row>
     <row r="4" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -10586,10 +10678,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -11158,7 +11250,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B33" t="s">
         <v>188</v>
@@ -11173,7 +11265,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -11188,7 +11280,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B35" t="s">
         <v>238</v>
@@ -11240,11 +11332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALO68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11270,7 +11362,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -14487,7 +14579,7 @@
     </row>
     <row r="25" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>545</v>
+        <v>877</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>546</v>
@@ -14498,7 +14590,7 @@
     </row>
     <row r="26" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>547</v>
+        <v>878</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>548</v>
@@ -14585,7 +14677,7 @@
         <v>545</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>76</v>
@@ -14596,7 +14688,7 @@
         <v>547</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C39" s="58" t="s">
         <v>32</v>
@@ -14604,10 +14696,10 @@
     </row>
     <row r="40" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C40" s="58" t="s">
         <v>32</v>
@@ -14615,10 +14707,10 @@
     </row>
     <row r="41" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>76</v>
@@ -14626,53 +14718,53 @@
     </row>
     <row r="42" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="32" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B44" s="58" t="s">
+        <v>725</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>729</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -14685,17 +14777,17 @@
     <row r="48" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>32</v>
@@ -14703,10 +14795,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>76</v>
@@ -14715,10 +14807,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B51" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
@@ -14726,10 +14818,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B52" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C52" t="s">
         <v>76</v>
@@ -14737,10 +14829,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B53" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C53" t="s">
         <v>76</v>
@@ -14748,10 +14840,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B54" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C54" t="s">
         <v>76</v>
@@ -14759,10 +14851,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B55" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -14770,10 +14862,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B56" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
@@ -14781,10 +14873,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B57" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -14792,10 +14884,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B58" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
@@ -14803,10 +14895,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B59" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="C59" t="s">
         <v>76</v>
@@ -14814,10 +14906,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B60" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C60" t="s">
         <v>373</v>
@@ -14825,43 +14917,43 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B61" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C61" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C62" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B63" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="C63" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B64" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C64" t="s">
         <v>289</v>
@@ -14869,10 +14961,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B65" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
@@ -14880,21 +14972,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B66" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C66" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="B67" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
@@ -14902,10 +14994,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B68" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="C68" t="s">
         <v>76</v>
@@ -14917,11 +15009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALR36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18169,7 +18261,7 @@
     </row>
     <row r="18" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
-        <v>549</v>
+        <v>880</v>
       </c>
       <c r="B18" s="50" t="s">
         <v>550</v>
@@ -18429,29 +18521,32 @@
         <v>549</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>716</v>
+        <v>712</v>
+      </c>
+      <c r="E32" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
@@ -18463,44 +18558,44 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="B35" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="C35" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B36" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="C36" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E36" s="63" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E35" r:id="rId2" display="mailto:dealroom1.2+clientcontact01@gmail.com" xr:uid="{98BA426C-325F-42E4-9F5B-5E6B7175D14E}"/>
-    <hyperlink ref="E36" r:id="rId3" display="mailto:dealroom1.2+clientcontact13@gmail.com" xr:uid="{5EC2790C-F5FF-49E5-AA9D-A10A39B602C9}"/>
+    <hyperlink ref="E18" r:id="rId1"/>
+    <hyperlink ref="E35" r:id="rId2" display="mailto:dealroom1.2+clientcontact01@gmail.com"/>
+    <hyperlink ref="E36" r:id="rId3" display="mailto:dealroom1.2+clientcontact13@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18559,7 +18654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18747,11 +18842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AML47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AML49"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD47"/>
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22097,23 +22192,23 @@
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -22122,13 +22217,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B24" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C24" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="D24" t="s">
         <v>266</v>
@@ -22136,13 +22231,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B25" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C25" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -22153,41 +22248,41 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="B26" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C26" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D26" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B27" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C27" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D27" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B28" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C28" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
@@ -22195,41 +22290,41 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B29" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C29" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="D29" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B30" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C30" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D30" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B31" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="C31" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D31" t="s">
         <v>266</v>
@@ -22237,13 +22332,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B32" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C32" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D32" t="s">
         <v>266</v>
@@ -22251,13 +22346,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="B33" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="C33" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D33" t="s">
         <v>266</v>
@@ -22265,13 +22360,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B34" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="C34" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D34" t="s">
         <v>266</v>
@@ -22279,13 +22374,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B35" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C35" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D35" t="s">
         <v>266</v>
@@ -22293,13 +22388,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="B36" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="C36" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D36" t="s">
         <v>266</v>
@@ -22307,13 +22402,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="B37" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C37" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="D37" t="s">
         <v>266</v>
@@ -22321,13 +22416,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B38" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C38" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D38" t="s">
         <v>266</v>
@@ -22335,13 +22430,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B39" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="C39" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D39" t="s">
         <v>266</v>
@@ -22349,13 +22444,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B40" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C40" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D40" t="s">
         <v>266</v>
@@ -22363,13 +22458,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B41" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C41" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D41" t="s">
         <v>266</v>
@@ -22377,13 +22472,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="B42" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C42" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D42" t="s">
         <v>266</v>
@@ -22393,7 +22488,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -22402,10 +22497,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B46" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -22416,16 +22511,30 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="B47" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
       </c>
       <c r="D47" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>709</v>
+      </c>
+      <c r="B49" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>707</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -22436,10 +22545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE8F3F1-4090-4764-95F5-1455E00CEB5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -22456,7 +22565,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -22467,18 +22576,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B3" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="888">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -2717,6 +2717,12 @@
   </si>
   <si>
     <t>08/11/2021</t>
+  </si>
+  <si>
+    <t>M6Deal20</t>
+  </si>
+  <si>
+    <t>Test Deal New</t>
   </si>
 </sst>
 </file>
@@ -6508,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18845,8 +18851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22484,6 +22490,23 @@
         <v>266</v>
       </c>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>886</v>
+      </c>
+      <c r="B43" t="s">
+        <v>887</v>
+      </c>
+      <c r="C43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>784</v>
+      </c>
+    </row>
     <row r="45" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akul Bhutani\git\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54464FC4-1747-4299-A5FE-68C59F2C55D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -2728,7 +2729,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -3000,7 +3001,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3277,7 +3278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -3919,9 +3920,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M"/>
-    <hyperlink ref="B44" r:id="rId3"/>
+    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B44" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3929,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4016,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4148,7 +4149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4271,7 +4272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4679,7 +4680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4773,7 +4774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4980,7 +4981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5190,7 +5191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5720,7 +5721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5852,7 +5853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6121,7 +6122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6277,7 +6278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6358,7 +6359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6426,7 +6427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6511,7 +6512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:AMH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10684,7 +10685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11338,7 +11339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:ALO68"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -15015,11 +15016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:ALR36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18592,16 +18593,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1"/>
-    <hyperlink ref="E35" r:id="rId2" display="mailto:dealroom1.2+clientcontact01@gmail.com"/>
-    <hyperlink ref="E36" r:id="rId3" display="mailto:dealroom1.2+clientcontact13@gmail.com"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E35" r:id="rId2" display="mailto:dealroom1.2+clientcontact01@gmail.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E36" r:id="rId3" display="mailto:dealroom1.2+clientcontact13@gmail.com" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18660,7 +18661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18848,11 +18849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AML49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22568,7 +22569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Phase1DataSheet.xlsx
+++ b/Phase1DataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Navatar_Projects\einstein-code-version-2-pe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\einstein-code-version-2-pe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54464FC4-1747-4299-A5FE-68C59F2C55D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="18" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="FilePath" sheetId="18" r:id="rId1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="815">
   <si>
     <t>NameSpace_PreFix</t>
   </si>
@@ -981,21 +980,6 @@
     <t>Updated_Order</t>
   </si>
   <si>
-    <t>Reports&lt;break&gt;Dashboards</t>
-  </si>
-  <si>
-    <t>Account Referrals&lt;break&gt;Dead Deals</t>
-  </si>
-  <si>
-    <t>Fund&lt;break&gt;Contact</t>
-  </si>
-  <si>
-    <t>New Fund&lt;break&gt;New Contact</t>
-  </si>
-  <si>
-    <t>New Contact&lt;break&gt;Reports&lt;break&gt;Fund Manager&lt;break&gt;Institution&lt;break&gt;Partnership</t>
-  </si>
-  <si>
     <t>FieldSetLabel</t>
   </si>
   <si>
@@ -1005,15 +989,6 @@
     <t>Dashboards</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Test Label 2,10,Reports,,,,,</t>
-  </si>
-  <si>
     <t>Non-Disclosure Agreement</t>
   </si>
   <si>
@@ -1056,9 +1031,6 @@
     <t>navpeII__Contact_Referral_Source__c</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1119,33 +1091,9 @@
     <t>List_View_Name</t>
   </si>
   <si>
-    <t>Accounts/Reports&lt;break&gt;Dashboards</t>
-  </si>
-  <si>
-    <t>Marketing Prospects</t>
-  </si>
-  <si>
-    <t>navpeII__Marketing_Prospect__c</t>
-  </si>
-  <si>
     <t>Automation_All</t>
   </si>
   <si>
-    <t>Custom Label 2</t>
-  </si>
-  <si>
-    <t>Accounts/Custom Label 2</t>
-  </si>
-  <si>
-    <t>OtherAccount</t>
-  </si>
-  <si>
-    <t>Institution&lt;break&gt;Company&lt;break&gt;Fund Manager&lt;break&gt;Fund Manager’s Fund&lt;break&gt;Individual Investor&lt;break&gt;Intermediary&lt;break&gt;Limited Partner</t>
-  </si>
-  <si>
-    <t>Intermediary&lt;break&gt;Individual Investor&lt;break&gt;Limited Partner</t>
-  </si>
-  <si>
     <t>M4CON1</t>
   </si>
   <si>
@@ -1320,15 +1268,9 @@
     <t>Account</t>
   </si>
   <si>
-    <t>New Fund</t>
-  </si>
-  <si>
     <t>navpeII__Fund__c</t>
   </si>
   <si>
-    <t>Fund&lt;break&gt;Fund of Funds</t>
-  </si>
-  <si>
     <t>M4Field1</t>
   </si>
   <si>
@@ -1395,15 +1337,6 @@
     <t>DT-0029</t>
   </si>
   <si>
-    <t>Create New</t>
-  </si>
-  <si>
-    <t>Child1&lt;break&gt;Child2&lt;break&gt;Child3&lt;break&gt;Child4&lt;break&gt;Child5&lt;break&gt;Child6&lt;break&gt;Child7&lt;break&gt;Child8&lt;break&gt;Child9&lt;break&gt;Child10&lt;break&gt;Child11&lt;break&gt;Child12&lt;break&gt;Child13&lt;break&gt;Child14&lt;break&gt;Child15&lt;break&gt;Child16&lt;break&gt;Child17&lt;break&gt;Child18&lt;break&gt;Child19&lt;break&gt;Child20</t>
-  </si>
-  <si>
-    <t>AllParent</t>
-  </si>
-  <si>
     <t>M4Att7</t>
   </si>
   <si>
@@ -1413,12 +1346,6 @@
     <t>M4Att9</t>
   </si>
   <si>
-    <t>My Industry</t>
-  </si>
-  <si>
-    <t>/lightning/cmp/c__RedirectCmp?c__coverage=industry</t>
-  </si>
-  <si>
     <t>Coverage_Name</t>
   </si>
   <si>
@@ -1530,12 +1457,6 @@
     <t>Contact8</t>
   </si>
   <si>
-    <t>My Region</t>
-  </si>
-  <si>
-    <t>/lightning/cmp/c__RedirectCmp?c__coverage=Region</t>
-  </si>
-  <si>
     <t>M4ME2</t>
   </si>
   <si>
@@ -1665,57 +1586,18 @@
     <t>TestContact Deal</t>
   </si>
   <si>
-    <t>Log a Call with Multiple Associations</t>
-  </si>
-  <si>
-    <t>create new</t>
-  </si>
-  <si>
-    <t>New Meeting</t>
-  </si>
-  <si>
-    <t>New Task with Multiple Associations</t>
-  </si>
-  <si>
-    <t>New Task with Multiple Associations&lt;break&gt;Log a Call with Multiple Associations&lt;break&gt;New Meeting</t>
-  </si>
-  <si>
-    <t>Task Type1&lt;break&gt;Task Type2&lt;break&gt;Task Type3</t>
-  </si>
-  <si>
-    <t>Log a Call with Multiple Associations&lt;break&gt;New Task with Multiple Associations&lt;break&gt;New Meeting</t>
-  </si>
-  <si>
     <t>M3INS1</t>
   </si>
   <si>
-    <t>M3TestOmaxe Group</t>
-  </si>
-  <si>
     <t>M3INS2</t>
   </si>
   <si>
-    <t>M3TestAIG Corp</t>
-  </si>
-  <si>
     <t>M3CON1</t>
   </si>
   <si>
-    <t>M3TestAlex</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>navatariptesting+78601@gmail.com</t>
-  </si>
-  <si>
     <t>M3FUND1</t>
   </si>
   <si>
-    <t>M3TestAxis Deal</t>
-  </si>
-  <si>
     <t>M3TestCst Record1</t>
   </si>
   <si>
@@ -1795,21 +1677,6 @@
   </si>
   <si>
     <t>New York</t>
-  </si>
-  <si>
-    <t>Accounts/Custom Label 2&lt;break&gt;Contact/Custom Label 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40&lt;break&gt;-10&lt;break&gt;6&lt;break&gt;-10&lt;break&gt; </t>
-  </si>
-  <si>
-    <t>Account&lt;break&gt;Fund&lt;break&gt;Task1</t>
-  </si>
-  <si>
-    <t>Create New/Account&lt;break&gt;Create New/Fund&lt;break&gt;Create New/Task1</t>
-  </si>
-  <si>
-    <t>Create New&lt;break&gt;Account&lt;break&gt;Fund&lt;break&gt;Task1</t>
   </si>
   <si>
     <t>M3Task1</t>
@@ -1900,123 +1767,6 @@
     <t>{"entityApiName": "Contact", "defaultFieldValues": {
 "AccountId" : "#parentrecordId#"
 }}</t>
-  </si>
-  <si>
-    <t>M3Tc008_VerifyTheitemsForWhichURLAndActionObjectAndLiewViewObjectFieldWasBlank</t>
-  </si>
-  <si>
-    <t>M3Tc009_1_UpdateReportsAndDashboardURLWithAnActualReporAndDashboardLink_Action</t>
-  </si>
-  <si>
-    <t>M3Tc011_RenameNavigationLabelAndVerifyImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc012_ChangeTheOrderOfTheLabelAndVerifyImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc015_1_AddNewNavigationItemsAndVerifyItOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc018_CreateSubMenuAndVerify</t>
-  </si>
-  <si>
-    <t>M3Tc019_CreateSubMenuForIIndlevelAndVerifyItOnTheNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc021_FillThirdPartyWebsiteToReportAndDashboardAndVerifyTheNavigation</t>
-  </si>
-  <si>
-    <t>M3Tc022_CreateListViewAndVerifyTheNavigationForListView</t>
-  </si>
-  <si>
-    <t>M3Tc023_2_CreateALightningAppPageAndVerifyTheNavigationForLighteningAppPage</t>
-  </si>
-  <si>
-    <t>M3Tc024_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
-  </si>
-  <si>
-    <t>M3Tc025_FillTheRecordTypeIDAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc027_RemoveTheRecordTypeAPIFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc028_FillSomeThirdPartyUrlInUrlFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc029_CreateAlistViewOfAccountsAndListViewInformationOnNavigationPage</t>
-  </si>
-  <si>
-    <t>M3Tc030_RemoveTheURLAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc031_RemoveQuickCreateObjectFieldAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc032_RemoveListViewObjectAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc033_RemoveListViewNameAndVerifyTheImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc034_CreateRecordTypeFundAndFundOfFundsForFundObjectAndAddTheFromTheProfiles</t>
-  </si>
-  <si>
-    <t>M3Tc035_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
-  </si>
-  <si>
-    <t>M3Tc036_1_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc036_2_UpdateTheRecordTypeAndDescriptionImpactOnNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc050_CreateNewItemTaskOnNavigationTab</t>
-  </si>
-  <si>
-    <t>M3Tc051_CreateNewItemsOnNavigationPage</t>
-  </si>
-  <si>
-    <t>M3Tc055_MakeParentItemAsChildOfOtherItem</t>
-  </si>
-  <si>
-    <t>M3Tc054_CreateRecordsAfterNavigationThroughNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc057_DeleteCreateNewItemFromNavigationPage</t>
-  </si>
-  <si>
-    <t>M3Tc058_Create20ItemsUnderAParentItemAndVerfiyNavigationMenu</t>
-  </si>
-  <si>
-    <t>M3Tc063_2_RemoveTheRecordCreationRightForStandardUser</t>
-  </si>
-  <si>
-    <t>M3Tc065_CreateMyIndustryMenuItem</t>
-  </si>
-  <si>
-    <t>M3Tc074_CreateMyRegionMenuItem</t>
-  </si>
-  <si>
-    <t>M3Tc081_CreateMultiTaggedLogACallAllNavigationMenuItem</t>
-  </si>
-  <si>
-    <t>M3Tc085_CreateCustomActionOfTypeTask</t>
-  </si>
-  <si>
-    <t>M3Tc086_CreateNavigationRecordsRelatedToMultiTaggedActions</t>
-  </si>
-  <si>
-    <t>M3Tc091_CreatePredefinendValuesInNavigationRecords</t>
-  </si>
-  <si>
-    <t>M3Tc093_CreateTaskRecordTypesAndPageLayouts</t>
-  </si>
-  <si>
-    <t>M3Tc094_EditNavigationRecordAndSetRecordTypesInEachRecord</t>
-  </si>
-  <si>
-    <t>M3Tc095_VerifyActionsfromNavigationPageAfterAssigningRecordTypes</t>
   </si>
   <si>
     <t>Fund Preferences&lt;breakOn&gt;Existing LP&lt;breakOn&gt;Total Fund Commitments (mn)&lt;breakOn&gt;Total Co-investment Commitments (mn)&lt;breakOn&gt;Industry&lt;breakOn&gt;Region&lt;breakOn&gt;Bank Name&lt;breakOn&gt;City</t>
@@ -2180,18 +1930,9 @@
     <t>M3MEETING1</t>
   </si>
   <si>
-    <t>Jio Deal</t>
-  </si>
-  <si>
     <t>Reliance</t>
   </si>
   <si>
-    <t>Due Deligence</t>
-  </si>
-  <si>
-    <t>M3DEAL1</t>
-  </si>
-  <si>
     <t>Reliance Group</t>
   </si>
   <si>
@@ -2312,9 +2053,6 @@
     <t>M3Tc020_VerifyQuickCreateObjectWhenRecordHasMultipleRecordTypes</t>
   </si>
   <si>
-    <t>TestCustom Object 1&lt;break&gt;TestCustom Object 2</t>
-  </si>
-  <si>
     <t>M3Tc023_CreateRecordTypeForCustomObjectAndAddTheFromTheProfiles</t>
   </si>
   <si>
@@ -2678,9 +2416,6 @@
     <t>M3Tc028_CreateRecordthroughnavigationMenuandVerifyitontabsListview</t>
   </si>
   <si>
-    <t>Contact&lt;break&gt;Test Custom Object</t>
-  </si>
-  <si>
     <t>M3Tc032_VerifyWhetherCustomNavigationwillbeaddedintheNavigationMenu</t>
   </si>
   <si>
@@ -2693,18 +2428,6 @@
     <t>Custom Label New</t>
   </si>
   <si>
-    <t>M3INS12</t>
-  </si>
-  <si>
-    <t>M3INS22</t>
-  </si>
-  <si>
-    <t>navatariptesting+75406@gmail.com</t>
-  </si>
-  <si>
-    <t>M3CON12</t>
-  </si>
-  <si>
     <t>CustomReportFolder69795</t>
   </si>
   <si>
@@ -2724,12 +2447,69 @@
   </si>
   <si>
     <t>Test Deal New</t>
+  </si>
+  <si>
+    <t>Test1Custom Object 1&lt;break&gt;Test1Custom Object 2</t>
+  </si>
+  <si>
+    <t>M3Tc029_VerifyWhereChildNodeIsMovedFromOneParentToAnotherInNavigationMenu</t>
+  </si>
+  <si>
+    <t>Child_Account</t>
+  </si>
+  <si>
+    <t>Parent_Account1&lt;break&gt;Parent_Account2</t>
+  </si>
+  <si>
+    <t>TestReliance Fund</t>
+  </si>
+  <si>
+    <t>Aman Institute</t>
+  </si>
+  <si>
+    <t>M3CON3</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Reliance Digital</t>
+  </si>
+  <si>
+    <t>Reliance Partner</t>
+  </si>
+  <si>
+    <t>M3PS1</t>
+  </si>
+  <si>
+    <t>Relaince Fundraising</t>
+  </si>
+  <si>
+    <t>M3FR1</t>
+  </si>
+  <si>
+    <t>M3CON4</t>
+  </si>
+  <si>
+    <t>Satty</t>
+  </si>
+  <si>
+    <t>Nade</t>
+  </si>
+  <si>
+    <t>M3INS9</t>
+  </si>
+  <si>
+    <t>M3INS10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -2874,7 +2654,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2991,9 +2771,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
@@ -3001,7 +2778,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3278,11 +3055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,622 +3092,206 @@
         <v>309</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="B2" t="s">
-        <v>582</v>
+        <v>445</v>
+      </c>
+      <c r="L2" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="B3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" t="s">
-        <v>311</v>
+      <c r="A3" t="s">
+        <v>462</v>
+      </c>
+      <c r="M3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>618</v>
+      <c r="A4" t="s">
+        <v>573</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="B5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" t="s">
-        <v>583</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>620</v>
+      <c r="A6" s="13" t="s">
+        <v>659</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>776</v>
+      </c>
+      <c r="D6" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" t="s">
-        <v>319</v>
+        <v>778</v>
+      </c>
+      <c r="E7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
-      </c>
-      <c r="G9" t="s">
-        <v>356</v>
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>406</v>
+      </c>
+      <c r="I9" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" t="s">
+        <v>780</v>
+      </c>
+      <c r="K9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
-      </c>
-      <c r="H10" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" t="s">
-        <v>359</v>
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="B11" t="s">
-        <v>360</v>
-      </c>
-      <c r="G11" t="s">
-        <v>361</v>
+        <v>664</v>
+      </c>
+      <c r="J11" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="B12" t="s">
-        <v>362</v>
+        <v>781</v>
       </c>
       <c r="J12" t="s">
-        <v>363</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>627</v>
+        <v>782</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
-      </c>
-      <c r="J13" t="s">
-        <v>364</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>628</v>
+        <v>784</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>629</v>
+        <v>797</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>798</v>
+      </c>
+      <c r="F15" t="s">
+        <v>799</v>
+      </c>
+      <c r="K15" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>630</v>
+        <v>785</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" t="s">
-        <v>422</v>
-      </c>
-      <c r="I16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="K16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>631</v>
+        <v>787</v>
       </c>
       <c r="B17" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="B18" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="B19" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="B20" t="s">
-        <v>362</v>
-      </c>
-      <c r="H20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="B21" t="s">
-        <v>423</v>
-      </c>
-      <c r="H21" t="s">
-        <v>424</v>
-      </c>
-      <c r="I21" t="s">
-        <v>359</v>
-      </c>
-      <c r="J21" t="s">
-        <v>425</v>
-      </c>
-      <c r="K21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="B22" t="s">
-        <v>423</v>
-      </c>
-      <c r="K22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B23" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>638</v>
-      </c>
-      <c r="B24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="B25" t="s">
-        <v>335</v>
-      </c>
-      <c r="E25">
-        <v>35</v>
-      </c>
-      <c r="K25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="B26" t="s">
-        <v>584</v>
-      </c>
-      <c r="F26" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="B27" t="s">
-        <v>423</v>
-      </c>
-      <c r="F27" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="B29" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="B30" t="s">
-        <v>449</v>
-      </c>
-      <c r="F30" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="B31" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="B32" t="s">
-        <v>454</v>
-      </c>
-      <c r="E32">
-        <v>-20</v>
-      </c>
-      <c r="L32" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="B33" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33">
-        <v>-25</v>
-      </c>
-      <c r="L33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="B34" t="s">
-        <v>538</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>539</v>
-      </c>
-      <c r="K34" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B35" t="s">
-        <v>540</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>539</v>
-      </c>
-      <c r="K35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="B36" t="s">
-        <v>541</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>539</v>
-      </c>
-      <c r="K36" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="B37" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="J38" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B39" t="s">
-        <v>544</v>
-      </c>
-      <c r="J39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="B40" t="s">
-        <v>544</v>
-      </c>
-      <c r="F40" t="s">
-        <v>539</v>
-      </c>
-      <c r="J40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="L41" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>486</v>
-      </c>
-      <c r="M42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>656</v>
-      </c>
-      <c r="B43" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>657</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>658</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>745</v>
-      </c>
-      <c r="B45" t="s">
-        <v>863</v>
-      </c>
-      <c r="D45" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="B46" t="s">
-        <v>865</v>
-      </c>
-      <c r="E46" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="B47" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" t="s">
-        <v>424</v>
-      </c>
-      <c r="I48" t="s">
-        <v>359</v>
-      </c>
-      <c r="J48" t="s">
-        <v>867</v>
-      </c>
-      <c r="K48" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>751</v>
-      </c>
-      <c r="J50" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>868</v>
-      </c>
-      <c r="J51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>869</v>
-      </c>
-      <c r="B52" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>871</v>
-      </c>
-      <c r="B53" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>873</v>
-      </c>
-      <c r="B54" t="s">
-        <v>874</v>
-      </c>
-      <c r="K54" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>875</v>
-      </c>
-      <c r="B55" t="s">
-        <v>874</v>
-      </c>
-      <c r="D55" t="s">
-        <v>876</v>
+        <v>786</v>
+      </c>
+      <c r="D17" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L41" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L31" r:id="rId2" display="https://pe4604--c.documentforce.com/profilephoto/7294x000000I280/M" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B44" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3969,7 +3330,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3984,7 +3345,7 @@
         <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>668</v>
+        <v>585</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>157</v>
@@ -4001,13 +3362,13 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>669</v>
+        <v>586</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>160</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4047,7 +3408,7 @@
         <v>149</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -4060,7 +3421,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4069,7 +3430,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -4081,48 +3442,48 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>836</v>
+        <v>318</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>749</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>837</v>
+        <v>750</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4134,10 +3495,10 @@
         <v>150</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>151</v>
@@ -4149,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4199,7 +3560,7 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4214,7 +3575,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>174</v>
@@ -4234,7 +3595,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>179</v>
@@ -4254,7 +3615,7 @@
         <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>184</v>
@@ -4272,7 +3633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4317,7 +3678,7 @@
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="49" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="31"/>
@@ -4346,310 +3707,310 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="49" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B22" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="B23" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E26" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
       <c r="B27" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4661,16 +4022,16 @@
         <v>164</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4680,11 +4041,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4715,7 +4076,7 @@
     <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -4745,28 +4106,45 @@
     <row r="7" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C9" s="22"/>
+    </row>
+    <row r="11" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4774,7 +4152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4867,7 +4245,7 @@
     <row r="2" spans="1:20" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" t="s">
-        <v>666</v>
+        <v>583</v>
       </c>
       <c r="K2" s="47"/>
       <c r="L2" s="47"/>
@@ -4881,7 +4259,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -4905,7 +4283,7 @@
         <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>665</v>
+        <v>582</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -4942,7 +4320,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4963,14 +4341,14 @@
     </row>
     <row r="8" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="22"/>
@@ -4981,7 +4359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5006,13 +4384,13 @@
         <v>138</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -5020,7 +4398,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="13"/>
       <c r="D2" s="9" t="s">
-        <v>563</v>
+        <v>524</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -5112,7 +4490,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="13"/>
       <c r="D15" s="9" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5133,56 +4511,56 @@
     </row>
     <row r="16" spans="1:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5191,7 +4569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5237,7 +4615,7 @@
         <v>296</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -5245,10 +4623,10 @@
         <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>584</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
         <v>298</v>
@@ -5263,10 +4641,10 @@
         <v>299</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>655</v>
+        <v>572</v>
       </c>
       <c r="I2" t="s">
-        <v>732</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5292,7 +4670,7 @@
         <v>299</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
@@ -5321,10 +4699,10 @@
         <v>299</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>734</v>
+        <v>648</v>
       </c>
       <c r="I4" t="s">
-        <v>735</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5354,19 +4732,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5380,7 +4758,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5390,31 +4768,31 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -5422,77 +4800,77 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
-        <v>838</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B10" t="s">
-        <v>839</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B13" t="s">
-        <v>840</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
-        <v>841</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B15" t="s">
-        <v>842</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B16" t="s">
-        <v>843</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -5501,7 +4879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,7 +4897,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>93</v>
@@ -5528,7 +4906,7 @@
         <v>303</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -5541,7 +4919,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -5550,169 +4928,169 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E6" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E9" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="E12" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
       <c r="B13" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="C13" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5721,7 +5099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5772,10 +5150,10 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>664</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5792,7 +5170,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5814,36 +5192,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>739</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>735</v>
+        <v>649</v>
       </c>
       <c r="D5" t="s">
-        <v>740</v>
+        <v>654</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>741</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>742</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>667</v>
+        <v>584</v>
       </c>
       <c r="C6" t="s">
-        <v>732</v>
+        <v>646</v>
       </c>
       <c r="D6" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>744</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -5853,7 +5231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5871,25 +5249,25 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="9"/>
@@ -5898,222 +5276,222 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E5" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F6" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E9" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="F11" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E13" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="F13" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6122,7 +5500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6141,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -6155,7 +5533,7 @@
     <row r="3" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
@@ -6164,112 +5542,112 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="C12" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
       <c r="C13" t="s">
-        <v>562</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -6278,7 +5656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6298,59 +5676,59 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="F2" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="F3" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -6359,7 +5737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6382,19 +5760,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>673</v>
+        <v>590</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>674</v>
+        <v>591</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>675</v>
+        <v>592</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>676</v>
+        <v>593</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -6402,22 +5780,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>595</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
+        <v>789</v>
       </c>
       <c r="C2" t="s">
-        <v>882</v>
+        <v>790</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
+        <v>596</v>
       </c>
       <c r="E2" t="s">
-        <v>680</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>681</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +5805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6452,57 +5830,57 @@
         <v>9</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>682</v>
+        <v>599</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>683</v>
+        <v>600</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="E1" s="9" t="s"